--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C70FBD0-CECC-4BE1-AC7B-A90A71500513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E593596-5DD9-4EA0-82FB-AF6AB7291FAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7124" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7126" uniqueCount="1224">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5313,7 +5313,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O59" sqref="O59"/>
+      <selection pane="bottomLeft" activeCell="O586" sqref="O586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14910,8 +14910,12 @@
       <c r="M220" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N220" s="11"/>
-      <c r="O220" s="11"/>
+      <c r="N220" s="21" t="s">
+        <v>1075</v>
+      </c>
+      <c r="O220" s="11" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="221" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="27">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9E2FBE-E497-425F-BA8B-680A93CF7F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C22EC24-1BAB-40F5-88ED-088E46B644C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7130" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7136" uniqueCount="1226">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3761,7 +3761,10 @@
     <t>Indien het Artikel is onderverdeeld in Leden, dan dient er geannoteerd te worden op het Lid (en mag er niet geannoteerd worden op het Artikel).</t>
   </si>
   <si>
-    <t>opdracht_6</t>
+    <t>opdracht_7</t>
+  </si>
+  <si>
+    <t>opdracht_8</t>
   </si>
 </sst>
 </file>
@@ -5325,7 +5328,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O65" sqref="O65"/>
+      <selection pane="bottomLeft" activeCell="N68" sqref="N68:O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8306,8 +8309,12 @@
       <c r="M66" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
+      <c r="N66" s="11" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O66" s="11" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="30">
@@ -8349,8 +8356,12 @@
       <c r="M67" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
+      <c r="N67" s="22" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O67" s="22" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="30">
@@ -8392,8 +8403,12 @@
       <c r="M68" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
+      <c r="N68" s="22" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O68" s="22" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="30">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C22EC24-1BAB-40F5-88ED-088E46B644C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BFE16D-3E4D-4D90-A635-BFF3D3B44681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7136" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7138" uniqueCount="1226">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5328,7 +5328,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N68" sqref="N68:O68"/>
+      <selection pane="bottomLeft" activeCell="N71" sqref="N71:O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8457,7 +8457,7 @@
       <c r="A70" s="30">
         <v>2</v>
       </c>
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="16" t="s">
         <v>509</v>
       </c>
       <c r="C70" s="22" t="s">
@@ -8536,8 +8536,12 @@
       <c r="M71" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
+      <c r="N71" s="22" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O71" s="22" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="30">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BFE16D-3E4D-4D90-A635-BFF3D3B44681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CFFC3B-42F6-40FB-A812-75DE9655C03D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7138" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7140" uniqueCount="1226">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5328,7 +5328,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N71" sqref="N71:O71"/>
+      <selection pane="bottomLeft" activeCell="N72" sqref="N72:O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8583,8 +8583,12 @@
       <c r="M72" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
+      <c r="N72" s="22" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O72" s="22" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="30">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7AA693-BB2D-4D29-B548-55436CA74937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276E6564-27D1-49EB-A586-DC1C8AABB26F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7145" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7147" uniqueCount="1227">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5334,8 +5334,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P35" sqref="P35"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6172,7 +6172,7 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>4</v>
       </c>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
         <v>4</v>
       </c>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <v>4</v>
       </c>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
         <v>4</v>
       </c>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
         <v>4</v>
       </c>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
         <v>4</v>
       </c>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29">
         <v>4</v>
       </c>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <v>4</v>
       </c>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29">
         <v>4</v>
       </c>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
         <v>4</v>
       </c>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29">
         <v>4</v>
       </c>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29">
         <v>4</v>
       </c>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29">
         <v>4</v>
       </c>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29">
         <v>4</v>
       </c>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="O33" s="11"/>
     </row>
-    <row r="34" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29">
         <v>4</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29">
         <v>4</v>
       </c>
@@ -8151,7 +8151,7 @@
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
     </row>
-    <row r="63" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="30">
         <v>2</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="31">
         <v>2</v>
       </c>
@@ -8241,7 +8241,7 @@
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
     </row>
-    <row r="65" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="31">
         <v>2</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="31">
         <v>2</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="31">
         <v>2</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="31">
         <v>2</v>
       </c>
@@ -8429,11 +8429,11 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="31">
         <v>2</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="16" t="s">
         <v>157</v>
       </c>
       <c r="C69" s="23" t="s">
@@ -8472,7 +8472,7 @@
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
     </row>
-    <row r="70" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="31">
         <v>2</v>
       </c>
@@ -8515,7 +8515,7 @@
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
     </row>
-    <row r="71" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="31">
         <v>2</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="31">
         <v>2</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="31">
         <v>2</v>
       </c>
@@ -8652,7 +8652,7 @@
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
     </row>
-    <row r="74" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="32">
         <v>2</v>
       </c>
@@ -8695,7 +8695,7 @@
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
     </row>
-    <row r="75" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="31">
         <v>2</v>
       </c>
@@ -8735,14 +8735,18 @@
       <c r="M75" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-    </row>
-    <row r="76" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N75" s="23" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O75" s="11" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="31">
         <v>2</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="16" t="s">
         <v>511</v>
       </c>
       <c r="C76" s="23" t="s">
@@ -8781,11 +8785,11 @@
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
     </row>
-    <row r="77" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="31">
         <v>2</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="16" t="s">
         <v>513</v>
       </c>
       <c r="C77" s="23" t="s">
@@ -8824,11 +8828,11 @@
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
     </row>
-    <row r="78" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="31">
         <v>2</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="16" t="s">
         <v>515</v>
       </c>
       <c r="C78" s="23" t="s">
@@ -8867,11 +8871,11 @@
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
     </row>
-    <row r="79" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="31">
         <v>2</v>
       </c>
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="16" t="s">
         <v>517</v>
       </c>
       <c r="C79" s="23" t="s">
@@ -8910,11 +8914,11 @@
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
     </row>
-    <row r="80" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="31">
         <v>2</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="16" t="s">
         <v>519</v>
       </c>
       <c r="C80" s="23" t="s">
@@ -8953,11 +8957,11 @@
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
     </row>
-    <row r="81" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="31">
         <v>2</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="16" t="s">
         <v>521</v>
       </c>
       <c r="C81" s="23" t="s">
@@ -8996,11 +9000,11 @@
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
     </row>
-    <row r="82" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="31">
         <v>2</v>
       </c>
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="16" t="s">
         <v>523</v>
       </c>
       <c r="C82" s="23" t="s">
@@ -9039,11 +9043,11 @@
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
     </row>
-    <row r="83" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="31">
         <v>2</v>
       </c>
-      <c r="B83" s="28" t="s">
+      <c r="B83" s="16" t="s">
         <v>525</v>
       </c>
       <c r="C83" s="23" t="s">
@@ -9082,7 +9086,7 @@
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
     </row>
-    <row r="84" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="31">
         <v>2</v>
       </c>
@@ -9125,7 +9129,7 @@
       <c r="N84" s="11"/>
       <c r="O84" s="11"/>
     </row>
-    <row r="85" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="30">
         <v>2</v>
       </c>
@@ -9168,7 +9172,7 @@
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
     </row>
-    <row r="86" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="30">
         <v>2</v>
       </c>
@@ -9211,7 +9215,7 @@
       <c r="N86" s="11"/>
       <c r="O86" s="11"/>
     </row>
-    <row r="87" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="30">
         <v>2</v>
       </c>
@@ -9254,7 +9258,7 @@
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
     </row>
-    <row r="88" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="28">
         <v>2</v>
       </c>
@@ -9297,7 +9301,7 @@
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
     </row>
-    <row r="89" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="28">
         <v>2</v>
       </c>
@@ -9340,7 +9344,7 @@
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
     </row>
-    <row r="90" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="28">
         <v>2</v>
       </c>
@@ -9383,7 +9387,7 @@
       <c r="N90" s="11"/>
       <c r="O90" s="11"/>
     </row>
-    <row r="91" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="28">
         <v>2</v>
       </c>
@@ -9426,7 +9430,7 @@
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
     </row>
-    <row r="92" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="28">
         <v>2</v>
       </c>
@@ -9469,7 +9473,7 @@
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
     </row>
-    <row r="93" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="28">
         <v>2</v>
       </c>
@@ -9512,7 +9516,7 @@
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
     </row>
-    <row r="94" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="28">
         <v>2</v>
       </c>
@@ -9555,7 +9559,7 @@
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
     </row>
-    <row r="95" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="28">
         <v>2</v>
       </c>
@@ -9598,7 +9602,7 @@
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
     </row>
-    <row r="96" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="28">
         <v>2</v>
       </c>
@@ -9641,7 +9645,7 @@
       <c r="N96" s="11"/>
       <c r="O96" s="11"/>
     </row>
-    <row r="97" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="28">
         <v>2</v>
       </c>
@@ -9684,7 +9688,7 @@
       <c r="N97" s="11"/>
       <c r="O97" s="11"/>
     </row>
-    <row r="98" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="28">
         <v>2</v>
       </c>
@@ -9727,7 +9731,7 @@
       <c r="N98" s="12"/>
       <c r="O98" s="12"/>
     </row>
-    <row r="99" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="28">
         <v>2</v>
       </c>
@@ -9770,7 +9774,7 @@
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
     </row>
-    <row r="100" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="30">
         <v>2</v>
       </c>
@@ -9813,7 +9817,7 @@
       <c r="N100" s="11"/>
       <c r="O100" s="11"/>
     </row>
-    <row r="101" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="30">
         <v>2</v>
       </c>
@@ -9856,7 +9860,7 @@
       <c r="N101" s="11"/>
       <c r="O101" s="11"/>
     </row>
-    <row r="102" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="30">
         <v>2</v>
       </c>
@@ -9899,7 +9903,7 @@
       <c r="N102" s="11"/>
       <c r="O102" s="11"/>
     </row>
-    <row r="103" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="31">
         <v>2</v>
       </c>
@@ -9942,7 +9946,7 @@
       <c r="N103" s="11"/>
       <c r="O103" s="11"/>
     </row>
-    <row r="104" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="31">
         <v>2</v>
       </c>
@@ -9985,7 +9989,7 @@
       <c r="N104" s="11"/>
       <c r="O104" s="11"/>
     </row>
-    <row r="105" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="31">
         <v>2</v>
       </c>
@@ -10028,7 +10032,7 @@
       <c r="N105" s="11"/>
       <c r="O105" s="11"/>
     </row>
-    <row r="106" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="31">
         <v>2</v>
       </c>
@@ -10071,7 +10075,7 @@
       <c r="N106" s="11"/>
       <c r="O106" s="11"/>
     </row>
-    <row r="107" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="31">
         <v>2</v>
       </c>
@@ -10114,7 +10118,7 @@
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
     </row>
-    <row r="108" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="31">
         <v>2</v>
       </c>
@@ -10200,7 +10204,7 @@
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
     </row>
-    <row r="110" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="31">
         <v>2</v>
       </c>
@@ -10243,7 +10247,7 @@
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
     </row>
-    <row r="111" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="32">
         <v>2</v>
       </c>
@@ -10286,7 +10290,7 @@
       <c r="N111" s="11"/>
       <c r="O111" s="11"/>
     </row>
-    <row r="112" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="31">
         <v>2</v>
       </c>
@@ -10329,7 +10333,7 @@
       <c r="N112" s="11"/>
       <c r="O112" s="11"/>
     </row>
-    <row r="113" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="31">
         <v>2</v>
       </c>
@@ -10372,7 +10376,7 @@
       <c r="N113" s="11"/>
       <c r="O113" s="11"/>
     </row>
-    <row r="114" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="31">
         <v>2</v>
       </c>
@@ -10415,7 +10419,7 @@
       <c r="N114" s="11"/>
       <c r="O114" s="11"/>
     </row>
-    <row r="115" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="32">
         <v>2</v>
       </c>
@@ -10458,7 +10462,7 @@
       <c r="N115" s="12"/>
       <c r="O115" s="12"/>
     </row>
-    <row r="116" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="32">
         <v>2</v>
       </c>
@@ -10501,7 +10505,7 @@
       <c r="N116" s="11"/>
       <c r="O116" s="11"/>
     </row>
-    <row r="117" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="31">
         <v>2</v>
       </c>
@@ -10544,7 +10548,7 @@
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
     </row>
-    <row r="118" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="31">
         <v>2</v>
       </c>
@@ -10587,7 +10591,7 @@
       <c r="N118" s="11"/>
       <c r="O118" s="11"/>
     </row>
-    <row r="119" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="31">
         <v>2</v>
       </c>
@@ -10630,7 +10634,7 @@
       <c r="N119" s="11"/>
       <c r="O119" s="11"/>
     </row>
-    <row r="120" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="31">
         <v>2</v>
       </c>
@@ -10673,7 +10677,7 @@
       <c r="N120" s="11"/>
       <c r="O120" s="11"/>
     </row>
-    <row r="121" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="31">
         <v>2</v>
       </c>
@@ -10716,7 +10720,7 @@
       <c r="N121" s="11"/>
       <c r="O121" s="11"/>
     </row>
-    <row r="122" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="30">
         <v>2</v>
       </c>
@@ -10759,7 +10763,7 @@
       <c r="N122" s="11"/>
       <c r="O122" s="11"/>
     </row>
-    <row r="123" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="30">
         <v>2</v>
       </c>
@@ -10802,7 +10806,7 @@
       <c r="N123" s="11"/>
       <c r="O123" s="11"/>
     </row>
-    <row r="124" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="30">
         <v>2</v>
       </c>
@@ -10845,7 +10849,7 @@
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
     </row>
-    <row r="125" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="30">
         <v>2</v>
       </c>
@@ -10888,7 +10892,7 @@
       <c r="N125" s="11"/>
       <c r="O125" s="11"/>
     </row>
-    <row r="126" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="30">
         <v>2</v>
       </c>
@@ -10931,7 +10935,7 @@
       <c r="N126" s="11"/>
       <c r="O126" s="11"/>
     </row>
-    <row r="127" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="30">
         <v>2</v>
       </c>
@@ -10974,7 +10978,7 @@
       <c r="N127" s="11"/>
       <c r="O127" s="11"/>
     </row>
-    <row r="128" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="30">
         <v>2</v>
       </c>
@@ -11017,7 +11021,7 @@
       <c r="N128" s="11"/>
       <c r="O128" s="11"/>
     </row>
-    <row r="129" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="30">
         <v>2</v>
       </c>
@@ -11060,7 +11064,7 @@
       <c r="N129" s="11"/>
       <c r="O129" s="11"/>
     </row>
-    <row r="130" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="30">
         <v>2</v>
       </c>
@@ -11103,7 +11107,7 @@
       <c r="N130" s="11"/>
       <c r="O130" s="11"/>
     </row>
-    <row r="131" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="30">
         <v>2</v>
       </c>
@@ -11146,7 +11150,7 @@
       <c r="N131" s="11"/>
       <c r="O131" s="11"/>
     </row>
-    <row r="132" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="30">
         <v>2</v>
       </c>
@@ -11189,7 +11193,7 @@
       <c r="N132" s="11"/>
       <c r="O132" s="11"/>
     </row>
-    <row r="133" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="30">
         <v>2</v>
       </c>
@@ -11232,7 +11236,7 @@
       <c r="N133" s="11"/>
       <c r="O133" s="11"/>
     </row>
-    <row r="134" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="30">
         <v>2</v>
       </c>
@@ -11275,7 +11279,7 @@
       <c r="N134" s="12"/>
       <c r="O134" s="12"/>
     </row>
-    <row r="135" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="30">
         <v>2</v>
       </c>
@@ -11318,7 +11322,7 @@
       <c r="N135" s="12"/>
       <c r="O135" s="12"/>
     </row>
-    <row r="136" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="30">
         <v>2</v>
       </c>
@@ -11361,7 +11365,7 @@
       <c r="N136" s="12"/>
       <c r="O136" s="12"/>
     </row>
-    <row r="137" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="30">
         <v>2</v>
       </c>
@@ -11662,7 +11666,7 @@
       <c r="N143" s="11"/>
       <c r="O143" s="11"/>
     </row>
-    <row r="144" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="30">
         <v>2</v>
       </c>
@@ -11705,7 +11709,7 @@
       <c r="N144" s="11"/>
       <c r="O144" s="11"/>
     </row>
-    <row r="145" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="30">
         <v>2</v>
       </c>
@@ -11748,7 +11752,7 @@
       <c r="N145" s="11"/>
       <c r="O145" s="11"/>
     </row>
-    <row r="146" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="30">
         <v>2</v>
       </c>
@@ -11791,7 +11795,7 @@
       <c r="N146" s="11"/>
       <c r="O146" s="11"/>
     </row>
-    <row r="147" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="30">
         <v>2</v>
       </c>
@@ -11834,7 +11838,7 @@
       <c r="N147" s="11"/>
       <c r="O147" s="11"/>
     </row>
-    <row r="148" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="30">
         <v>2</v>
       </c>
@@ -11877,7 +11881,7 @@
       <c r="N148" s="11"/>
       <c r="O148" s="11"/>
     </row>
-    <row r="149" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="30">
         <v>2</v>
       </c>
@@ -11920,7 +11924,7 @@
       <c r="N149" s="11"/>
       <c r="O149" s="11"/>
     </row>
-    <row r="150" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="30">
         <v>2</v>
       </c>
@@ -11963,7 +11967,7 @@
       <c r="N150" s="11"/>
       <c r="O150" s="11"/>
     </row>
-    <row r="151" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="30">
         <v>2</v>
       </c>
@@ -12006,7 +12010,7 @@
       <c r="N151" s="11"/>
       <c r="O151" s="11"/>
     </row>
-    <row r="152" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="30">
         <v>2</v>
       </c>
@@ -12049,7 +12053,7 @@
       <c r="N152" s="11"/>
       <c r="O152" s="11"/>
     </row>
-    <row r="153" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="30">
         <v>2</v>
       </c>
@@ -12092,7 +12096,7 @@
       <c r="N153" s="11"/>
       <c r="O153" s="11"/>
     </row>
-    <row r="154" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="30">
         <v>2</v>
       </c>
@@ -12135,7 +12139,7 @@
       <c r="N154" s="11"/>
       <c r="O154" s="11"/>
     </row>
-    <row r="155" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="30">
         <v>2</v>
       </c>
@@ -12178,7 +12182,7 @@
       <c r="N155" s="11"/>
       <c r="O155" s="11"/>
     </row>
-    <row r="156" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="30">
         <v>2</v>
       </c>
@@ -12221,7 +12225,7 @@
       <c r="N156" s="11"/>
       <c r="O156" s="11"/>
     </row>
-    <row r="157" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="34">
         <v>2</v>
       </c>
@@ -12264,7 +12268,7 @@
       <c r="N157" s="11"/>
       <c r="O157" s="11"/>
     </row>
-    <row r="158" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="34">
         <v>2</v>
       </c>
@@ -12307,7 +12311,7 @@
       <c r="N158" s="11"/>
       <c r="O158" s="11"/>
     </row>
-    <row r="159" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="34">
         <v>2</v>
       </c>
@@ -12350,7 +12354,7 @@
       <c r="N159" s="11"/>
       <c r="O159" s="11"/>
     </row>
-    <row r="160" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="30">
         <v>2</v>
       </c>
@@ -12393,7 +12397,7 @@
       <c r="N160" s="11"/>
       <c r="O160" s="11"/>
     </row>
-    <row r="161" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="34">
         <v>2</v>
       </c>
@@ -12436,7 +12440,7 @@
       <c r="N161" s="11"/>
       <c r="O161" s="11"/>
     </row>
-    <row r="162" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="34">
         <v>2</v>
       </c>
@@ -12479,7 +12483,7 @@
       <c r="N162" s="11"/>
       <c r="O162" s="11"/>
     </row>
-    <row r="163" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="34">
         <v>2</v>
       </c>
@@ -30552,7 +30556,7 @@
   <autoFilter ref="A1:M585" xr:uid="{7078E505-F72A-4D49-923C-8B55BDF4638D}">
     <filterColumn colId="0">
       <filters>
-        <filter val="4"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276E6564-27D1-49EB-A586-DC1C8AABB26F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3180993B-455C-4E89-B875-E89F225E39EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7147" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7151" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3761,6 +3761,9 @@
     <t>Indien het Artikel is onderverdeeld in Leden, dan dient er geannoteerd te worden op het Lid (en mag er niet geannoteerd worden op het Artikel).</t>
   </si>
   <si>
+    <t>opdracht_6</t>
+  </si>
+  <si>
     <t>opdracht_7</t>
   </si>
   <si>
@@ -3768,6 +3771,9 @@
   </si>
   <si>
     <t>geo-validatie</t>
+  </si>
+  <si>
+    <t>opdracht_9</t>
   </si>
 </sst>
 </file>
@@ -5334,8 +5340,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N76" sqref="N76"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O87" sqref="O87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6845,7 +6851,7 @@
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6891,7 +6897,7 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="17" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8192,7 +8198,7 @@
         <v>25</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="O63" s="11" t="s">
         <v>1078</v>
@@ -8282,7 +8288,7 @@
         <v>25</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="O65" s="11" t="s">
         <v>1078</v>
@@ -8329,7 +8335,7 @@
         <v>25</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="O66" s="11" t="s">
         <v>1078</v>
@@ -8376,7 +8382,7 @@
         <v>25</v>
       </c>
       <c r="N67" s="23" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="O67" s="23" t="s">
         <v>1078</v>
@@ -8423,7 +8429,7 @@
         <v>25</v>
       </c>
       <c r="N68" s="23" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="O68" s="23" t="s">
         <v>1078</v>
@@ -8556,7 +8562,7 @@
         <v>25</v>
       </c>
       <c r="N71" s="23" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="O71" s="23" t="s">
         <v>1078</v>
@@ -8603,7 +8609,7 @@
         <v>25</v>
       </c>
       <c r="N72" s="23" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="O72" s="23" t="s">
         <v>1078</v>
@@ -8736,7 +8742,7 @@
         <v>25</v>
       </c>
       <c r="N75" s="23" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="O75" s="11" t="s">
         <v>1078</v>
@@ -9126,14 +9132,18 @@
       <c r="M84" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
+      <c r="N84" s="11" t="s">
+        <v>1228</v>
+      </c>
+      <c r="O84" s="11" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="30">
         <v>2</v>
       </c>
-      <c r="B85" s="28" t="s">
+      <c r="B85" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C85" s="23" t="s">
@@ -9212,8 +9222,12 @@
       <c r="M86" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
+      <c r="N86" s="11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O86" s="11" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="30">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3180993B-455C-4E89-B875-E89F225E39EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C63E327-DF18-4741-81E5-C8B67F7F38A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7151" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7155" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5340,8 +5340,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O87" sqref="O87"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N89" sqref="N89:O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9233,7 +9233,7 @@
       <c r="A87" s="30">
         <v>2</v>
       </c>
-      <c r="B87" s="28" t="s">
+      <c r="B87" s="16" t="s">
         <v>528</v>
       </c>
       <c r="C87" s="23" t="s">
@@ -9312,8 +9312,12 @@
       <c r="M88" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
+      <c r="N88" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O88" s="11" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="28">
@@ -9355,8 +9359,12 @@
       <c r="M89" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
+      <c r="N89" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O89" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="28">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C63E327-DF18-4741-81E5-C8B67F7F38A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6BA714-7D52-4A2A-B528-C83ECA318C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7155" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7157" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5340,8 +5340,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N89" sqref="N89:O89"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N90" sqref="N90:O90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9406,8 +9406,12 @@
       <c r="M90" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
+      <c r="N90" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O90" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="28">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6BA714-7D52-4A2A-B528-C83ECA318C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B03B1E-B67C-4849-8FE7-C3C7D944BD2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7157" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7159" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5341,7 +5341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N90" sqref="N90:O90"/>
+      <selection pane="bottomLeft" activeCell="N91" sqref="N91:O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9453,8 +9453,12 @@
       <c r="M91" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N91" s="11"/>
-      <c r="O91" s="11"/>
+      <c r="N91" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O91" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="28">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B03B1E-B67C-4849-8FE7-C3C7D944BD2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF09F77-B3B2-4B62-B1B3-C2DF31E289F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7159" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7161" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5341,7 +5341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N91" sqref="N91:O91"/>
+      <selection pane="bottomLeft" activeCell="N92" sqref="N92:O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9500,8 +9500,12 @@
       <c r="M92" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
+      <c r="N92" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O92" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="28">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF09F77-B3B2-4B62-B1B3-C2DF31E289F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EF3722-A98E-4482-8356-2A9228F112E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7161" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7163" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5340,8 +5340,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N92" sqref="N92:O92"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N93" sqref="N93:O93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9547,8 +9547,12 @@
       <c r="M93" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N93" s="11"/>
-      <c r="O93" s="11"/>
+      <c r="N93" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O93" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="28">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EF3722-A98E-4482-8356-2A9228F112E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0095BBD-C22D-4412-A9A1-6E8204C9468A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7163" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7165" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5341,7 +5341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N93" sqref="N93:O93"/>
+      <selection pane="bottomLeft" activeCell="N94" sqref="N94:O94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9594,8 +9594,12 @@
       <c r="M94" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N94" s="11"/>
-      <c r="O94" s="11"/>
+      <c r="N94" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O94" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="28">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0095BBD-C22D-4412-A9A1-6E8204C9468A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947BF77F-E411-4DD3-959F-ECDAF595BED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7165" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7167" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5341,7 +5341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N94" sqref="N94:O94"/>
+      <selection pane="bottomLeft" activeCell="N95" sqref="N95:O95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9641,8 +9641,12 @@
       <c r="M95" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N95" s="11"/>
-      <c r="O95" s="11"/>
+      <c r="N95" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O95" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="28">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947BF77F-E411-4DD3-959F-ECDAF595BED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78887A80-72EC-4272-915F-87B2E54605B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7167" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7169" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5340,8 +5340,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N95" sqref="N95:O95"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N96" sqref="N96:O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9688,8 +9688,12 @@
       <c r="M96" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N96" s="11"/>
-      <c r="O96" s="11"/>
+      <c r="N96" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O96" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="28">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78887A80-72EC-4272-915F-87B2E54605B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3771FC5-5530-4EBD-B1A1-DB04BD07A9FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7169" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7171" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5341,7 +5341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N96" sqref="N96:O96"/>
+      <selection pane="bottomLeft" activeCell="N97" sqref="N97:O97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9735,8 +9735,12 @@
       <c r="M97" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N97" s="11"/>
-      <c r="O97" s="11"/>
+      <c r="N97" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O97" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="28">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3771FC5-5530-4EBD-B1A1-DB04BD07A9FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D326B0-8BFB-4364-98E0-3260BABA09F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7171" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7173" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5341,7 +5341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N97" sqref="N97:O97"/>
+      <selection pane="bottomLeft" activeCell="N98" sqref="N98:O98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9782,8 +9782,12 @@
       <c r="M98" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
+      <c r="N98" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O98" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="28">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D326B0-8BFB-4364-98E0-3260BABA09F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5121FF-EDB7-4CF2-B87B-9CBC96A06DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7173" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7175" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5340,8 +5340,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N98" sqref="N98:O98"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N99" sqref="N99:O99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9829,8 +9829,12 @@
       <c r="M99" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N99" s="11"/>
-      <c r="O99" s="11"/>
+      <c r="N99" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O99" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="30">
@@ -30627,7 +30631,7 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="G243:G247 G251:G258 B87:B98 H2:H24 A2:B32 A33:A35 G273:G284 G230:G241 G139 G178:G180 G176 G174 G171:G172 G163:G166 G168:G169 G159:G161 G155:G156 G150:G152 G145:G148 G141:G143 G200:H200 F327:G327 H139:M185 A36:B48 A52:B62 A81:B86 A104:B120 A121:A135 H104:H135 A64:B79 A49:A51 H138 A138 H27:H44 H46:H48 H52:H62 H64:H75 H77:H79 H81:H98 A400:A550 H375:H550 A1:C1 F1:O1 A63:C63 N63:O63 A80:C80 N80:O80 B99:C103 N99:O103 H251:M284 H230:M247 F321:M322 I199:M199 I327:M327 I121:M137">
+  <conditionalFormatting sqref="G243:G247 G251:G258 B87:B98 H2:H24 A2:B32 A33:A35 G273:G284 G230:G241 G139 G178:G180 G176 G174 G171:G172 G163:G166 G168:G169 G159:G161 G155:G156 G150:G152 G145:G148 G141:G143 G200:H200 F327:G327 H139:M185 A36:B48 A52:B62 A81:B86 A104:B120 A121:A135 H104:H135 A64:B79 A49:A51 H138 A138 H27:H44 H46:H48 H52:H62 H64:H75 H77:H79 H81:H98 A400:A550 H375:H550 A1:C1 F1:O1 A63:C63 N63:O63 A80:C80 N80:O80 B99:C103 N100:O103 H251:M284 H230:M247 F321:M322 I199:M199 I327:M327 I121:M137">
     <cfRule type="containsText" dxfId="56" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5121FF-EDB7-4CF2-B87B-9CBC96A06DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE007E7-664F-42C4-B492-CB7E3B5F547E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7175" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7179" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5340,8 +5340,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N99" sqref="N99:O99"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N101" sqref="N101:O101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9876,8 +9876,12 @@
       <c r="M100" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N100" s="11"/>
-      <c r="O100" s="11"/>
+      <c r="N100" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O100" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="30">
@@ -9919,8 +9923,12 @@
       <c r="M101" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N101" s="11"/>
-      <c r="O101" s="11"/>
+      <c r="N101" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O101" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="30">
@@ -30631,7 +30639,7 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="G243:G247 G251:G258 B87:B98 H2:H24 A2:B32 A33:A35 G273:G284 G230:G241 G139 G178:G180 G176 G174 G171:G172 G163:G166 G168:G169 G159:G161 G155:G156 G150:G152 G145:G148 G141:G143 G200:H200 F327:G327 H139:M185 A36:B48 A52:B62 A81:B86 A104:B120 A121:A135 H104:H135 A64:B79 A49:A51 H138 A138 H27:H44 H46:H48 H52:H62 H64:H75 H77:H79 H81:H98 A400:A550 H375:H550 A1:C1 F1:O1 A63:C63 N63:O63 A80:C80 N80:O80 B99:C103 N100:O103 H251:M284 H230:M247 F321:M322 I199:M199 I327:M327 I121:M137">
+  <conditionalFormatting sqref="G243:G247 G251:G258 B87:B98 H2:H24 A2:B32 A33:A35 G273:G284 G230:G241 G139 G178:G180 G176 G174 G171:G172 G163:G166 G168:G169 G159:G161 G155:G156 G150:G152 G145:G148 G141:G143 G200:H200 F327:G327 H139:M185 A36:B48 A52:B62 A81:B86 A104:B120 A121:A135 H104:H135 A64:B79 A49:A51 H138 A138 H27:H44 H46:H48 H52:H62 H64:H75 H77:H79 H81:H98 A400:A550 H375:H550 A1:C1 F1:O1 A63:C63 N63:O63 A80:C80 N80:O80 B99:C103 N102:O103 H251:M284 H230:M247 F321:M322 I199:M199 I327:M327 I121:M137">
     <cfRule type="containsText" dxfId="56" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE007E7-664F-42C4-B492-CB7E3B5F547E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030406B1-DD5E-496D-A647-F8D0B87C0F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7179" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7181" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5341,7 +5341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N101" sqref="N101:O101"/>
+      <selection pane="bottomLeft" activeCell="N102" sqref="N102:O102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9970,8 +9970,12 @@
       <c r="M102" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N102" s="11"/>
-      <c r="O102" s="11"/>
+      <c r="N102" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O102" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="31">
@@ -30639,7 +30643,7 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="G243:G247 G251:G258 B87:B98 H2:H24 A2:B32 A33:A35 G273:G284 G230:G241 G139 G178:G180 G176 G174 G171:G172 G163:G166 G168:G169 G159:G161 G155:G156 G150:G152 G145:G148 G141:G143 G200:H200 F327:G327 H139:M185 A36:B48 A52:B62 A81:B86 A104:B120 A121:A135 H104:H135 A64:B79 A49:A51 H138 A138 H27:H44 H46:H48 H52:H62 H64:H75 H77:H79 H81:H98 A400:A550 H375:H550 A1:C1 F1:O1 A63:C63 N63:O63 A80:C80 N80:O80 B99:C103 N102:O103 H251:M284 H230:M247 F321:M322 I199:M199 I327:M327 I121:M137">
+  <conditionalFormatting sqref="G243:G247 G251:G258 B87:B98 H2:H24 A2:B32 A33:A35 G273:G284 G230:G241 G139 G178:G180 G176 G174 G171:G172 G163:G166 G168:G169 G159:G161 G155:G156 G150:G152 G145:G148 G141:G143 G200:H200 F327:G327 H139:M185 A36:B48 A52:B62 A81:B86 A104:B120 A121:A135 H104:H135 A64:B79 A49:A51 H138 A138 H27:H44 H46:H48 H52:H62 H64:H75 H77:H79 H81:H98 A400:A550 H375:H550 A1:C1 F1:O1 A63:C63 N63:O63 A80:C80 N80:O80 B99:C103 N103:O103 H251:M284 H230:M247 F321:M322 I199:M199 I327:M327 I121:M137">
     <cfRule type="containsText" dxfId="56" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030406B1-DD5E-496D-A647-F8D0B87C0F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EB24A5-E32A-4B9F-A390-1288EE717486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7181" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7183" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5340,8 +5340,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N102" sqref="N102:O102"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N103" sqref="N103:O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10017,8 +10017,12 @@
       <c r="M103" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N103" s="11"/>
-      <c r="O103" s="11"/>
+      <c r="N103" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O103" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="31">
@@ -30643,7 +30647,7 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="G243:G247 G251:G258 B87:B98 H2:H24 A2:B32 A33:A35 G273:G284 G230:G241 G139 G178:G180 G176 G174 G171:G172 G163:G166 G168:G169 G159:G161 G155:G156 G150:G152 G145:G148 G141:G143 G200:H200 F327:G327 H139:M185 A36:B48 A52:B62 A81:B86 A104:B120 A121:A135 H104:H135 A64:B79 A49:A51 H138 A138 H27:H44 H46:H48 H52:H62 H64:H75 H77:H79 H81:H98 A400:A550 H375:H550 A1:C1 F1:O1 A63:C63 N63:O63 A80:C80 N80:O80 B99:C103 N103:O103 H251:M284 H230:M247 F321:M322 I199:M199 I327:M327 I121:M137">
+  <conditionalFormatting sqref="G243:G247 G251:G258 B87:B98 H2:H24 A2:B32 A33:A35 G273:G284 G230:G241 G139 G178:G180 G176 G174 G171:G172 G163:G166 G168:G169 G159:G161 G155:G156 G150:G152 G145:G148 G141:G143 G200:H200 F327:G327 H139:M185 A36:B48 A52:B62 A81:B86 A104:B120 A121:A135 H104:H135 A64:B79 A49:A51 H138 A138 H27:H44 H46:H48 H52:H62 H64:H75 H77:H79 H81:H98 A400:A550 H375:H550 A1:C1 F1:O1 A63:C63 N63:O63 A80:C80 N80:O80 B99:C103 H251:M284 H230:M247 F321:M322 I199:M199 I327:M327 I121:M137">
     <cfRule type="containsText" dxfId="56" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EB24A5-E32A-4B9F-A390-1288EE717486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E509A834-E81E-444F-9859-A2CE11025D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7183" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7185" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5340,8 +5340,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N103" sqref="N103:O103"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B111" sqref="B111:C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10028,7 +10028,7 @@
       <c r="A104" s="31">
         <v>2</v>
       </c>
-      <c r="B104" s="28" t="s">
+      <c r="B104" s="16" t="s">
         <v>531</v>
       </c>
       <c r="C104" s="23" t="s">
@@ -10071,7 +10071,7 @@
       <c r="A105" s="31">
         <v>2</v>
       </c>
-      <c r="B105" s="28" t="s">
+      <c r="B105" s="16" t="s">
         <v>533</v>
       </c>
       <c r="C105" s="23" t="s">
@@ -10114,7 +10114,7 @@
       <c r="A106" s="31">
         <v>2</v>
       </c>
-      <c r="B106" s="28" t="s">
+      <c r="B106" s="16" t="s">
         <v>535</v>
       </c>
       <c r="C106" s="23" t="s">
@@ -10157,7 +10157,7 @@
       <c r="A107" s="31">
         <v>2</v>
       </c>
-      <c r="B107" s="28" t="s">
+      <c r="B107" s="16" t="s">
         <v>537</v>
       </c>
       <c r="C107" s="23" t="s">
@@ -10200,7 +10200,7 @@
       <c r="A108" s="31">
         <v>2</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="B108" s="41" t="s">
         <v>539</v>
       </c>
       <c r="C108" s="23" t="s">
@@ -10286,7 +10286,7 @@
       <c r="A110" s="31">
         <v>2</v>
       </c>
-      <c r="B110" s="23" t="s">
+      <c r="B110" s="41" t="s">
         <v>45</v>
       </c>
       <c r="C110" s="23" t="s">
@@ -10365,8 +10365,12 @@
       <c r="M111" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N111" s="11"/>
-      <c r="O111" s="11"/>
+      <c r="N111" s="23" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O111" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="31">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E509A834-E81E-444F-9859-A2CE11025D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA42914E-7458-495C-A4CA-4902AC6BC590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7185" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7187" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5340,8 +5340,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B111" sqref="B111:C111"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113:XFD113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10376,7 +10376,7 @@
       <c r="A112" s="31">
         <v>2</v>
       </c>
-      <c r="B112" s="23" t="s">
+      <c r="B112" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C112" s="23" t="s">
@@ -10455,8 +10455,12 @@
       <c r="M113" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N113" s="11"/>
-      <c r="O113" s="11"/>
+      <c r="N113" s="23" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O113" s="11" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="114" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="31">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA42914E-7458-495C-A4CA-4902AC6BC590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1366008-13B0-4C14-B640-DDDE4381A01F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7187" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7189" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5341,7 +5341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113:XFD113"/>
+      <selection pane="bottomLeft" activeCell="N114" sqref="N114:O114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10502,8 +10502,12 @@
       <c r="M114" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N114" s="11"/>
-      <c r="O114" s="11"/>
+      <c r="N114" s="23" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O114" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="115" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="32">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1366008-13B0-4C14-B640-DDDE4381A01F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A046E2-FE22-4E02-9E84-31FCDAC79DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7189" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7191" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5340,8 +5340,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N114" sqref="N114:O114"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N115" sqref="N115:O115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10549,8 +10549,12 @@
       <c r="M115" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N115" s="12"/>
-      <c r="O115" s="12"/>
+      <c r="N115" s="23" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O115" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="116" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="32">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A046E2-FE22-4E02-9E84-31FCDAC79DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881B7ABD-2151-496E-99A9-D4C1952CF827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7191" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7193" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5341,7 +5341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N115" sqref="N115:O115"/>
+      <selection pane="bottomLeft" activeCell="N116" sqref="N116:O116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10596,8 +10596,12 @@
       <c r="M116" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N116" s="11"/>
-      <c r="O116" s="11"/>
+      <c r="N116" s="23" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O116" s="23" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="117" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="31">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881B7ABD-2151-496E-99A9-D4C1952CF827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E512FC02-F17B-4879-9155-ACEBC9F40558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5341,7 +5341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N116" sqref="N116:O116"/>
+      <selection pane="bottomLeft" activeCell="N117" sqref="N117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E512FC02-F17B-4879-9155-ACEBC9F40558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1B9E18-D129-4623-9428-CF8314528247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7193" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7195" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3270,6 +3270,9 @@
     <t>BHKV1018</t>
   </si>
   <si>
+    <t>De identificatie van een InformatieObject moet als soort werk '/join/id/stop/work_010' hebben</t>
+  </si>
+  <si>
     <t>Test Voorbeeldbestand</t>
   </si>
   <si>
@@ -3418,9 +3421,6 @@
   </si>
   <si>
     <t>Het derde deel van de JOIN identificatie van een InformatieObject moet gelijk zijn aan pubdata</t>
-  </si>
-  <si>
-    <t>De identificatie van een InformatieObject moet als soort werk '/join/id/stop/work_001' hebben</t>
   </si>
   <si>
     <t>LVBB3601</t>
@@ -5340,8 +5340,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N117" sqref="N117"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N119" sqref="N119:O119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5398,10 +5398,10 @@
         <v>1027</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6219,7 +6219,7 @@
         <v>25</v>
       </c>
       <c r="N20" s="23" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O20" s="11"/>
     </row>
@@ -6264,7 +6264,7 @@
         <v>25</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O21" s="11"/>
     </row>
@@ -6309,7 +6309,7 @@
         <v>25</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O22" s="11"/>
     </row>
@@ -6354,7 +6354,7 @@
         <v>25</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O23" s="11"/>
     </row>
@@ -6399,7 +6399,7 @@
         <v>25</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O24" s="11"/>
     </row>
@@ -6444,7 +6444,7 @@
         <v>25</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O25" s="11"/>
     </row>
@@ -6489,7 +6489,7 @@
         <v>25</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O26" s="11"/>
     </row>
@@ -6534,7 +6534,7 @@
         <v>25</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O27" s="11"/>
     </row>
@@ -6579,7 +6579,7 @@
         <v>25</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O28" s="11"/>
     </row>
@@ -6624,7 +6624,7 @@
         <v>25</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O29" s="11"/>
     </row>
@@ -6669,7 +6669,7 @@
         <v>25</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O30" s="11"/>
     </row>
@@ -6714,7 +6714,7 @@
         <v>25</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O31" s="11"/>
     </row>
@@ -6759,7 +6759,7 @@
         <v>25</v>
       </c>
       <c r="N32" s="23" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O32" s="11"/>
     </row>
@@ -6804,7 +6804,7 @@
         <v>25</v>
       </c>
       <c r="N33" s="23" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O33" s="11"/>
     </row>
@@ -6941,10 +6941,10 @@
         <v>25</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6988,10 +6988,10 @@
         <v>25</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7035,10 +7035,10 @@
         <v>25</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7082,10 +7082,10 @@
         <v>25</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7129,10 +7129,10 @@
         <v>25</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7176,10 +7176,10 @@
         <v>25</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O41" s="11" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7223,10 +7223,10 @@
         <v>25</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="O42" s="11" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7270,10 +7270,10 @@
         <v>25</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7317,10 +7317,10 @@
         <v>25</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="O44" s="11" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7364,10 +7364,10 @@
         <v>25</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="O45" s="11" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7411,10 +7411,10 @@
         <v>25</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O46" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7458,10 +7458,10 @@
         <v>25</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7505,10 +7505,10 @@
         <v>25</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="O48" s="11" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7552,10 +7552,10 @@
         <v>25</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O49" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7599,10 +7599,10 @@
         <v>25</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7646,10 +7646,10 @@
         <v>25</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7693,10 +7693,10 @@
         <v>25</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O52" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7740,10 +7740,10 @@
         <v>25</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O53" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7787,10 +7787,10 @@
         <v>25</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7834,10 +7834,10 @@
         <v>25</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O55" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7881,10 +7881,10 @@
         <v>25</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O56" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7928,10 +7928,10 @@
         <v>25</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O57" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7939,46 +7939,46 @@
         <v>1</v>
       </c>
       <c r="B58" s="23" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" s="23" t="s">
+        <v>1073</v>
+      </c>
+      <c r="O58" s="23" t="s">
         <v>1079</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I58" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="J58" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K58" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="L58" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="M58" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N58" s="23" t="s">
-        <v>1072</v>
-      </c>
-      <c r="O58" s="23" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7986,10 +7986,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>507</v>
@@ -8022,10 +8022,10 @@
         <v>25</v>
       </c>
       <c r="N59" s="23" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O59" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8201,7 +8201,7 @@
         <v>1225</v>
       </c>
       <c r="O63" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8252,10 +8252,10 @@
         <v>2</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D65" s="23" t="s">
         <v>507</v>
@@ -8291,7 +8291,7 @@
         <v>1225</v>
       </c>
       <c r="O65" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8299,10 +8299,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D66" s="23" t="s">
         <v>507</v>
@@ -8338,7 +8338,7 @@
         <v>1226</v>
       </c>
       <c r="O66" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8385,7 +8385,7 @@
         <v>1226</v>
       </c>
       <c r="O67" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8432,7 +8432,7 @@
         <v>1226</v>
       </c>
       <c r="O68" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8565,7 +8565,7 @@
         <v>1226</v>
       </c>
       <c r="O71" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8612,7 +8612,7 @@
         <v>1226</v>
       </c>
       <c r="O72" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8663,10 +8663,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D74" s="23" t="s">
         <v>507</v>
@@ -8706,7 +8706,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C75" s="23" t="s">
         <v>527</v>
@@ -8745,7 +8745,7 @@
         <v>1225</v>
       </c>
       <c r="O75" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9136,7 +9136,7 @@
         <v>1228</v>
       </c>
       <c r="O84" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9226,7 +9226,7 @@
         <v>1224</v>
       </c>
       <c r="O86" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9277,10 +9277,10 @@
         <v>2</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D88" s="23" t="s">
         <v>507</v>
@@ -9316,7 +9316,7 @@
         <v>1225</v>
       </c>
       <c r="O88" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9324,10 +9324,10 @@
         <v>2</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>507</v>
@@ -9363,7 +9363,7 @@
         <v>1225</v>
       </c>
       <c r="O89" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9371,10 +9371,10 @@
         <v>2</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D90" s="23" t="s">
         <v>507</v>
@@ -9410,7 +9410,7 @@
         <v>1225</v>
       </c>
       <c r="O90" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9418,10 +9418,10 @@
         <v>2</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D91" s="23" t="s">
         <v>507</v>
@@ -9457,7 +9457,7 @@
         <v>1225</v>
       </c>
       <c r="O91" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9465,10 +9465,10 @@
         <v>2</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D92" s="23" t="s">
         <v>507</v>
@@ -9504,7 +9504,7 @@
         <v>1225</v>
       </c>
       <c r="O92" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9512,10 +9512,10 @@
         <v>2</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>507</v>
@@ -9551,7 +9551,7 @@
         <v>1225</v>
       </c>
       <c r="O93" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9559,10 +9559,10 @@
         <v>2</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>507</v>
@@ -9598,7 +9598,7 @@
         <v>1225</v>
       </c>
       <c r="O94" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9606,7 +9606,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C95" s="28" t="s">
         <v>112</v>
@@ -9645,7 +9645,7 @@
         <v>1225</v>
       </c>
       <c r="O95" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9653,10 +9653,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D96" s="23" t="s">
         <v>507</v>
@@ -9692,7 +9692,7 @@
         <v>1225</v>
       </c>
       <c r="O96" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9700,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C97" s="28" t="s">
         <v>113</v>
@@ -9739,7 +9739,7 @@
         <v>1225</v>
       </c>
       <c r="O97" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9747,10 +9747,10 @@
         <v>2</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D98" s="23" t="s">
         <v>507</v>
@@ -9786,7 +9786,7 @@
         <v>1225</v>
       </c>
       <c r="O98" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9794,10 +9794,10 @@
         <v>2</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D99" s="23" t="s">
         <v>507</v>
@@ -9833,7 +9833,7 @@
         <v>1225</v>
       </c>
       <c r="O99" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9880,7 +9880,7 @@
         <v>1225</v>
       </c>
       <c r="O100" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9927,7 +9927,7 @@
         <v>1225</v>
       </c>
       <c r="O101" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9974,7 +9974,7 @@
         <v>1225</v>
       </c>
       <c r="O102" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10021,7 +10021,7 @@
         <v>1225</v>
       </c>
       <c r="O103" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10244,10 +10244,10 @@
         <v>2</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D109" s="23" t="s">
         <v>507</v>
@@ -10369,7 +10369,7 @@
         <v>1224</v>
       </c>
       <c r="O111" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10459,7 +10459,7 @@
         <v>1224</v>
       </c>
       <c r="O113" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10506,7 +10506,7 @@
         <v>1224</v>
       </c>
       <c r="O114" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10514,7 +10514,7 @@
         <v>2</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C115" s="23" t="s">
         <v>543</v>
@@ -10553,7 +10553,7 @@
         <v>1224</v>
       </c>
       <c r="O115" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10561,10 +10561,10 @@
         <v>2</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D116" s="23" t="s">
         <v>507</v>
@@ -10600,14 +10600,14 @@
         <v>1224</v>
       </c>
       <c r="O116" s="23" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="31">
         <v>2</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="B117" s="41" t="s">
         <v>92</v>
       </c>
       <c r="C117" s="23" t="s">
@@ -10650,11 +10650,11 @@
       <c r="A118" s="31">
         <v>2</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="B118" s="41" t="s">
         <v>94</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>507</v>
@@ -10697,7 +10697,7 @@
         <v>95</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>1118</v>
+        <v>1068</v>
       </c>
       <c r="D119" s="23" t="s">
         <v>507</v>
@@ -10729,8 +10729,12 @@
       <c r="M119" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N119" s="11"/>
-      <c r="O119" s="11"/>
+      <c r="N119" s="23" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O119" s="23" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="120" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="31">
@@ -12967,7 +12971,7 @@
       </c>
       <c r="N171" s="11"/>
       <c r="O171" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="172" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -15075,10 +15079,10 @@
         <v>25</v>
       </c>
       <c r="N220" s="23" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O220" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="221" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1B9E18-D129-4623-9428-CF8314528247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6393511F-FBC4-4CA5-8407-78CC6D857E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7195" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7197" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5341,7 +5341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N119" sqref="N119:O119"/>
+      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10776,8 +10776,12 @@
       <c r="M120" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N120" s="11"/>
-      <c r="O120" s="11"/>
+      <c r="N120" s="23" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O120" s="23" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="121" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="31">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6393511F-FBC4-4CA5-8407-78CC6D857E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BB1B1B-14EC-4B06-A136-9C672A5C7A19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7197" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7199" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5341,7 +5341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
+      <selection pane="bottomLeft" activeCell="N121" sqref="N121:O121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10823,8 +10823,12 @@
       <c r="M121" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N121" s="11"/>
-      <c r="O121" s="11"/>
+      <c r="N121" s="23" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O121" s="23" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="122" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="30">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BB1B1B-14EC-4B06-A136-9C672A5C7A19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEDC426-7A98-4D99-82FE-196A599030FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7199" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7203" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5341,7 +5341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N121" sqref="N121:O121"/>
+      <selection pane="bottomLeft" activeCell="N123" sqref="N123:O123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10870,8 +10870,12 @@
       <c r="M122" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N122" s="11"/>
-      <c r="O122" s="11"/>
+      <c r="N122" s="23" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O122" s="23" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="123" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="30">
@@ -10913,8 +10917,12 @@
       <c r="M123" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N123" s="11"/>
-      <c r="O123" s="11"/>
+      <c r="N123" s="23" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O123" s="23" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="124" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="30">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEDC426-7A98-4D99-82FE-196A599030FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE468B21-DFC6-49F7-A63E-332DDE0FCDC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7203" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7207" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5340,8 +5340,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N123" sqref="N123:O123"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N126" sqref="N126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10456,7 +10456,7 @@
         <v>25</v>
       </c>
       <c r="N113" s="23" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="O113" s="11" t="s">
         <v>1079</v>
@@ -11007,8 +11007,12 @@
       <c r="M125" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N125" s="11"/>
-      <c r="O125" s="11"/>
+      <c r="N125" s="23" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O125" s="23" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="126" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="30">
@@ -11050,8 +11054,12 @@
       <c r="M126" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N126" s="11"/>
-      <c r="O126" s="11"/>
+      <c r="N126" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O126" s="23" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="127" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="30">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE468B21-DFC6-49F7-A63E-332DDE0FCDC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4C9557-67CD-49E4-8E83-ED31D45479B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7207" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7211" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5340,8 +5340,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N126" sqref="N126"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N128" sqref="N128:O128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11101,8 +11101,12 @@
       <c r="M127" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N127" s="11"/>
-      <c r="O127" s="11"/>
+      <c r="N127" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O127" s="23" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="128" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="30">
@@ -11144,8 +11148,12 @@
       <c r="M128" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N128" s="11"/>
-      <c r="O128" s="11"/>
+      <c r="N128" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O128" s="23" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="30">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4C9557-67CD-49E4-8E83-ED31D45479B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48294D18-307F-4447-9C31-0696C94F3C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7211" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7215" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5341,7 +5341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N128" sqref="N128:O128"/>
+      <selection pane="bottomLeft" activeCell="N130" sqref="N130:O130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11195,8 +11195,12 @@
       <c r="M129" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N129" s="11"/>
-      <c r="O129" s="11"/>
+      <c r="N129" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O129" s="23" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="30">
@@ -11238,8 +11242,12 @@
       <c r="M130" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N130" s="11"/>
-      <c r="O130" s="11"/>
+      <c r="N130" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O130" s="23" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="30">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48294D18-307F-4447-9C31-0696C94F3C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0310C5-F2B2-46C8-9682-E9CC22D0EC22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7215" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7217" uniqueCount="1229">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5339,9 +5339,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P585"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N130" sqref="N130:O130"/>
+      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11253,7 +11253,7 @@
       <c r="A131" s="30">
         <v>2</v>
       </c>
-      <c r="B131" s="23" t="s">
+      <c r="B131" s="41" t="s">
         <v>1121</v>
       </c>
       <c r="C131" s="23" t="s">
@@ -11332,8 +11332,12 @@
       <c r="M132" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N132" s="11"/>
-      <c r="O132" s="11"/>
+      <c r="N132" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="O132" s="11" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="30">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0310C5-F2B2-46C8-9682-E9CC22D0EC22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0865F677-7A56-41F5-BD37-5D83B1FCB14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7217" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7217" uniqueCount="1230">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3774,6 +3774,9 @@
   </si>
   <si>
     <t>opdracht_9</t>
+  </si>
+  <si>
+    <t>opdracht_10</t>
   </si>
 </sst>
 </file>
@@ -5339,9 +5342,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P585"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N133" sqref="N133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6178,7 +6181,7 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>4</v>
       </c>
@@ -6223,7 +6226,7 @@
       </c>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
         <v>4</v>
       </c>
@@ -6268,7 +6271,7 @@
       </c>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <v>4</v>
       </c>
@@ -6313,7 +6316,7 @@
       </c>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
         <v>4</v>
       </c>
@@ -6358,7 +6361,7 @@
       </c>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
         <v>4</v>
       </c>
@@ -6403,7 +6406,7 @@
       </c>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
         <v>4</v>
       </c>
@@ -6448,7 +6451,7 @@
       </c>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29">
         <v>4</v>
       </c>
@@ -6493,7 +6496,7 @@
       </c>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <v>4</v>
       </c>
@@ -6538,7 +6541,7 @@
       </c>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29">
         <v>4</v>
       </c>
@@ -6583,7 +6586,7 @@
       </c>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
         <v>4</v>
       </c>
@@ -6628,7 +6631,7 @@
       </c>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29">
         <v>4</v>
       </c>
@@ -6673,7 +6676,7 @@
       </c>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29">
         <v>4</v>
       </c>
@@ -6718,7 +6721,7 @@
       </c>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29">
         <v>4</v>
       </c>
@@ -6763,7 +6766,7 @@
       </c>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29">
         <v>4</v>
       </c>
@@ -6808,7 +6811,7 @@
       </c>
       <c r="O33" s="11"/>
     </row>
-    <row r="34" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29">
         <v>4</v>
       </c>
@@ -6854,7 +6857,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29">
         <v>4</v>
       </c>
@@ -6900,7 +6903,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29">
         <v>1</v>
       </c>
@@ -6947,7 +6950,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29">
         <v>1</v>
       </c>
@@ -6994,7 +6997,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29">
         <v>1</v>
       </c>
@@ -7041,7 +7044,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="29">
         <v>1</v>
       </c>
@@ -7088,7 +7091,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="29">
         <v>1</v>
       </c>
@@ -7135,7 +7138,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="29">
         <v>1</v>
       </c>
@@ -7182,7 +7185,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29">
         <v>1</v>
       </c>
@@ -7229,7 +7232,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="29">
         <v>1</v>
       </c>
@@ -7276,7 +7279,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29">
         <v>1</v>
       </c>
@@ -7323,7 +7326,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29">
         <v>1</v>
       </c>
@@ -7370,7 +7373,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29">
         <v>1</v>
       </c>
@@ -7417,7 +7420,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29">
         <v>1</v>
       </c>
@@ -7464,7 +7467,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="29">
         <v>1</v>
       </c>
@@ -7511,7 +7514,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
         <v>1</v>
       </c>
@@ -7558,7 +7561,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29">
         <v>1</v>
       </c>
@@ -7605,7 +7608,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29">
         <v>1</v>
       </c>
@@ -7652,7 +7655,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29">
         <v>1</v>
       </c>
@@ -7699,7 +7702,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="29">
         <v>1</v>
       </c>
@@ -7746,7 +7749,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="29">
         <v>1</v>
       </c>
@@ -7793,7 +7796,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="29">
         <v>1</v>
       </c>
@@ -7840,7 +7843,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="29">
         <v>1</v>
       </c>
@@ -7887,7 +7890,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="28">
         <v>1</v>
       </c>
@@ -7934,7 +7937,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="28">
         <v>1</v>
       </c>
@@ -7981,7 +7984,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="28">
         <v>1</v>
       </c>
@@ -11333,7 +11336,7 @@
         <v>25</v>
       </c>
       <c r="N132" s="11" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="O132" s="11" t="s">
         <v>1079</v>
@@ -11554,7 +11557,7 @@
       <c r="N137" s="12"/>
       <c r="O137" s="12"/>
     </row>
-    <row r="138" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="28">
         <v>5</v>
       </c>
@@ -11597,7 +11600,7 @@
       <c r="N138" s="12"/>
       <c r="O138" s="12"/>
     </row>
-    <row r="139" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="28">
         <v>5</v>
       </c>
@@ -11683,7 +11686,7 @@
       <c r="N140" s="11"/>
       <c r="O140" s="11"/>
     </row>
-    <row r="141" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="28">
         <v>5</v>
       </c>
@@ -11726,7 +11729,7 @@
       <c r="N141" s="11"/>
       <c r="O141" s="11"/>
     </row>
-    <row r="142" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="28">
         <v>5</v>
       </c>
@@ -12715,7 +12718,7 @@
       <c r="N164" s="11"/>
       <c r="O164" s="11"/>
     </row>
-    <row r="165" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="29">
         <v>5</v>
       </c>
@@ -12758,7 +12761,7 @@
       <c r="N165" s="11"/>
       <c r="O165" s="11"/>
     </row>
-    <row r="166" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="29">
         <v>5</v>
       </c>
@@ -12801,7 +12804,7 @@
       <c r="N166" s="11"/>
       <c r="O166" s="11"/>
     </row>
-    <row r="167" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="29">
         <v>5</v>
       </c>
@@ -12844,7 +12847,7 @@
       <c r="N167" s="11"/>
       <c r="O167" s="11"/>
     </row>
-    <row r="168" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="29">
         <v>5</v>
       </c>
@@ -12887,7 +12890,7 @@
       <c r="N168" s="11"/>
       <c r="O168" s="11"/>
     </row>
-    <row r="169" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="29">
         <v>5</v>
       </c>
@@ -12930,7 +12933,7 @@
       <c r="N169" s="11"/>
       <c r="O169" s="11"/>
     </row>
-    <row r="170" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="28">
         <v>5</v>
       </c>
@@ -12973,7 +12976,7 @@
       <c r="N170" s="11"/>
       <c r="O170" s="11"/>
     </row>
-    <row r="171" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="29">
         <v>5</v>
       </c>
@@ -13018,7 +13021,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="29">
         <v>5</v>
       </c>
@@ -13061,7 +13064,7 @@
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
     </row>
-    <row r="173" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="29">
         <v>5</v>
       </c>
@@ -13104,7 +13107,7 @@
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
     </row>
-    <row r="174" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="29">
         <v>5</v>
       </c>
@@ -13147,7 +13150,7 @@
       <c r="N174" s="11"/>
       <c r="O174" s="11"/>
     </row>
-    <row r="175" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="29">
         <v>5</v>
       </c>
@@ -13190,7 +13193,7 @@
       <c r="N175" s="11"/>
       <c r="O175" s="11"/>
     </row>
-    <row r="176" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="29">
         <v>5</v>
       </c>
@@ -13233,7 +13236,7 @@
       <c r="N176" s="11"/>
       <c r="O176" s="11"/>
     </row>
-    <row r="177" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="29">
         <v>5</v>
       </c>
@@ -13276,7 +13279,7 @@
       <c r="N177" s="11"/>
       <c r="O177" s="11"/>
     </row>
-    <row r="178" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="29">
         <v>5</v>
       </c>
@@ -13319,7 +13322,7 @@
       <c r="N178" s="11"/>
       <c r="O178" s="11"/>
     </row>
-    <row r="179" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="29">
         <v>5</v>
       </c>
@@ -13362,7 +13365,7 @@
       <c r="N179" s="11"/>
       <c r="O179" s="11"/>
     </row>
-    <row r="180" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="29">
         <v>5</v>
       </c>
@@ -13405,7 +13408,7 @@
       <c r="N180" s="11"/>
       <c r="O180" s="11"/>
     </row>
-    <row r="181" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="29">
         <v>5</v>
       </c>
@@ -13448,7 +13451,7 @@
       <c r="N181" s="11"/>
       <c r="O181" s="11"/>
     </row>
-    <row r="182" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="29">
         <v>5</v>
       </c>
@@ -13491,7 +13494,7 @@
       <c r="N182" s="11"/>
       <c r="O182" s="11"/>
     </row>
-    <row r="183" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="29">
         <v>5</v>
       </c>
@@ -13534,7 +13537,7 @@
       <c r="N183" s="11"/>
       <c r="O183" s="11"/>
     </row>
-    <row r="184" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="29">
         <v>5</v>
       </c>
@@ -13577,7 +13580,7 @@
       <c r="N184" s="11"/>
       <c r="O184" s="11"/>
     </row>
-    <row r="185" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="29">
         <v>5</v>
       </c>
@@ -13620,7 +13623,7 @@
       <c r="N185" s="11"/>
       <c r="O185" s="11"/>
     </row>
-    <row r="186" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="29">
         <v>5</v>
       </c>
@@ -13663,7 +13666,7 @@
       <c r="N186" s="11"/>
       <c r="O186" s="11"/>
     </row>
-    <row r="187" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="29">
         <v>5</v>
       </c>
@@ -13706,7 +13709,7 @@
       <c r="N187" s="11"/>
       <c r="O187" s="11"/>
     </row>
-    <row r="188" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="29">
         <v>5</v>
       </c>
@@ -13749,7 +13752,7 @@
       <c r="N188" s="11"/>
       <c r="O188" s="11"/>
     </row>
-    <row r="189" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="29">
         <v>5</v>
       </c>
@@ -13792,7 +13795,7 @@
       <c r="N189" s="11"/>
       <c r="O189" s="11"/>
     </row>
-    <row r="190" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="29">
         <v>5</v>
       </c>
@@ -13835,7 +13838,7 @@
       <c r="N190" s="11"/>
       <c r="O190" s="11"/>
     </row>
-    <row r="191" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="29">
         <v>5</v>
       </c>
@@ -13878,7 +13881,7 @@
       <c r="N191" s="11"/>
       <c r="O191" s="11"/>
     </row>
-    <row r="192" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="29">
         <v>5</v>
       </c>
@@ -13921,7 +13924,7 @@
       <c r="N192" s="11"/>
       <c r="O192" s="11"/>
     </row>
-    <row r="193" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="29">
         <v>5</v>
       </c>
@@ -13964,7 +13967,7 @@
       <c r="N193" s="11"/>
       <c r="O193" s="11"/>
     </row>
-    <row r="194" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="29">
         <v>5</v>
       </c>
@@ -14007,7 +14010,7 @@
       <c r="N194" s="11"/>
       <c r="O194" s="11"/>
     </row>
-    <row r="195" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="29">
         <v>5</v>
       </c>
@@ -14050,7 +14053,7 @@
       <c r="N195" s="11"/>
       <c r="O195" s="11"/>
     </row>
-    <row r="196" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="29">
         <v>5</v>
       </c>
@@ -14093,7 +14096,7 @@
       <c r="N196" s="11"/>
       <c r="O196" s="11"/>
     </row>
-    <row r="197" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="29">
         <v>5</v>
       </c>
@@ -14136,7 +14139,7 @@
       <c r="N197" s="11"/>
       <c r="O197" s="11"/>
     </row>
-    <row r="198" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="29">
         <v>5</v>
       </c>
@@ -14179,7 +14182,7 @@
       <c r="N198" s="11"/>
       <c r="O198" s="11"/>
     </row>
-    <row r="199" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="29">
         <v>5</v>
       </c>
@@ -14222,7 +14225,7 @@
       <c r="N199" s="11"/>
       <c r="O199" s="11"/>
     </row>
-    <row r="200" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="29">
         <v>5</v>
       </c>
@@ -14265,7 +14268,7 @@
       <c r="N200" s="11"/>
       <c r="O200" s="11"/>
     </row>
-    <row r="201" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="29">
         <v>5</v>
       </c>
@@ -14308,7 +14311,7 @@
       <c r="N201" s="11"/>
       <c r="O201" s="11"/>
     </row>
-    <row r="202" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="29">
         <v>5</v>
       </c>
@@ -14351,7 +14354,7 @@
       <c r="N202" s="11"/>
       <c r="O202" s="11"/>
     </row>
-    <row r="203" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="29">
         <v>5</v>
       </c>
@@ -14394,7 +14397,7 @@
       <c r="N203" s="11"/>
       <c r="O203" s="11"/>
     </row>
-    <row r="204" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="29">
         <v>5</v>
       </c>
@@ -14437,7 +14440,7 @@
       <c r="N204" s="11"/>
       <c r="O204" s="11"/>
     </row>
-    <row r="205" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="29">
         <v>5</v>
       </c>
@@ -14480,7 +14483,7 @@
       <c r="N205" s="11"/>
       <c r="O205" s="11"/>
     </row>
-    <row r="206" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="29">
         <v>5</v>
       </c>
@@ -14523,7 +14526,7 @@
       <c r="N206" s="11"/>
       <c r="O206" s="11"/>
     </row>
-    <row r="207" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="29">
         <v>5</v>
       </c>
@@ -14566,7 +14569,7 @@
       <c r="N207" s="11"/>
       <c r="O207" s="11"/>
     </row>
-    <row r="208" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="29">
         <v>5</v>
       </c>
@@ -14609,7 +14612,7 @@
       <c r="N208" s="11"/>
       <c r="O208" s="11"/>
     </row>
-    <row r="209" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="29">
         <v>5</v>
       </c>
@@ -14652,7 +14655,7 @@
       <c r="N209" s="11"/>
       <c r="O209" s="11"/>
     </row>
-    <row r="210" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="29">
         <v>5</v>
       </c>
@@ -14695,7 +14698,7 @@
       <c r="N210" s="11"/>
       <c r="O210" s="11"/>
     </row>
-    <row r="211" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="29">
         <v>5</v>
       </c>
@@ -14738,7 +14741,7 @@
       <c r="N211" s="11"/>
       <c r="O211" s="11"/>
     </row>
-    <row r="212" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="29">
         <v>5</v>
       </c>
@@ -14781,7 +14784,7 @@
       <c r="N212" s="11"/>
       <c r="O212" s="11"/>
     </row>
-    <row r="213" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="29">
         <v>5</v>
       </c>
@@ -14824,7 +14827,7 @@
       <c r="N213" s="11"/>
       <c r="O213" s="11"/>
     </row>
-    <row r="214" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="29">
         <v>5</v>
       </c>
@@ -14867,7 +14870,7 @@
       <c r="N214" s="11"/>
       <c r="O214" s="11"/>
     </row>
-    <row r="215" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="29">
         <v>5</v>
       </c>
@@ -14910,7 +14913,7 @@
       <c r="N215" s="11"/>
       <c r="O215" s="11"/>
     </row>
-    <row r="216" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="29">
         <v>5</v>
       </c>
@@ -14953,7 +14956,7 @@
       <c r="N216" s="11"/>
       <c r="O216" s="11"/>
     </row>
-    <row r="217" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="29">
         <v>5</v>
       </c>
@@ -14996,7 +14999,7 @@
       <c r="N217" s="11"/>
       <c r="O217" s="11"/>
     </row>
-    <row r="218" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="29">
         <v>5</v>
       </c>
@@ -15039,7 +15042,7 @@
       <c r="N218" s="11"/>
       <c r="O218" s="11"/>
     </row>
-    <row r="219" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="29">
         <v>5</v>
       </c>
@@ -15082,7 +15085,7 @@
       <c r="N219" s="11"/>
       <c r="O219" s="11"/>
     </row>
-    <row r="220" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="29">
         <v>1</v>
       </c>
@@ -15129,7 +15132,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="29">
         <v>5</v>
       </c>
@@ -15172,7 +15175,7 @@
       <c r="N221" s="11"/>
       <c r="O221" s="11"/>
     </row>
-    <row r="222" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="31">
         <v>8</v>
       </c>
@@ -15215,7 +15218,7 @@
       <c r="N222" s="11"/>
       <c r="O222" s="11"/>
     </row>
-    <row r="223" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="31">
         <v>8</v>
       </c>
@@ -15258,7 +15261,7 @@
       <c r="N223" s="11"/>
       <c r="O223" s="11"/>
     </row>
-    <row r="224" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="31">
         <v>8</v>
       </c>
@@ -15301,7 +15304,7 @@
       <c r="N224" s="11"/>
       <c r="O224" s="11"/>
     </row>
-    <row r="225" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="31">
         <v>8</v>
       </c>
@@ -15344,7 +15347,7 @@
       <c r="N225" s="11"/>
       <c r="O225" s="11"/>
     </row>
-    <row r="226" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="31">
         <v>8</v>
       </c>
@@ -15387,7 +15390,7 @@
       <c r="N226" s="11"/>
       <c r="O226" s="11"/>
     </row>
-    <row r="227" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="31">
         <v>8</v>
       </c>
@@ -15430,7 +15433,7 @@
       <c r="N227" s="11"/>
       <c r="O227" s="11"/>
     </row>
-    <row r="228" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="31">
         <v>8</v>
       </c>
@@ -15473,7 +15476,7 @@
       <c r="N228" s="11"/>
       <c r="O228" s="11"/>
     </row>
-    <row r="229" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="31">
         <v>8</v>
       </c>
@@ -15516,7 +15519,7 @@
       <c r="N229" s="11"/>
       <c r="O229" s="11"/>
     </row>
-    <row r="230" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="31">
         <v>8</v>
       </c>
@@ -15559,7 +15562,7 @@
       <c r="N230" s="11"/>
       <c r="O230" s="11"/>
     </row>
-    <row r="231" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="31">
         <v>8</v>
       </c>
@@ -15602,7 +15605,7 @@
       <c r="N231" s="11"/>
       <c r="O231" s="11"/>
     </row>
-    <row r="232" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="31">
         <v>8</v>
       </c>
@@ -15645,7 +15648,7 @@
       <c r="N232" s="11"/>
       <c r="O232" s="11"/>
     </row>
-    <row r="233" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="31">
         <v>8</v>
       </c>
@@ -15688,7 +15691,7 @@
       <c r="N233" s="11"/>
       <c r="O233" s="11"/>
     </row>
-    <row r="234" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="31">
         <v>8</v>
       </c>
@@ -15731,7 +15734,7 @@
       <c r="N234" s="11"/>
       <c r="O234" s="11"/>
     </row>
-    <row r="235" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="31">
         <v>8</v>
       </c>
@@ -15774,7 +15777,7 @@
       <c r="N235" s="11"/>
       <c r="O235" s="11"/>
     </row>
-    <row r="236" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="31">
         <v>8</v>
       </c>
@@ -15817,7 +15820,7 @@
       <c r="N236" s="11"/>
       <c r="O236" s="11"/>
     </row>
-    <row r="237" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="31">
         <v>8</v>
       </c>
@@ -15860,7 +15863,7 @@
       <c r="N237" s="11"/>
       <c r="O237" s="11"/>
     </row>
-    <row r="238" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="31">
         <v>8</v>
       </c>
@@ -15903,7 +15906,7 @@
       <c r="N238" s="11"/>
       <c r="O238" s="11"/>
     </row>
-    <row r="239" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="31">
         <v>8</v>
       </c>
@@ -15946,7 +15949,7 @@
       <c r="N239" s="11"/>
       <c r="O239" s="11"/>
     </row>
-    <row r="240" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="31">
         <v>8</v>
       </c>
@@ -15989,7 +15992,7 @@
       <c r="N240" s="11"/>
       <c r="O240" s="11"/>
     </row>
-    <row r="241" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="31">
         <v>8</v>
       </c>
@@ -16032,7 +16035,7 @@
       <c r="N241" s="11"/>
       <c r="O241" s="11"/>
     </row>
-    <row r="242" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="31">
         <v>8</v>
       </c>
@@ -16075,7 +16078,7 @@
       <c r="N242" s="11"/>
       <c r="O242" s="11"/>
     </row>
-    <row r="243" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="31">
         <v>8</v>
       </c>
@@ -16118,7 +16121,7 @@
       <c r="N243" s="11"/>
       <c r="O243" s="11"/>
     </row>
-    <row r="244" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="31">
         <v>8</v>
       </c>
@@ -16161,7 +16164,7 @@
       <c r="N244" s="11"/>
       <c r="O244" s="11"/>
     </row>
-    <row r="245" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="31">
         <v>8</v>
       </c>
@@ -16204,7 +16207,7 @@
       <c r="N245" s="11"/>
       <c r="O245" s="11"/>
     </row>
-    <row r="246" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="31">
         <v>8</v>
       </c>
@@ -16247,7 +16250,7 @@
       <c r="N246" s="11"/>
       <c r="O246" s="11"/>
     </row>
-    <row r="247" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="31">
         <v>8</v>
       </c>
@@ -16290,7 +16293,7 @@
       <c r="N247" s="11"/>
       <c r="O247" s="11"/>
     </row>
-    <row r="248" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="31">
         <v>8</v>
       </c>
@@ -16333,7 +16336,7 @@
       <c r="N248" s="11"/>
       <c r="O248" s="11"/>
     </row>
-    <row r="249" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="31">
         <v>8</v>
       </c>
@@ -16376,7 +16379,7 @@
       <c r="N249" s="11"/>
       <c r="O249" s="11"/>
     </row>
-    <row r="250" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="31">
         <v>8</v>
       </c>
@@ -16419,7 +16422,7 @@
       <c r="N250" s="11"/>
       <c r="O250" s="11"/>
     </row>
-    <row r="251" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="31">
         <v>8</v>
       </c>
@@ -16462,7 +16465,7 @@
       <c r="N251" s="11"/>
       <c r="O251" s="11"/>
     </row>
-    <row r="252" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="31">
         <v>8</v>
       </c>
@@ -16505,7 +16508,7 @@
       <c r="N252" s="11"/>
       <c r="O252" s="11"/>
     </row>
-    <row r="253" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="31">
         <v>8</v>
       </c>
@@ -16548,7 +16551,7 @@
       <c r="N253" s="11"/>
       <c r="O253" s="11"/>
     </row>
-    <row r="254" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="30">
         <v>8</v>
       </c>
@@ -16591,7 +16594,7 @@
       <c r="N254" s="11"/>
       <c r="O254" s="11"/>
     </row>
-    <row r="255" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="31">
         <v>8</v>
       </c>
@@ -16634,7 +16637,7 @@
       <c r="N255" s="11"/>
       <c r="O255" s="11"/>
     </row>
-    <row r="256" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="31">
         <v>8</v>
       </c>
@@ -16677,7 +16680,7 @@
       <c r="N256" s="11"/>
       <c r="O256" s="11"/>
     </row>
-    <row r="257" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="31">
         <v>8</v>
       </c>
@@ -16720,7 +16723,7 @@
       <c r="N257" s="11"/>
       <c r="O257" s="11"/>
     </row>
-    <row r="258" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="31">
         <v>8</v>
       </c>
@@ -16763,7 +16766,7 @@
       <c r="N258" s="11"/>
       <c r="O258" s="11"/>
     </row>
-    <row r="259" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="31">
         <v>8</v>
       </c>
@@ -16806,7 +16809,7 @@
       <c r="N259" s="11"/>
       <c r="O259" s="11"/>
     </row>
-    <row r="260" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="31">
         <v>8</v>
       </c>
@@ -16849,7 +16852,7 @@
       <c r="N260" s="11"/>
       <c r="O260" s="11"/>
     </row>
-    <row r="261" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="31">
         <v>8</v>
       </c>
@@ -16892,7 +16895,7 @@
       <c r="N261" s="11"/>
       <c r="O261" s="11"/>
     </row>
-    <row r="262" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="31">
         <v>8</v>
       </c>
@@ -16935,7 +16938,7 @@
       <c r="N262" s="11"/>
       <c r="O262" s="11"/>
     </row>
-    <row r="263" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="31">
         <v>8</v>
       </c>
@@ -16978,7 +16981,7 @@
       <c r="N263" s="11"/>
       <c r="O263" s="11"/>
     </row>
-    <row r="264" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="30">
         <v>8</v>
       </c>
@@ -17021,7 +17024,7 @@
       <c r="N264" s="11"/>
       <c r="O264" s="11"/>
     </row>
-    <row r="265" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="31">
         <v>8</v>
       </c>
@@ -17064,7 +17067,7 @@
       <c r="N265" s="11"/>
       <c r="O265" s="11"/>
     </row>
-    <row r="266" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="31">
         <v>8</v>
       </c>
@@ -17107,7 +17110,7 @@
       <c r="N266" s="11"/>
       <c r="O266" s="11"/>
     </row>
-    <row r="267" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="31">
         <v>8</v>
       </c>
@@ -17150,7 +17153,7 @@
       <c r="N267" s="11"/>
       <c r="O267" s="11"/>
     </row>
-    <row r="268" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="31">
         <v>8</v>
       </c>
@@ -17193,7 +17196,7 @@
       <c r="N268" s="11"/>
       <c r="O268" s="11"/>
     </row>
-    <row r="269" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="31">
         <v>8</v>
       </c>
@@ -17236,7 +17239,7 @@
       <c r="N269" s="11"/>
       <c r="O269" s="11"/>
     </row>
-    <row r="270" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="31">
         <v>8</v>
       </c>
@@ -17279,7 +17282,7 @@
       <c r="N270" s="11"/>
       <c r="O270" s="11"/>
     </row>
-    <row r="271" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="31">
         <v>8</v>
       </c>
@@ -17322,7 +17325,7 @@
       <c r="N271" s="11"/>
       <c r="O271" s="11"/>
     </row>
-    <row r="272" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="31">
         <v>8</v>
       </c>
@@ -17365,7 +17368,7 @@
       <c r="N272" s="11"/>
       <c r="O272" s="11"/>
     </row>
-    <row r="273" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="31">
         <v>8</v>
       </c>
@@ -17408,7 +17411,7 @@
       <c r="N273" s="11"/>
       <c r="O273" s="11"/>
     </row>
-    <row r="274" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="31">
         <v>8</v>
       </c>
@@ -17451,7 +17454,7 @@
       <c r="N274" s="11"/>
       <c r="O274" s="11"/>
     </row>
-    <row r="275" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="31">
         <v>8</v>
       </c>
@@ -17494,7 +17497,7 @@
       <c r="N275" s="11"/>
       <c r="O275" s="11"/>
     </row>
-    <row r="276" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="31">
         <v>8</v>
       </c>
@@ -17537,7 +17540,7 @@
       <c r="N276" s="11"/>
       <c r="O276" s="11"/>
     </row>
-    <row r="277" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="31">
         <v>8</v>
       </c>
@@ -17580,7 +17583,7 @@
       <c r="N277" s="11"/>
       <c r="O277" s="11"/>
     </row>
-    <row r="278" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="31">
         <v>8</v>
       </c>
@@ -17623,7 +17626,7 @@
       <c r="N278" s="11"/>
       <c r="O278" s="11"/>
     </row>
-    <row r="279" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="31">
         <v>8</v>
       </c>
@@ -17752,7 +17755,7 @@
       <c r="N281" s="11"/>
       <c r="O281" s="11"/>
     </row>
-    <row r="282" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="31">
         <v>8</v>
       </c>
@@ -17795,7 +17798,7 @@
       <c r="N282" s="11"/>
       <c r="O282" s="11"/>
     </row>
-    <row r="283" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="31">
         <v>8</v>
       </c>
@@ -17838,7 +17841,7 @@
       <c r="N283" s="11"/>
       <c r="O283" s="11"/>
     </row>
-    <row r="284" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="31">
         <v>8</v>
       </c>
@@ -17924,7 +17927,7 @@
       <c r="N285" s="11"/>
       <c r="O285" s="11"/>
     </row>
-    <row r="286" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="31">
         <v>8</v>
       </c>
@@ -17967,7 +17970,7 @@
       <c r="N286" s="11"/>
       <c r="O286" s="11"/>
     </row>
-    <row r="287" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="31">
         <v>8</v>
       </c>
@@ -18010,7 +18013,7 @@
       <c r="N287" s="11"/>
       <c r="O287" s="11"/>
     </row>
-    <row r="288" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="31">
         <v>8</v>
       </c>
@@ -18053,7 +18056,7 @@
       <c r="N288" s="11"/>
       <c r="O288" s="11"/>
     </row>
-    <row r="289" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="31">
         <v>8</v>
       </c>
@@ -18096,7 +18099,7 @@
       <c r="N289" s="11"/>
       <c r="O289" s="11"/>
     </row>
-    <row r="290" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="31">
         <v>8</v>
       </c>
@@ -18139,7 +18142,7 @@
       <c r="N290" s="11"/>
       <c r="O290" s="11"/>
     </row>
-    <row r="291" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="31">
         <v>8</v>
       </c>
@@ -18182,7 +18185,7 @@
       <c r="N291" s="11"/>
       <c r="O291" s="11"/>
     </row>
-    <row r="292" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="31">
         <v>8</v>
       </c>
@@ -18225,7 +18228,7 @@
       <c r="N292" s="11"/>
       <c r="O292" s="11"/>
     </row>
-    <row r="293" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="31">
         <v>8</v>
       </c>
@@ -18268,7 +18271,7 @@
       <c r="N293" s="11"/>
       <c r="O293" s="11"/>
     </row>
-    <row r="294" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="31">
         <v>8</v>
       </c>
@@ -18311,7 +18314,7 @@
       <c r="N294" s="11"/>
       <c r="O294" s="11"/>
     </row>
-    <row r="295" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="31">
         <v>8</v>
       </c>
@@ -18354,7 +18357,7 @@
       <c r="N295" s="11"/>
       <c r="O295" s="11"/>
     </row>
-    <row r="296" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="29">
         <v>8</v>
       </c>
@@ -18397,7 +18400,7 @@
       <c r="N296" s="11"/>
       <c r="O296" s="11"/>
     </row>
-    <row r="297" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="31">
         <v>8</v>
       </c>
@@ -18440,7 +18443,7 @@
       <c r="N297" s="11"/>
       <c r="O297" s="11"/>
     </row>
-    <row r="298" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="31">
         <v>8</v>
       </c>
@@ -18483,7 +18486,7 @@
       <c r="N298" s="11"/>
       <c r="O298" s="11"/>
     </row>
-    <row r="299" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="31">
         <v>8</v>
       </c>
@@ -18526,7 +18529,7 @@
       <c r="N299" s="11"/>
       <c r="O299" s="11"/>
     </row>
-    <row r="300" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="31">
         <v>8</v>
       </c>
@@ -18698,7 +18701,7 @@
       <c r="N303" s="11"/>
       <c r="O303" s="11"/>
     </row>
-    <row r="304" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="31">
         <v>8</v>
       </c>
@@ -18741,7 +18744,7 @@
       <c r="N304" s="11"/>
       <c r="O304" s="11"/>
     </row>
-    <row r="305" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="31">
         <v>8</v>
       </c>
@@ -18784,7 +18787,7 @@
       <c r="N305" s="11"/>
       <c r="O305" s="11"/>
     </row>
-    <row r="306" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="31">
         <v>8</v>
       </c>
@@ -18827,7 +18830,7 @@
       <c r="N306" s="11"/>
       <c r="O306" s="11"/>
     </row>
-    <row r="307" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="31">
         <v>8</v>
       </c>
@@ -18870,7 +18873,7 @@
       <c r="N307" s="11"/>
       <c r="O307" s="11"/>
     </row>
-    <row r="308" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="31">
         <v>8</v>
       </c>
@@ -18913,7 +18916,7 @@
       <c r="N308" s="11"/>
       <c r="O308" s="11"/>
     </row>
-    <row r="309" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="31">
         <v>8</v>
       </c>
@@ -18999,7 +19002,7 @@
       <c r="N310" s="11"/>
       <c r="O310" s="11"/>
     </row>
-    <row r="311" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="31">
         <v>8</v>
       </c>
@@ -19042,7 +19045,7 @@
       <c r="N311" s="11"/>
       <c r="O311" s="11"/>
     </row>
-    <row r="312" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="31">
         <v>8</v>
       </c>
@@ -19085,7 +19088,7 @@
       <c r="N312" s="11"/>
       <c r="O312" s="11"/>
     </row>
-    <row r="313" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="31">
         <v>8</v>
       </c>
@@ -19128,7 +19131,7 @@
       <c r="N313" s="11"/>
       <c r="O313" s="11"/>
     </row>
-    <row r="314" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="31">
         <v>8</v>
       </c>
@@ -19171,7 +19174,7 @@
       <c r="N314" s="11"/>
       <c r="O314" s="11"/>
     </row>
-    <row r="315" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="31">
         <v>8</v>
       </c>
@@ -30700,11 +30703,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M585" xr:uid="{7078E505-F72A-4D49-923C-8B55BDF4638D}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="5">
       <filters>
         <filter val="Ja"/>

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0865F677-7A56-41F5-BD37-5D83B1FCB14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C506B2-650F-42B7-AE19-8986DFB7DB99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7217" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7225" uniqueCount="1232">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3777,6 +3777,12 @@
   </si>
   <si>
     <t>opdracht_10</t>
+  </si>
+  <si>
+    <t>zit in besluitmetadata</t>
+  </si>
+  <si>
+    <t>wij hebben geen voorbeeld met OfficielePublicatieMetadata</t>
   </si>
 </sst>
 </file>
@@ -3946,7 +3952,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3956,6 +3962,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4168,21 +4180,21 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4191,7 +4203,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4238,7 +4250,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4312,8 +4324,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -5343,8 +5358,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N133" sqref="N133"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N144" sqref="N144:O144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6181,7 +6196,7 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>4</v>
       </c>
@@ -6226,7 +6241,7 @@
       </c>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
         <v>4</v>
       </c>
@@ -6271,7 +6286,7 @@
       </c>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <v>4</v>
       </c>
@@ -6316,7 +6331,7 @@
       </c>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
         <v>4</v>
       </c>
@@ -6361,7 +6376,7 @@
       </c>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
         <v>4</v>
       </c>
@@ -6406,7 +6421,7 @@
       </c>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
         <v>4</v>
       </c>
@@ -6451,7 +6466,7 @@
       </c>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29">
         <v>4</v>
       </c>
@@ -6496,7 +6511,7 @@
       </c>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <v>4</v>
       </c>
@@ -6541,7 +6556,7 @@
       </c>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29">
         <v>4</v>
       </c>
@@ -6586,7 +6601,7 @@
       </c>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
         <v>4</v>
       </c>
@@ -6631,7 +6646,7 @@
       </c>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29">
         <v>4</v>
       </c>
@@ -6676,7 +6691,7 @@
       </c>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29">
         <v>4</v>
       </c>
@@ -6721,7 +6736,7 @@
       </c>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29">
         <v>4</v>
       </c>
@@ -6766,7 +6781,7 @@
       </c>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29">
         <v>4</v>
       </c>
@@ -6811,7 +6826,7 @@
       </c>
       <c r="O33" s="11"/>
     </row>
-    <row r="34" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29">
         <v>4</v>
       </c>
@@ -6857,7 +6872,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29">
         <v>4</v>
       </c>
@@ -6903,7 +6918,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29">
         <v>1</v>
       </c>
@@ -6950,7 +6965,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29">
         <v>1</v>
       </c>
@@ -6997,7 +7012,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29">
         <v>1</v>
       </c>
@@ -7044,7 +7059,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="29">
         <v>1</v>
       </c>
@@ -7091,7 +7106,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="29">
         <v>1</v>
       </c>
@@ -7138,7 +7153,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="29">
         <v>1</v>
       </c>
@@ -7185,7 +7200,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29">
         <v>1</v>
       </c>
@@ -7232,7 +7247,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="29">
         <v>1</v>
       </c>
@@ -7279,7 +7294,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29">
         <v>1</v>
       </c>
@@ -7326,7 +7341,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29">
         <v>1</v>
       </c>
@@ -7373,7 +7388,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29">
         <v>1</v>
       </c>
@@ -7420,7 +7435,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29">
         <v>1</v>
       </c>
@@ -7467,7 +7482,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="29">
         <v>1</v>
       </c>
@@ -7514,7 +7529,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
         <v>1</v>
       </c>
@@ -7561,7 +7576,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29">
         <v>1</v>
       </c>
@@ -7608,7 +7623,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29">
         <v>1</v>
       </c>
@@ -7655,7 +7670,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29">
         <v>1</v>
       </c>
@@ -7702,7 +7717,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="29">
         <v>1</v>
       </c>
@@ -7749,7 +7764,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="29">
         <v>1</v>
       </c>
@@ -7796,7 +7811,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="29">
         <v>1</v>
       </c>
@@ -7843,7 +7858,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="29">
         <v>1</v>
       </c>
@@ -7890,7 +7905,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="28">
         <v>1</v>
       </c>
@@ -7937,7 +7952,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="28">
         <v>1</v>
       </c>
@@ -7984,7 +7999,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="28">
         <v>1</v>
       </c>
@@ -11158,7 +11173,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="30">
         <v>2</v>
       </c>
@@ -11205,7 +11220,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="30">
         <v>2</v>
       </c>
@@ -11252,7 +11267,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="30">
         <v>2</v>
       </c>
@@ -11295,7 +11310,7 @@
       <c r="N131" s="11"/>
       <c r="O131" s="11"/>
     </row>
-    <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="30">
         <v>2</v>
       </c>
@@ -11342,11 +11357,11 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="30">
         <v>2</v>
       </c>
-      <c r="B133" s="28" t="s">
+      <c r="B133" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C133" s="23" t="s">
@@ -11385,7 +11400,7 @@
       <c r="N133" s="11"/>
       <c r="O133" s="11"/>
     </row>
-    <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="30">
         <v>2</v>
       </c>
@@ -11425,10 +11440,14 @@
       <c r="M134" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N134" s="12"/>
-      <c r="O134" s="12"/>
-    </row>
-    <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N134" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O134" s="23" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="30">
         <v>2</v>
       </c>
@@ -11468,14 +11487,18 @@
       <c r="M135" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N135" s="12"/>
-      <c r="O135" s="12"/>
-    </row>
-    <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N135" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O135" s="23" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="30">
         <v>2</v>
       </c>
-      <c r="B136" s="28" t="s">
+      <c r="B136" s="16" t="s">
         <v>554</v>
       </c>
       <c r="C136" s="23" t="s">
@@ -11514,11 +11537,11 @@
       <c r="N136" s="12"/>
       <c r="O136" s="12"/>
     </row>
-    <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="30">
         <v>2</v>
       </c>
-      <c r="B137" s="28" t="s">
+      <c r="B137" s="16" t="s">
         <v>771</v>
       </c>
       <c r="C137" s="28" t="s">
@@ -11556,8 +11579,11 @@
       </c>
       <c r="N137" s="12"/>
       <c r="O137" s="12"/>
-    </row>
-    <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P137" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="28">
         <v>5</v>
       </c>
@@ -11600,7 +11626,7 @@
       <c r="N138" s="12"/>
       <c r="O138" s="12"/>
     </row>
-    <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="28">
         <v>5</v>
       </c>
@@ -11643,7 +11669,7 @@
       <c r="N139" s="11"/>
       <c r="O139" s="11"/>
     </row>
-    <row r="140" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="28">
         <v>5</v>
       </c>
@@ -11686,7 +11712,7 @@
       <c r="N140" s="11"/>
       <c r="O140" s="11"/>
     </row>
-    <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="28">
         <v>5</v>
       </c>
@@ -11729,7 +11755,7 @@
       <c r="N141" s="11"/>
       <c r="O141" s="11"/>
     </row>
-    <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="28">
         <v>5</v>
       </c>
@@ -11772,7 +11798,7 @@
       <c r="N142" s="11"/>
       <c r="O142" s="11"/>
     </row>
-    <row r="143" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="28">
         <v>5</v>
       </c>
@@ -11815,11 +11841,11 @@
       <c r="N143" s="11"/>
       <c r="O143" s="11"/>
     </row>
-    <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="30">
         <v>2</v>
       </c>
-      <c r="B144" s="28" t="s">
+      <c r="B144" s="42" t="s">
         <v>111</v>
       </c>
       <c r="C144" s="23" t="s">
@@ -11855,8 +11881,15 @@
       <c r="M144" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N144" s="11"/>
-      <c r="O144" s="11"/>
+      <c r="N144" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O144" s="23" t="s">
+        <v>1079</v>
+      </c>
+      <c r="P144" t="s">
+        <v>1231</v>
+      </c>
     </row>
     <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="30">
@@ -12718,7 +12751,7 @@
       <c r="N164" s="11"/>
       <c r="O164" s="11"/>
     </row>
-    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="29">
         <v>5</v>
       </c>
@@ -12761,7 +12794,7 @@
       <c r="N165" s="11"/>
       <c r="O165" s="11"/>
     </row>
-    <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="29">
         <v>5</v>
       </c>
@@ -12804,7 +12837,7 @@
       <c r="N166" s="11"/>
       <c r="O166" s="11"/>
     </row>
-    <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="29">
         <v>5</v>
       </c>
@@ -12847,7 +12880,7 @@
       <c r="N167" s="11"/>
       <c r="O167" s="11"/>
     </row>
-    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="29">
         <v>5</v>
       </c>
@@ -12890,7 +12923,7 @@
       <c r="N168" s="11"/>
       <c r="O168" s="11"/>
     </row>
-    <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="29">
         <v>5</v>
       </c>
@@ -12933,7 +12966,7 @@
       <c r="N169" s="11"/>
       <c r="O169" s="11"/>
     </row>
-    <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="28">
         <v>5</v>
       </c>
@@ -12976,7 +13009,7 @@
       <c r="N170" s="11"/>
       <c r="O170" s="11"/>
     </row>
-    <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="29">
         <v>5</v>
       </c>
@@ -13021,7 +13054,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="29">
         <v>5</v>
       </c>
@@ -13064,7 +13097,7 @@
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
     </row>
-    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="29">
         <v>5</v>
       </c>
@@ -13107,7 +13140,7 @@
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
     </row>
-    <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="29">
         <v>5</v>
       </c>
@@ -13150,7 +13183,7 @@
       <c r="N174" s="11"/>
       <c r="O174" s="11"/>
     </row>
-    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="29">
         <v>5</v>
       </c>
@@ -13193,7 +13226,7 @@
       <c r="N175" s="11"/>
       <c r="O175" s="11"/>
     </row>
-    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="29">
         <v>5</v>
       </c>
@@ -13236,7 +13269,7 @@
       <c r="N176" s="11"/>
       <c r="O176" s="11"/>
     </row>
-    <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="29">
         <v>5</v>
       </c>
@@ -13279,7 +13312,7 @@
       <c r="N177" s="11"/>
       <c r="O177" s="11"/>
     </row>
-    <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="29">
         <v>5</v>
       </c>
@@ -13322,7 +13355,7 @@
       <c r="N178" s="11"/>
       <c r="O178" s="11"/>
     </row>
-    <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="29">
         <v>5</v>
       </c>
@@ -13365,7 +13398,7 @@
       <c r="N179" s="11"/>
       <c r="O179" s="11"/>
     </row>
-    <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="29">
         <v>5</v>
       </c>
@@ -13408,7 +13441,7 @@
       <c r="N180" s="11"/>
       <c r="O180" s="11"/>
     </row>
-    <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="29">
         <v>5</v>
       </c>
@@ -13451,7 +13484,7 @@
       <c r="N181" s="11"/>
       <c r="O181" s="11"/>
     </row>
-    <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="29">
         <v>5</v>
       </c>
@@ -13494,7 +13527,7 @@
       <c r="N182" s="11"/>
       <c r="O182" s="11"/>
     </row>
-    <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="29">
         <v>5</v>
       </c>
@@ -13537,7 +13570,7 @@
       <c r="N183" s="11"/>
       <c r="O183" s="11"/>
     </row>
-    <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="29">
         <v>5</v>
       </c>
@@ -13580,7 +13613,7 @@
       <c r="N184" s="11"/>
       <c r="O184" s="11"/>
     </row>
-    <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="29">
         <v>5</v>
       </c>
@@ -13623,7 +13656,7 @@
       <c r="N185" s="11"/>
       <c r="O185" s="11"/>
     </row>
-    <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="29">
         <v>5</v>
       </c>
@@ -13666,7 +13699,7 @@
       <c r="N186" s="11"/>
       <c r="O186" s="11"/>
     </row>
-    <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="29">
         <v>5</v>
       </c>
@@ -13709,7 +13742,7 @@
       <c r="N187" s="11"/>
       <c r="O187" s="11"/>
     </row>
-    <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="29">
         <v>5</v>
       </c>
@@ -13752,7 +13785,7 @@
       <c r="N188" s="11"/>
       <c r="O188" s="11"/>
     </row>
-    <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="29">
         <v>5</v>
       </c>
@@ -13795,7 +13828,7 @@
       <c r="N189" s="11"/>
       <c r="O189" s="11"/>
     </row>
-    <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="29">
         <v>5</v>
       </c>
@@ -13838,7 +13871,7 @@
       <c r="N190" s="11"/>
       <c r="O190" s="11"/>
     </row>
-    <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="29">
         <v>5</v>
       </c>
@@ -13881,7 +13914,7 @@
       <c r="N191" s="11"/>
       <c r="O191" s="11"/>
     </row>
-    <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="29">
         <v>5</v>
       </c>
@@ -13924,7 +13957,7 @@
       <c r="N192" s="11"/>
       <c r="O192" s="11"/>
     </row>
-    <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="29">
         <v>5</v>
       </c>
@@ -13967,7 +14000,7 @@
       <c r="N193" s="11"/>
       <c r="O193" s="11"/>
     </row>
-    <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="29">
         <v>5</v>
       </c>
@@ -14010,7 +14043,7 @@
       <c r="N194" s="11"/>
       <c r="O194" s="11"/>
     </row>
-    <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="29">
         <v>5</v>
       </c>
@@ -14053,7 +14086,7 @@
       <c r="N195" s="11"/>
       <c r="O195" s="11"/>
     </row>
-    <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="29">
         <v>5</v>
       </c>
@@ -14096,7 +14129,7 @@
       <c r="N196" s="11"/>
       <c r="O196" s="11"/>
     </row>
-    <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="29">
         <v>5</v>
       </c>
@@ -14139,7 +14172,7 @@
       <c r="N197" s="11"/>
       <c r="O197" s="11"/>
     </row>
-    <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="29">
         <v>5</v>
       </c>
@@ -14182,7 +14215,7 @@
       <c r="N198" s="11"/>
       <c r="O198" s="11"/>
     </row>
-    <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="29">
         <v>5</v>
       </c>
@@ -14225,7 +14258,7 @@
       <c r="N199" s="11"/>
       <c r="O199" s="11"/>
     </row>
-    <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="29">
         <v>5</v>
       </c>
@@ -14268,7 +14301,7 @@
       <c r="N200" s="11"/>
       <c r="O200" s="11"/>
     </row>
-    <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="29">
         <v>5</v>
       </c>
@@ -14311,7 +14344,7 @@
       <c r="N201" s="11"/>
       <c r="O201" s="11"/>
     </row>
-    <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="29">
         <v>5</v>
       </c>
@@ -14354,7 +14387,7 @@
       <c r="N202" s="11"/>
       <c r="O202" s="11"/>
     </row>
-    <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="29">
         <v>5</v>
       </c>
@@ -14397,7 +14430,7 @@
       <c r="N203" s="11"/>
       <c r="O203" s="11"/>
     </row>
-    <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="29">
         <v>5</v>
       </c>
@@ -14440,7 +14473,7 @@
       <c r="N204" s="11"/>
       <c r="O204" s="11"/>
     </row>
-    <row r="205" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="29">
         <v>5</v>
       </c>
@@ -14483,7 +14516,7 @@
       <c r="N205" s="11"/>
       <c r="O205" s="11"/>
     </row>
-    <row r="206" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="29">
         <v>5</v>
       </c>
@@ -14526,7 +14559,7 @@
       <c r="N206" s="11"/>
       <c r="O206" s="11"/>
     </row>
-    <row r="207" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="29">
         <v>5</v>
       </c>
@@ -14569,7 +14602,7 @@
       <c r="N207" s="11"/>
       <c r="O207" s="11"/>
     </row>
-    <row r="208" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="29">
         <v>5</v>
       </c>
@@ -14612,7 +14645,7 @@
       <c r="N208" s="11"/>
       <c r="O208" s="11"/>
     </row>
-    <row r="209" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="29">
         <v>5</v>
       </c>
@@ -14655,7 +14688,7 @@
       <c r="N209" s="11"/>
       <c r="O209" s="11"/>
     </row>
-    <row r="210" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="29">
         <v>5</v>
       </c>
@@ -14698,7 +14731,7 @@
       <c r="N210" s="11"/>
       <c r="O210" s="11"/>
     </row>
-    <row r="211" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="29">
         <v>5</v>
       </c>
@@ -14741,7 +14774,7 @@
       <c r="N211" s="11"/>
       <c r="O211" s="11"/>
     </row>
-    <row r="212" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="29">
         <v>5</v>
       </c>
@@ -14784,7 +14817,7 @@
       <c r="N212" s="11"/>
       <c r="O212" s="11"/>
     </row>
-    <row r="213" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="29">
         <v>5</v>
       </c>
@@ -14827,7 +14860,7 @@
       <c r="N213" s="11"/>
       <c r="O213" s="11"/>
     </row>
-    <row r="214" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="29">
         <v>5</v>
       </c>
@@ -14870,7 +14903,7 @@
       <c r="N214" s="11"/>
       <c r="O214" s="11"/>
     </row>
-    <row r="215" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="29">
         <v>5</v>
       </c>
@@ -14913,7 +14946,7 @@
       <c r="N215" s="11"/>
       <c r="O215" s="11"/>
     </row>
-    <row r="216" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="29">
         <v>5</v>
       </c>
@@ -14956,7 +14989,7 @@
       <c r="N216" s="11"/>
       <c r="O216" s="11"/>
     </row>
-    <row r="217" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="29">
         <v>5</v>
       </c>
@@ -14999,7 +15032,7 @@
       <c r="N217" s="11"/>
       <c r="O217" s="11"/>
     </row>
-    <row r="218" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="29">
         <v>5</v>
       </c>
@@ -15042,7 +15075,7 @@
       <c r="N218" s="11"/>
       <c r="O218" s="11"/>
     </row>
-    <row r="219" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="29">
         <v>5</v>
       </c>
@@ -15085,7 +15118,7 @@
       <c r="N219" s="11"/>
       <c r="O219" s="11"/>
     </row>
-    <row r="220" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="29">
         <v>1</v>
       </c>
@@ -15132,7 +15165,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="29">
         <v>5</v>
       </c>
@@ -15175,7 +15208,7 @@
       <c r="N221" s="11"/>
       <c r="O221" s="11"/>
     </row>
-    <row r="222" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="31">
         <v>8</v>
       </c>
@@ -15218,7 +15251,7 @@
       <c r="N222" s="11"/>
       <c r="O222" s="11"/>
     </row>
-    <row r="223" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="31">
         <v>8</v>
       </c>
@@ -15261,7 +15294,7 @@
       <c r="N223" s="11"/>
       <c r="O223" s="11"/>
     </row>
-    <row r="224" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="31">
         <v>8</v>
       </c>
@@ -15304,7 +15337,7 @@
       <c r="N224" s="11"/>
       <c r="O224" s="11"/>
     </row>
-    <row r="225" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="31">
         <v>8</v>
       </c>
@@ -15347,7 +15380,7 @@
       <c r="N225" s="11"/>
       <c r="O225" s="11"/>
     </row>
-    <row r="226" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="31">
         <v>8</v>
       </c>
@@ -15390,7 +15423,7 @@
       <c r="N226" s="11"/>
       <c r="O226" s="11"/>
     </row>
-    <row r="227" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="31">
         <v>8</v>
       </c>
@@ -15433,7 +15466,7 @@
       <c r="N227" s="11"/>
       <c r="O227" s="11"/>
     </row>
-    <row r="228" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="31">
         <v>8</v>
       </c>
@@ -15476,7 +15509,7 @@
       <c r="N228" s="11"/>
       <c r="O228" s="11"/>
     </row>
-    <row r="229" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="31">
         <v>8</v>
       </c>
@@ -15519,7 +15552,7 @@
       <c r="N229" s="11"/>
       <c r="O229" s="11"/>
     </row>
-    <row r="230" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="31">
         <v>8</v>
       </c>
@@ -15562,7 +15595,7 @@
       <c r="N230" s="11"/>
       <c r="O230" s="11"/>
     </row>
-    <row r="231" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="31">
         <v>8</v>
       </c>
@@ -15605,7 +15638,7 @@
       <c r="N231" s="11"/>
       <c r="O231" s="11"/>
     </row>
-    <row r="232" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="31">
         <v>8</v>
       </c>
@@ -15648,7 +15681,7 @@
       <c r="N232" s="11"/>
       <c r="O232" s="11"/>
     </row>
-    <row r="233" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="31">
         <v>8</v>
       </c>
@@ -15691,7 +15724,7 @@
       <c r="N233" s="11"/>
       <c r="O233" s="11"/>
     </row>
-    <row r="234" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="31">
         <v>8</v>
       </c>
@@ -15734,7 +15767,7 @@
       <c r="N234" s="11"/>
       <c r="O234" s="11"/>
     </row>
-    <row r="235" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="31">
         <v>8</v>
       </c>
@@ -15777,7 +15810,7 @@
       <c r="N235" s="11"/>
       <c r="O235" s="11"/>
     </row>
-    <row r="236" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="31">
         <v>8</v>
       </c>
@@ -15820,7 +15853,7 @@
       <c r="N236" s="11"/>
       <c r="O236" s="11"/>
     </row>
-    <row r="237" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="31">
         <v>8</v>
       </c>
@@ -15863,7 +15896,7 @@
       <c r="N237" s="11"/>
       <c r="O237" s="11"/>
     </row>
-    <row r="238" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="31">
         <v>8</v>
       </c>
@@ -15906,7 +15939,7 @@
       <c r="N238" s="11"/>
       <c r="O238" s="11"/>
     </row>
-    <row r="239" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="31">
         <v>8</v>
       </c>
@@ -15949,7 +15982,7 @@
       <c r="N239" s="11"/>
       <c r="O239" s="11"/>
     </row>
-    <row r="240" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="31">
         <v>8</v>
       </c>
@@ -15992,7 +16025,7 @@
       <c r="N240" s="11"/>
       <c r="O240" s="11"/>
     </row>
-    <row r="241" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="31">
         <v>8</v>
       </c>
@@ -16035,7 +16068,7 @@
       <c r="N241" s="11"/>
       <c r="O241" s="11"/>
     </row>
-    <row r="242" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="31">
         <v>8</v>
       </c>
@@ -16078,7 +16111,7 @@
       <c r="N242" s="11"/>
       <c r="O242" s="11"/>
     </row>
-    <row r="243" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="31">
         <v>8</v>
       </c>
@@ -16121,7 +16154,7 @@
       <c r="N243" s="11"/>
       <c r="O243" s="11"/>
     </row>
-    <row r="244" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="31">
         <v>8</v>
       </c>
@@ -16164,7 +16197,7 @@
       <c r="N244" s="11"/>
       <c r="O244" s="11"/>
     </row>
-    <row r="245" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="31">
         <v>8</v>
       </c>
@@ -16207,7 +16240,7 @@
       <c r="N245" s="11"/>
       <c r="O245" s="11"/>
     </row>
-    <row r="246" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="31">
         <v>8</v>
       </c>
@@ -16250,7 +16283,7 @@
       <c r="N246" s="11"/>
       <c r="O246" s="11"/>
     </row>
-    <row r="247" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="31">
         <v>8</v>
       </c>
@@ -16293,7 +16326,7 @@
       <c r="N247" s="11"/>
       <c r="O247" s="11"/>
     </row>
-    <row r="248" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="31">
         <v>8</v>
       </c>
@@ -16336,7 +16369,7 @@
       <c r="N248" s="11"/>
       <c r="O248" s="11"/>
     </row>
-    <row r="249" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="31">
         <v>8</v>
       </c>
@@ -16379,7 +16412,7 @@
       <c r="N249" s="11"/>
       <c r="O249" s="11"/>
     </row>
-    <row r="250" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="31">
         <v>8</v>
       </c>
@@ -16422,7 +16455,7 @@
       <c r="N250" s="11"/>
       <c r="O250" s="11"/>
     </row>
-    <row r="251" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="31">
         <v>8</v>
       </c>
@@ -16465,7 +16498,7 @@
       <c r="N251" s="11"/>
       <c r="O251" s="11"/>
     </row>
-    <row r="252" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="31">
         <v>8</v>
       </c>
@@ -16508,7 +16541,7 @@
       <c r="N252" s="11"/>
       <c r="O252" s="11"/>
     </row>
-    <row r="253" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="31">
         <v>8</v>
       </c>
@@ -16551,7 +16584,7 @@
       <c r="N253" s="11"/>
       <c r="O253" s="11"/>
     </row>
-    <row r="254" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="30">
         <v>8</v>
       </c>
@@ -16594,7 +16627,7 @@
       <c r="N254" s="11"/>
       <c r="O254" s="11"/>
     </row>
-    <row r="255" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="31">
         <v>8</v>
       </c>
@@ -16637,7 +16670,7 @@
       <c r="N255" s="11"/>
       <c r="O255" s="11"/>
     </row>
-    <row r="256" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="31">
         <v>8</v>
       </c>
@@ -16680,7 +16713,7 @@
       <c r="N256" s="11"/>
       <c r="O256" s="11"/>
     </row>
-    <row r="257" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="31">
         <v>8</v>
       </c>
@@ -16723,7 +16756,7 @@
       <c r="N257" s="11"/>
       <c r="O257" s="11"/>
     </row>
-    <row r="258" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="31">
         <v>8</v>
       </c>
@@ -16766,7 +16799,7 @@
       <c r="N258" s="11"/>
       <c r="O258" s="11"/>
     </row>
-    <row r="259" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="31">
         <v>8</v>
       </c>
@@ -16809,7 +16842,7 @@
       <c r="N259" s="11"/>
       <c r="O259" s="11"/>
     </row>
-    <row r="260" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="31">
         <v>8</v>
       </c>
@@ -16852,7 +16885,7 @@
       <c r="N260" s="11"/>
       <c r="O260" s="11"/>
     </row>
-    <row r="261" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="31">
         <v>8</v>
       </c>
@@ -16895,7 +16928,7 @@
       <c r="N261" s="11"/>
       <c r="O261" s="11"/>
     </row>
-    <row r="262" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="31">
         <v>8</v>
       </c>
@@ -16938,7 +16971,7 @@
       <c r="N262" s="11"/>
       <c r="O262" s="11"/>
     </row>
-    <row r="263" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="31">
         <v>8</v>
       </c>
@@ -16981,7 +17014,7 @@
       <c r="N263" s="11"/>
       <c r="O263" s="11"/>
     </row>
-    <row r="264" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="30">
         <v>8</v>
       </c>
@@ -17024,7 +17057,7 @@
       <c r="N264" s="11"/>
       <c r="O264" s="11"/>
     </row>
-    <row r="265" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="31">
         <v>8</v>
       </c>
@@ -17067,7 +17100,7 @@
       <c r="N265" s="11"/>
       <c r="O265" s="11"/>
     </row>
-    <row r="266" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="31">
         <v>8</v>
       </c>
@@ -17110,7 +17143,7 @@
       <c r="N266" s="11"/>
       <c r="O266" s="11"/>
     </row>
-    <row r="267" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="31">
         <v>8</v>
       </c>
@@ -17153,7 +17186,7 @@
       <c r="N267" s="11"/>
       <c r="O267" s="11"/>
     </row>
-    <row r="268" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="31">
         <v>8</v>
       </c>
@@ -17196,7 +17229,7 @@
       <c r="N268" s="11"/>
       <c r="O268" s="11"/>
     </row>
-    <row r="269" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="31">
         <v>8</v>
       </c>
@@ -17239,7 +17272,7 @@
       <c r="N269" s="11"/>
       <c r="O269" s="11"/>
     </row>
-    <row r="270" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="31">
         <v>8</v>
       </c>
@@ -17282,7 +17315,7 @@
       <c r="N270" s="11"/>
       <c r="O270" s="11"/>
     </row>
-    <row r="271" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="31">
         <v>8</v>
       </c>
@@ -17325,7 +17358,7 @@
       <c r="N271" s="11"/>
       <c r="O271" s="11"/>
     </row>
-    <row r="272" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="31">
         <v>8</v>
       </c>
@@ -17368,7 +17401,7 @@
       <c r="N272" s="11"/>
       <c r="O272" s="11"/>
     </row>
-    <row r="273" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="31">
         <v>8</v>
       </c>
@@ -17411,7 +17444,7 @@
       <c r="N273" s="11"/>
       <c r="O273" s="11"/>
     </row>
-    <row r="274" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="31">
         <v>8</v>
       </c>
@@ -17454,7 +17487,7 @@
       <c r="N274" s="11"/>
       <c r="O274" s="11"/>
     </row>
-    <row r="275" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="31">
         <v>8</v>
       </c>
@@ -17497,7 +17530,7 @@
       <c r="N275" s="11"/>
       <c r="O275" s="11"/>
     </row>
-    <row r="276" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="31">
         <v>8</v>
       </c>
@@ -17540,7 +17573,7 @@
       <c r="N276" s="11"/>
       <c r="O276" s="11"/>
     </row>
-    <row r="277" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="31">
         <v>8</v>
       </c>
@@ -17583,7 +17616,7 @@
       <c r="N277" s="11"/>
       <c r="O277" s="11"/>
     </row>
-    <row r="278" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="31">
         <v>8</v>
       </c>
@@ -17626,7 +17659,7 @@
       <c r="N278" s="11"/>
       <c r="O278" s="11"/>
     </row>
-    <row r="279" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="31">
         <v>8</v>
       </c>
@@ -17755,7 +17788,7 @@
       <c r="N281" s="11"/>
       <c r="O281" s="11"/>
     </row>
-    <row r="282" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="31">
         <v>8</v>
       </c>
@@ -17798,7 +17831,7 @@
       <c r="N282" s="11"/>
       <c r="O282" s="11"/>
     </row>
-    <row r="283" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="31">
         <v>8</v>
       </c>
@@ -17841,7 +17874,7 @@
       <c r="N283" s="11"/>
       <c r="O283" s="11"/>
     </row>
-    <row r="284" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="31">
         <v>8</v>
       </c>
@@ -17927,7 +17960,7 @@
       <c r="N285" s="11"/>
       <c r="O285" s="11"/>
     </row>
-    <row r="286" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="31">
         <v>8</v>
       </c>
@@ -17970,7 +18003,7 @@
       <c r="N286" s="11"/>
       <c r="O286" s="11"/>
     </row>
-    <row r="287" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="31">
         <v>8</v>
       </c>
@@ -18013,7 +18046,7 @@
       <c r="N287" s="11"/>
       <c r="O287" s="11"/>
     </row>
-    <row r="288" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="31">
         <v>8</v>
       </c>
@@ -18056,7 +18089,7 @@
       <c r="N288" s="11"/>
       <c r="O288" s="11"/>
     </row>
-    <row r="289" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="31">
         <v>8</v>
       </c>
@@ -18099,7 +18132,7 @@
       <c r="N289" s="11"/>
       <c r="O289" s="11"/>
     </row>
-    <row r="290" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="31">
         <v>8</v>
       </c>
@@ -18142,7 +18175,7 @@
       <c r="N290" s="11"/>
       <c r="O290" s="11"/>
     </row>
-    <row r="291" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="31">
         <v>8</v>
       </c>
@@ -18185,7 +18218,7 @@
       <c r="N291" s="11"/>
       <c r="O291" s="11"/>
     </row>
-    <row r="292" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="31">
         <v>8</v>
       </c>
@@ -18228,7 +18261,7 @@
       <c r="N292" s="11"/>
       <c r="O292" s="11"/>
     </row>
-    <row r="293" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="31">
         <v>8</v>
       </c>
@@ -18271,7 +18304,7 @@
       <c r="N293" s="11"/>
       <c r="O293" s="11"/>
     </row>
-    <row r="294" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="31">
         <v>8</v>
       </c>
@@ -18314,7 +18347,7 @@
       <c r="N294" s="11"/>
       <c r="O294" s="11"/>
     </row>
-    <row r="295" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="31">
         <v>8</v>
       </c>
@@ -18357,7 +18390,7 @@
       <c r="N295" s="11"/>
       <c r="O295" s="11"/>
     </row>
-    <row r="296" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="29">
         <v>8</v>
       </c>
@@ -18400,7 +18433,7 @@
       <c r="N296" s="11"/>
       <c r="O296" s="11"/>
     </row>
-    <row r="297" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="31">
         <v>8</v>
       </c>
@@ -18443,7 +18476,7 @@
       <c r="N297" s="11"/>
       <c r="O297" s="11"/>
     </row>
-    <row r="298" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="31">
         <v>8</v>
       </c>
@@ -18486,7 +18519,7 @@
       <c r="N298" s="11"/>
       <c r="O298" s="11"/>
     </row>
-    <row r="299" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="31">
         <v>8</v>
       </c>
@@ -18529,7 +18562,7 @@
       <c r="N299" s="11"/>
       <c r="O299" s="11"/>
     </row>
-    <row r="300" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="31">
         <v>8</v>
       </c>
@@ -18701,7 +18734,7 @@
       <c r="N303" s="11"/>
       <c r="O303" s="11"/>
     </row>
-    <row r="304" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="31">
         <v>8</v>
       </c>
@@ -18744,7 +18777,7 @@
       <c r="N304" s="11"/>
       <c r="O304" s="11"/>
     </row>
-    <row r="305" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="31">
         <v>8</v>
       </c>
@@ -18787,7 +18820,7 @@
       <c r="N305" s="11"/>
       <c r="O305" s="11"/>
     </row>
-    <row r="306" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="31">
         <v>8</v>
       </c>
@@ -18830,7 +18863,7 @@
       <c r="N306" s="11"/>
       <c r="O306" s="11"/>
     </row>
-    <row r="307" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="31">
         <v>8</v>
       </c>
@@ -18873,7 +18906,7 @@
       <c r="N307" s="11"/>
       <c r="O307" s="11"/>
     </row>
-    <row r="308" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="31">
         <v>8</v>
       </c>
@@ -18916,7 +18949,7 @@
       <c r="N308" s="11"/>
       <c r="O308" s="11"/>
     </row>
-    <row r="309" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="31">
         <v>8</v>
       </c>
@@ -19002,7 +19035,7 @@
       <c r="N310" s="11"/>
       <c r="O310" s="11"/>
     </row>
-    <row r="311" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="31">
         <v>8</v>
       </c>
@@ -19045,7 +19078,7 @@
       <c r="N311" s="11"/>
       <c r="O311" s="11"/>
     </row>
-    <row r="312" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="31">
         <v>8</v>
       </c>
@@ -19088,7 +19121,7 @@
       <c r="N312" s="11"/>
       <c r="O312" s="11"/>
     </row>
-    <row r="313" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="31">
         <v>8</v>
       </c>
@@ -19131,7 +19164,7 @@
       <c r="N313" s="11"/>
       <c r="O313" s="11"/>
     </row>
-    <row r="314" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="31">
         <v>8</v>
       </c>
@@ -19174,7 +19207,7 @@
       <c r="N314" s="11"/>
       <c r="O314" s="11"/>
     </row>
-    <row r="315" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="31">
         <v>8</v>
       </c>
@@ -30703,6 +30736,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M585" xr:uid="{7078E505-F72A-4D49-923C-8B55BDF4638D}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5">
       <filters>
         <filter val="Ja"/>

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C506B2-650F-42B7-AE19-8986DFB7DB99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE3A217-FA04-4D0B-972E-D60661D95DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5359,7 +5359,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N144" sqref="N144:O144"/>
+      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE3A217-FA04-4D0B-972E-D60661D95DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0AACE9-04F0-497C-B1F6-BFB80883ABA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7225" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7226" uniqueCount="1231">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3780,9 +3780,6 @@
   </si>
   <si>
     <t>zit in besluitmetadata</t>
-  </si>
-  <si>
-    <t>wij hebben geen voorbeeld met OfficielePublicatieMetadata</t>
   </si>
 </sst>
 </file>
@@ -3952,7 +3949,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4028,6 +4025,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4203,7 +4206,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4328,6 +4331,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5358,8 +5364,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P144" sqref="P144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11887,15 +11893,12 @@
       <c r="O144" s="23" t="s">
         <v>1079</v>
       </c>
-      <c r="P144" t="s">
-        <v>1231</v>
-      </c>
     </row>
     <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="30">
         <v>2</v>
       </c>
-      <c r="B145" s="28" t="s">
+      <c r="B145" s="43" t="s">
         <v>556</v>
       </c>
       <c r="C145" s="23" t="s">
@@ -11974,8 +11977,12 @@
       <c r="M146" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N146" s="11"/>
-      <c r="O146" s="11"/>
+      <c r="N146" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O146" s="23" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="30">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0AACE9-04F0-497C-B1F6-BFB80883ABA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1369A6E0-E1A8-4E47-8369-91F0CAA62906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7226" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7228" uniqueCount="1231">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5365,7 +5365,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P144" sqref="P144"/>
+      <selection pane="bottomLeft" activeCell="N147" sqref="N147:O147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12024,8 +12024,12 @@
       <c r="M147" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N147" s="11"/>
-      <c r="O147" s="11"/>
+      <c r="N147" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O147" s="23" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="30">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422F8BE3-C59F-4386-83EA-EB964FF98B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751CDD67-E26A-4C14-8581-48FC8F1E4B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7234" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7238" uniqueCount="1232">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5307,8 +5307,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N150" sqref="N150:O150"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N155" sqref="N155:O155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12119,7 +12119,7 @@
       <c r="A151" s="29">
         <v>2</v>
       </c>
-      <c r="B151" s="27" t="s">
+      <c r="B151" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C151" s="22" t="s">
@@ -12198,14 +12198,18 @@
       <c r="M152" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N152" s="11"/>
-      <c r="O152" s="11"/>
+      <c r="N152" s="22" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O152" s="22" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="29">
         <v>2</v>
       </c>
-      <c r="B153" s="27" t="s">
+      <c r="B153" s="15" t="s">
         <v>127</v>
       </c>
       <c r="C153" s="22" t="s">
@@ -12248,7 +12252,7 @@
       <c r="A154" s="29">
         <v>2</v>
       </c>
-      <c r="B154" s="27" t="s">
+      <c r="B154" s="15" t="s">
         <v>129</v>
       </c>
       <c r="C154" s="22" t="s">
@@ -12327,8 +12331,12 @@
       <c r="M155" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N155" s="11"/>
-      <c r="O155" s="11"/>
+      <c r="N155" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O155" s="22" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="29">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751CDD67-E26A-4C14-8581-48FC8F1E4B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5209378F-BE0D-4CB2-A731-F96520F06623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7238" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7244" uniqueCount="1233">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -3783,6 +3783,9 @@
   </si>
   <si>
     <t>opdracht_11</t>
+  </si>
+  <si>
+    <t>opdracht_10 en 11</t>
   </si>
 </sst>
 </file>
@@ -5307,8 +5310,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N155" sqref="N155:O155"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O158" sqref="N158:O158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12378,8 +12381,12 @@
       <c r="M156" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N156" s="11"/>
-      <c r="O156" s="11"/>
+      <c r="N156" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O156" s="22" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="33">
@@ -12421,14 +12428,18 @@
       <c r="M157" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N157" s="11"/>
-      <c r="O157" s="11"/>
+      <c r="N157" s="22" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O157" s="22" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="33">
         <v>2</v>
       </c>
-      <c r="B158" s="27" t="s">
+      <c r="B158" s="15" t="s">
         <v>778</v>
       </c>
       <c r="C158" s="27" t="s">
@@ -12464,8 +12475,12 @@
       <c r="M158" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N158" s="11"/>
-      <c r="O158" s="11"/>
+      <c r="N158" s="22" t="s">
+        <v>1232</v>
+      </c>
+      <c r="O158" s="22" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="33">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5209378F-BE0D-4CB2-A731-F96520F06623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AC4599-5D15-4563-8915-85928A98D30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7244" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7246" uniqueCount="1233">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5310,8 +5310,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O158" sqref="N158:O158"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12475,12 +12475,6 @@
       <c r="M158" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N158" s="22" t="s">
-        <v>1232</v>
-      </c>
-      <c r="O158" s="22" t="s">
-        <v>1079</v>
-      </c>
     </row>
     <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="33">
@@ -12522,14 +12516,18 @@
       <c r="M159" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N159" s="11"/>
-      <c r="O159" s="11"/>
+      <c r="N159" s="22" t="s">
+        <v>1232</v>
+      </c>
+      <c r="O159" s="22" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="29">
         <v>2</v>
       </c>
-      <c r="B160" s="27" t="s">
+      <c r="B160" s="15" t="s">
         <v>779</v>
       </c>
       <c r="C160" s="27" t="s">
@@ -12572,7 +12570,7 @@
       <c r="A161" s="33">
         <v>2</v>
       </c>
-      <c r="B161" s="27" t="s">
+      <c r="B161" s="15" t="s">
         <v>1128</v>
       </c>
       <c r="C161" s="27" t="s">
@@ -12651,14 +12649,18 @@
       <c r="M162" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N162" s="11"/>
-      <c r="O162" s="11"/>
+      <c r="N162" s="11" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O162" s="11" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="163" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="33">
         <v>2</v>
       </c>
-      <c r="B163" s="27" t="s">
+      <c r="B163" s="15" t="s">
         <v>1130</v>
       </c>
       <c r="C163" s="27" t="s">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AC4599-5D15-4563-8915-85928A98D30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885664EA-00CA-42F1-8342-8B9202734B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7246" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7252" uniqueCount="1233">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5310,8 +5310,8 @@
   <dimension ref="A1:P585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B163" sqref="B163"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O168" sqref="O168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8127,7 +8127,7 @@
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
     </row>
-    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="29">
         <v>2</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="30">
         <v>2</v>
       </c>
@@ -8217,7 +8217,7 @@
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
     </row>
-    <row r="65" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="30">
         <v>2</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30">
         <v>2</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="30">
         <v>2</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="30">
         <v>2</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="30">
         <v>2</v>
       </c>
@@ -8448,7 +8448,7 @@
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
     </row>
-    <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="30">
         <v>2</v>
       </c>
@@ -8491,7 +8491,7 @@
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
     </row>
-    <row r="71" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="30">
         <v>2</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="30">
         <v>2</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="30">
         <v>2</v>
       </c>
@@ -8628,7 +8628,7 @@
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
     </row>
-    <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="31">
         <v>2</v>
       </c>
@@ -8671,7 +8671,7 @@
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
     </row>
-    <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="30">
         <v>2</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="30">
         <v>2</v>
       </c>
@@ -8761,7 +8761,7 @@
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
     </row>
-    <row r="77" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="30">
         <v>2</v>
       </c>
@@ -8804,7 +8804,7 @@
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
     </row>
-    <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="30">
         <v>2</v>
       </c>
@@ -8847,7 +8847,7 @@
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
     </row>
-    <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="30">
         <v>2</v>
       </c>
@@ -8890,7 +8890,7 @@
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
     </row>
-    <row r="80" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="30">
         <v>2</v>
       </c>
@@ -8933,7 +8933,7 @@
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
     </row>
-    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="30">
         <v>2</v>
       </c>
@@ -8976,7 +8976,7 @@
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
     </row>
-    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="30">
         <v>2</v>
       </c>
@@ -9019,7 +9019,7 @@
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
     </row>
-    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="30">
         <v>2</v>
       </c>
@@ -9062,7 +9062,7 @@
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
     </row>
-    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="30">
         <v>2</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="29">
         <v>2</v>
       </c>
@@ -9152,7 +9152,7 @@
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
     </row>
-    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="29">
         <v>2</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>2</v>
       </c>
@@ -9242,7 +9242,7 @@
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
     </row>
-    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="27">
         <v>2</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="27">
         <v>2</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="27">
         <v>2</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="27">
         <v>2</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="27">
         <v>2</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="27">
         <v>2</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="27">
         <v>2</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="27">
         <v>2</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="27">
         <v>2</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="27">
         <v>2</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="27">
         <v>2</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="27">
         <v>2</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="29">
         <v>2</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
         <v>2</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="29">
         <v>2</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="30">
         <v>2</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="30">
         <v>2</v>
       </c>
@@ -10037,7 +10037,7 @@
       <c r="N104" s="11"/>
       <c r="O104" s="11"/>
     </row>
-    <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="30">
         <v>2</v>
       </c>
@@ -10080,7 +10080,7 @@
       <c r="N105" s="11"/>
       <c r="O105" s="11"/>
     </row>
-    <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="30">
         <v>2</v>
       </c>
@@ -10123,7 +10123,7 @@
       <c r="N106" s="11"/>
       <c r="O106" s="11"/>
     </row>
-    <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="30">
         <v>2</v>
       </c>
@@ -10166,7 +10166,7 @@
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
     </row>
-    <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="30">
         <v>2</v>
       </c>
@@ -10252,7 +10252,7 @@
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
     </row>
-    <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="30">
         <v>2</v>
       </c>
@@ -10295,7 +10295,7 @@
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
     </row>
-    <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="31">
         <v>2</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="30">
         <v>2</v>
       </c>
@@ -10385,7 +10385,7 @@
       <c r="N112" s="11"/>
       <c r="O112" s="11"/>
     </row>
-    <row r="113" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="30">
         <v>2</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="30">
         <v>2</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="31">
         <v>2</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="31">
         <v>2</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="30">
         <v>2</v>
       </c>
@@ -10616,7 +10616,7 @@
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
     </row>
-    <row r="118" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="30">
         <v>2</v>
       </c>
@@ -10659,7 +10659,7 @@
       <c r="N118" s="11"/>
       <c r="O118" s="11"/>
     </row>
-    <row r="119" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="30">
         <v>2</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="30">
         <v>2</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="30">
         <v>2</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="29">
         <v>2</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="29">
         <v>2</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="29">
         <v>2</v>
       </c>
@@ -10937,7 +10937,7 @@
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
     </row>
-    <row r="125" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="29">
         <v>2</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="29">
         <v>2</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="29">
         <v>2</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="29">
         <v>2</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="29">
         <v>2</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="29">
         <v>2</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="29">
         <v>2</v>
       </c>
@@ -11262,7 +11262,7 @@
       <c r="N131" s="11"/>
       <c r="O131" s="11"/>
     </row>
-    <row r="132" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="29">
         <v>2</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="29">
         <v>2</v>
       </c>
@@ -11352,7 +11352,7 @@
       <c r="N133" s="11"/>
       <c r="O133" s="11"/>
     </row>
-    <row r="134" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="29">
         <v>2</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="29">
         <v>2</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="29">
         <v>2</v>
       </c>
@@ -11489,7 +11489,7 @@
       <c r="N136" s="12"/>
       <c r="O136" s="12"/>
     </row>
-    <row r="137" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="29">
         <v>2</v>
       </c>
@@ -11535,11 +11535,11 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="27">
         <v>5</v>
       </c>
-      <c r="B138" s="27" t="s">
+      <c r="B138" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C138" s="22" t="s">
@@ -11578,11 +11578,11 @@
       <c r="N138" s="12"/>
       <c r="O138" s="12"/>
     </row>
-    <row r="139" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="27">
         <v>5</v>
       </c>
-      <c r="B139" s="27" t="s">
+      <c r="B139" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C139" s="22" t="s">
@@ -11664,11 +11664,11 @@
       <c r="N140" s="11"/>
       <c r="O140" s="11"/>
     </row>
-    <row r="141" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="27">
         <v>5</v>
       </c>
-      <c r="B141" s="27" t="s">
+      <c r="B141" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C141" s="22" t="s">
@@ -11707,11 +11707,11 @@
       <c r="N141" s="11"/>
       <c r="O141" s="11"/>
     </row>
-    <row r="142" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="27">
         <v>5</v>
       </c>
-      <c r="B142" s="27" t="s">
+      <c r="B142" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C142" s="22" t="s">
@@ -11793,7 +11793,7 @@
       <c r="N143" s="11"/>
       <c r="O143" s="11"/>
     </row>
-    <row r="144" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="29">
         <v>2</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="29">
         <v>2</v>
       </c>
@@ -11883,7 +11883,7 @@
       <c r="N145" s="11"/>
       <c r="O145" s="11"/>
     </row>
-    <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="29">
         <v>2</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="29">
         <v>2</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="29">
         <v>2</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="29">
         <v>2</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="29">
         <v>2</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="29">
         <v>2</v>
       </c>
@@ -12161,7 +12161,7 @@
       <c r="N151" s="11"/>
       <c r="O151" s="11"/>
     </row>
-    <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="29">
         <v>2</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="29">
         <v>2</v>
       </c>
@@ -12251,7 +12251,7 @@
       <c r="N153" s="11"/>
       <c r="O153" s="11"/>
     </row>
-    <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="29">
         <v>2</v>
       </c>
@@ -12294,7 +12294,7 @@
       <c r="N154" s="11"/>
       <c r="O154" s="11"/>
     </row>
-    <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="29">
         <v>2</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="29">
         <v>2</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="33">
         <v>2</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="33">
         <v>2</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="33">
         <v>2</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="29">
         <v>2</v>
       </c>
@@ -12566,7 +12566,7 @@
       <c r="N160" s="11"/>
       <c r="O160" s="11"/>
     </row>
-    <row r="161" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="33">
         <v>2</v>
       </c>
@@ -12609,7 +12609,7 @@
       <c r="N161" s="11"/>
       <c r="O161" s="11"/>
     </row>
-    <row r="162" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="33">
         <v>2</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="33">
         <v>2</v>
       </c>
@@ -12742,11 +12742,11 @@
       <c r="N164" s="11"/>
       <c r="O164" s="11"/>
     </row>
-    <row r="165" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="28">
         <v>5</v>
       </c>
-      <c r="B165" s="27" t="s">
+      <c r="B165" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C165" s="22" t="s">
@@ -12785,7 +12785,7 @@
       <c r="N165" s="11"/>
       <c r="O165" s="11"/>
     </row>
-    <row r="166" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="28">
         <v>5</v>
       </c>
@@ -12825,10 +12825,14 @@
       <c r="M166" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N166" s="11"/>
-      <c r="O166" s="11"/>
-    </row>
-    <row r="167" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N166" s="11" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O166" s="11" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="28">
         <v>5</v>
       </c>
@@ -12868,10 +12872,14 @@
       <c r="M167" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N167" s="11"/>
-      <c r="O167" s="11"/>
-    </row>
-    <row r="168" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N167" s="22" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O167" s="22" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="28">
         <v>5</v>
       </c>
@@ -12911,14 +12919,18 @@
       <c r="M168" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N168" s="11"/>
-      <c r="O168" s="11"/>
-    </row>
-    <row r="169" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N168" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="O168" s="11" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="28">
         <v>5</v>
       </c>
-      <c r="B169" s="27" t="s">
+      <c r="B169" s="15" t="s">
         <v>137</v>
       </c>
       <c r="C169" s="22" t="s">
@@ -12957,7 +12969,7 @@
       <c r="N169" s="11"/>
       <c r="O169" s="11"/>
     </row>
-    <row r="170" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="27">
         <v>5</v>
       </c>
@@ -13000,7 +13012,7 @@
       <c r="N170" s="11"/>
       <c r="O170" s="11"/>
     </row>
-    <row r="171" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="28">
         <v>5</v>
       </c>
@@ -13045,7 +13057,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="28">
         <v>5</v>
       </c>
@@ -13088,7 +13100,7 @@
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
     </row>
-    <row r="173" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="28">
         <v>5</v>
       </c>
@@ -13131,7 +13143,7 @@
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
     </row>
-    <row r="174" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="28">
         <v>5</v>
       </c>
@@ -13174,7 +13186,7 @@
       <c r="N174" s="11"/>
       <c r="O174" s="11"/>
     </row>
-    <row r="175" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="28">
         <v>5</v>
       </c>
@@ -13217,7 +13229,7 @@
       <c r="N175" s="11"/>
       <c r="O175" s="11"/>
     </row>
-    <row r="176" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="28">
         <v>5</v>
       </c>
@@ -13260,7 +13272,7 @@
       <c r="N176" s="11"/>
       <c r="O176" s="11"/>
     </row>
-    <row r="177" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="28">
         <v>5</v>
       </c>
@@ -13303,7 +13315,7 @@
       <c r="N177" s="11"/>
       <c r="O177" s="11"/>
     </row>
-    <row r="178" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="28">
         <v>5</v>
       </c>
@@ -13346,7 +13358,7 @@
       <c r="N178" s="11"/>
       <c r="O178" s="11"/>
     </row>
-    <row r="179" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="28">
         <v>5</v>
       </c>
@@ -13389,7 +13401,7 @@
       <c r="N179" s="11"/>
       <c r="O179" s="11"/>
     </row>
-    <row r="180" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="28">
         <v>5</v>
       </c>
@@ -13432,7 +13444,7 @@
       <c r="N180" s="11"/>
       <c r="O180" s="11"/>
     </row>
-    <row r="181" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="28">
         <v>5</v>
       </c>
@@ -13475,7 +13487,7 @@
       <c r="N181" s="11"/>
       <c r="O181" s="11"/>
     </row>
-    <row r="182" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="28">
         <v>5</v>
       </c>
@@ -13518,7 +13530,7 @@
       <c r="N182" s="11"/>
       <c r="O182" s="11"/>
     </row>
-    <row r="183" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="28">
         <v>5</v>
       </c>
@@ -13561,7 +13573,7 @@
       <c r="N183" s="11"/>
       <c r="O183" s="11"/>
     </row>
-    <row r="184" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="28">
         <v>5</v>
       </c>
@@ -13604,7 +13616,7 @@
       <c r="N184" s="11"/>
       <c r="O184" s="11"/>
     </row>
-    <row r="185" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="28">
         <v>5</v>
       </c>
@@ -13647,7 +13659,7 @@
       <c r="N185" s="11"/>
       <c r="O185" s="11"/>
     </row>
-    <row r="186" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="28">
         <v>5</v>
       </c>
@@ -13690,7 +13702,7 @@
       <c r="N186" s="11"/>
       <c r="O186" s="11"/>
     </row>
-    <row r="187" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="28">
         <v>5</v>
       </c>
@@ -13733,7 +13745,7 @@
       <c r="N187" s="11"/>
       <c r="O187" s="11"/>
     </row>
-    <row r="188" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="28">
         <v>5</v>
       </c>
@@ -13776,7 +13788,7 @@
       <c r="N188" s="11"/>
       <c r="O188" s="11"/>
     </row>
-    <row r="189" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="28">
         <v>5</v>
       </c>
@@ -13819,7 +13831,7 @@
       <c r="N189" s="11"/>
       <c r="O189" s="11"/>
     </row>
-    <row r="190" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="28">
         <v>5</v>
       </c>
@@ -13862,7 +13874,7 @@
       <c r="N190" s="11"/>
       <c r="O190" s="11"/>
     </row>
-    <row r="191" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="28">
         <v>5</v>
       </c>
@@ -13905,7 +13917,7 @@
       <c r="N191" s="11"/>
       <c r="O191" s="11"/>
     </row>
-    <row r="192" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="28">
         <v>5</v>
       </c>
@@ -13948,7 +13960,7 @@
       <c r="N192" s="11"/>
       <c r="O192" s="11"/>
     </row>
-    <row r="193" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="28">
         <v>5</v>
       </c>
@@ -13991,7 +14003,7 @@
       <c r="N193" s="11"/>
       <c r="O193" s="11"/>
     </row>
-    <row r="194" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="28">
         <v>5</v>
       </c>
@@ -14034,7 +14046,7 @@
       <c r="N194" s="11"/>
       <c r="O194" s="11"/>
     </row>
-    <row r="195" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="28">
         <v>5</v>
       </c>
@@ -14077,7 +14089,7 @@
       <c r="N195" s="11"/>
       <c r="O195" s="11"/>
     </row>
-    <row r="196" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="28">
         <v>5</v>
       </c>
@@ -14120,7 +14132,7 @@
       <c r="N196" s="11"/>
       <c r="O196" s="11"/>
     </row>
-    <row r="197" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="28">
         <v>5</v>
       </c>
@@ -14163,7 +14175,7 @@
       <c r="N197" s="11"/>
       <c r="O197" s="11"/>
     </row>
-    <row r="198" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="28">
         <v>5</v>
       </c>
@@ -14206,7 +14218,7 @@
       <c r="N198" s="11"/>
       <c r="O198" s="11"/>
     </row>
-    <row r="199" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="28">
         <v>5</v>
       </c>
@@ -14249,7 +14261,7 @@
       <c r="N199" s="11"/>
       <c r="O199" s="11"/>
     </row>
-    <row r="200" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="28">
         <v>5</v>
       </c>
@@ -14292,7 +14304,7 @@
       <c r="N200" s="11"/>
       <c r="O200" s="11"/>
     </row>
-    <row r="201" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="28">
         <v>5</v>
       </c>
@@ -14335,7 +14347,7 @@
       <c r="N201" s="11"/>
       <c r="O201" s="11"/>
     </row>
-    <row r="202" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="28">
         <v>5</v>
       </c>
@@ -14378,7 +14390,7 @@
       <c r="N202" s="11"/>
       <c r="O202" s="11"/>
     </row>
-    <row r="203" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="28">
         <v>5</v>
       </c>
@@ -14421,7 +14433,7 @@
       <c r="N203" s="11"/>
       <c r="O203" s="11"/>
     </row>
-    <row r="204" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="28">
         <v>5</v>
       </c>
@@ -14464,7 +14476,7 @@
       <c r="N204" s="11"/>
       <c r="O204" s="11"/>
     </row>
-    <row r="205" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="28">
         <v>5</v>
       </c>
@@ -14507,7 +14519,7 @@
       <c r="N205" s="11"/>
       <c r="O205" s="11"/>
     </row>
-    <row r="206" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="28">
         <v>5</v>
       </c>
@@ -14550,7 +14562,7 @@
       <c r="N206" s="11"/>
       <c r="O206" s="11"/>
     </row>
-    <row r="207" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="28">
         <v>5</v>
       </c>
@@ -14593,7 +14605,7 @@
       <c r="N207" s="11"/>
       <c r="O207" s="11"/>
     </row>
-    <row r="208" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="28">
         <v>5</v>
       </c>
@@ -14636,7 +14648,7 @@
       <c r="N208" s="11"/>
       <c r="O208" s="11"/>
     </row>
-    <row r="209" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="28">
         <v>5</v>
       </c>
@@ -14679,7 +14691,7 @@
       <c r="N209" s="11"/>
       <c r="O209" s="11"/>
     </row>
-    <row r="210" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="28">
         <v>5</v>
       </c>
@@ -14722,7 +14734,7 @@
       <c r="N210" s="11"/>
       <c r="O210" s="11"/>
     </row>
-    <row r="211" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="28">
         <v>5</v>
       </c>
@@ -14765,7 +14777,7 @@
       <c r="N211" s="11"/>
       <c r="O211" s="11"/>
     </row>
-    <row r="212" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="28">
         <v>5</v>
       </c>
@@ -14808,7 +14820,7 @@
       <c r="N212" s="11"/>
       <c r="O212" s="11"/>
     </row>
-    <row r="213" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="28">
         <v>5</v>
       </c>
@@ -14851,7 +14863,7 @@
       <c r="N213" s="11"/>
       <c r="O213" s="11"/>
     </row>
-    <row r="214" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="28">
         <v>5</v>
       </c>
@@ -14894,7 +14906,7 @@
       <c r="N214" s="11"/>
       <c r="O214" s="11"/>
     </row>
-    <row r="215" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="28">
         <v>5</v>
       </c>
@@ -14937,7 +14949,7 @@
       <c r="N215" s="11"/>
       <c r="O215" s="11"/>
     </row>
-    <row r="216" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="28">
         <v>5</v>
       </c>
@@ -14980,7 +14992,7 @@
       <c r="N216" s="11"/>
       <c r="O216" s="11"/>
     </row>
-    <row r="217" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="28">
         <v>5</v>
       </c>
@@ -15023,7 +15035,7 @@
       <c r="N217" s="11"/>
       <c r="O217" s="11"/>
     </row>
-    <row r="218" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="28">
         <v>5</v>
       </c>
@@ -15066,7 +15078,7 @@
       <c r="N218" s="11"/>
       <c r="O218" s="11"/>
     </row>
-    <row r="219" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="28">
         <v>5</v>
       </c>
@@ -15156,7 +15168,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="28">
         <v>5</v>
       </c>
@@ -30729,7 +30741,7 @@
   <autoFilter ref="A1:M585" xr:uid="{7078E505-F72A-4D49-923C-8B55BDF4638D}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885664EA-00CA-42F1-8342-8B9202734B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826A02DB-E904-419D-B447-C7A2B1F103C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7252" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7254" uniqueCount="1233">
   <si>
     <t>Is Opdracht.zip een geldige zip</t>
   </si>
@@ -5311,7 +5311,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O168" sqref="O168"/>
+      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11668,7 +11668,7 @@
       <c r="A141" s="27">
         <v>5</v>
       </c>
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="41" t="s">
         <v>53</v>
       </c>
       <c r="C141" s="22" t="s">
@@ -11704,8 +11704,12 @@
       <c r="M141" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N141" s="11"/>
-      <c r="O141" s="11"/>
+      <c r="N141" s="22" t="s">
+        <v>1226</v>
+      </c>
+      <c r="O141" s="22" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="142" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="27">

--- a/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
+++ b/1.0.4-rc/Kopie van 20201005_1057 - Validatiematrix 1 (version 1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_validatietestcontent\1.0.4-rc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_validatietestcontent\1.0.4-rc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826A02DB-E904-419D-B447-C7A2B1F103C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DA286F-8C7D-45E6-9FFC-91122C9EB401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Legenda" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Validatieregels!$A$1:$M$585</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Validatieregels!$A$1:$P$585</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Legenda!$A:$B</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Legenda!$A:$B,Legenda!$1:$1</definedName>
   </definedNames>
@@ -5311,23 +5311,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
+      <selection pane="bottomLeft" activeCell="N141" sqref="N141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="74" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="13" customWidth="1"/>
     <col min="9" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>453</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>2</v>
       </c>
@@ -5417,7 +5417,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -5460,7 +5460,7 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -5503,7 +5503,7 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>2</v>
       </c>
@@ -5546,7 +5546,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>2</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>2</v>
       </c>
@@ -5632,7 +5632,7 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>2</v>
       </c>
@@ -5675,7 +5675,7 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>2</v>
       </c>
@@ -5718,7 +5718,7 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>2</v>
       </c>
@@ -5761,7 +5761,7 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>2</v>
       </c>
@@ -5804,7 +5804,7 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>2</v>
       </c>
@@ -5847,7 +5847,7 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>2</v>
       </c>
@@ -5890,7 +5890,7 @@
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>2</v>
       </c>
@@ -5933,7 +5933,7 @@
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
     </row>
-    <row r="15" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>2</v>
       </c>
@@ -5976,7 +5976,7 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>2</v>
       </c>
@@ -6019,7 +6019,7 @@
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>2</v>
       </c>
@@ -6062,7 +6062,7 @@
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>2</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>2</v>
       </c>
@@ -6148,7 +6148,7 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>4</v>
       </c>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>4</v>
       </c>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>4</v>
       </c>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>4</v>
       </c>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>4</v>
       </c>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>4</v>
       </c>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>4</v>
       </c>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>4</v>
       </c>
@@ -6508,7 +6508,7 @@
       </c>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>4</v>
       </c>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>4</v>
       </c>
@@ -6598,7 +6598,7 @@
       </c>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28">
         <v>4</v>
       </c>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>4</v>
       </c>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>4</v>
       </c>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>4</v>
       </c>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="O33" s="11"/>
     </row>
-    <row r="34" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>4</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>4</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>1</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>1</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28">
         <v>1</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>1</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>1</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>1</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>1</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>1</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>1</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>1</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28">
         <v>1</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
         <v>1</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>1</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>1</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>1</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>1</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>1</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>1</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="28">
         <v>1</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>1</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>1</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27">
         <v>1</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
         <v>1</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
         <v>1</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27">
         <v>1</v>
       </c>
@@ -8041,7 +8041,7 @@
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
     </row>
-    <row r="61" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27">
         <v>1</v>
       </c>
@@ -8084,7 +8084,7 @@
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
     </row>
-    <row r="62" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="27">
         <v>1</v>
       </c>
@@ -8127,7 +8127,7 @@
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
     </row>
-    <row r="63" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="29">
         <v>2</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>2</v>
       </c>
@@ -8217,7 +8217,7 @@
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
     </row>
-    <row r="65" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>2</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>2</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
         <v>2</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
         <v>2</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="30">
         <v>2</v>
       </c>
@@ -8448,7 +8448,7 @@
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
     </row>
-    <row r="70" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>2</v>
       </c>
@@ -8491,7 +8491,7 @@
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
     </row>
-    <row r="71" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30">
         <v>2</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="30">
         <v>2</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30">
         <v>2</v>
       </c>
@@ -8628,7 +8628,7 @@
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
     </row>
-    <row r="74" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="31">
         <v>2</v>
       </c>
@@ -8671,7 +8671,7 @@
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
     </row>
-    <row r="75" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
         <v>2</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30">
         <v>2</v>
       </c>
@@ -8761,7 +8761,7 @@
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
     </row>
-    <row r="77" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30">
         <v>2</v>
       </c>
@@ -8804,7 +8804,7 @@
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
     </row>
-    <row r="78" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="30">
         <v>2</v>
       </c>
@@ -8847,7 +8847,7 @@
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
     </row>
-    <row r="79" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30">
         <v>2</v>
       </c>
@@ -8890,7 +8890,7 @@
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
     </row>
-    <row r="80" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="30">
         <v>2</v>
       </c>
@@ -8933,7 +8933,7 @@
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
     </row>
-    <row r="81" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="30">
         <v>2</v>
       </c>
@@ -8976,7 +8976,7 @@
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
     </row>
-    <row r="82" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30">
         <v>2</v>
       </c>
@@ -9019,7 +9019,7 @@
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
     </row>
-    <row r="83" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="30">
         <v>2</v>
       </c>
@@ -9062,7 +9062,7 @@
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
     </row>
-    <row r="84" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30">
         <v>2</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="29">
         <v>2</v>
       </c>
@@ -9152,7 +9152,7 @@
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
     </row>
-    <row r="86" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="29">
         <v>2</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>2</v>
       </c>
@@ -9242,7 +9242,7 @@
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
     </row>
-    <row r="88" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27">
         <v>2</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27">
         <v>2</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27">
         <v>2</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="27">
         <v>2</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="27">
         <v>2</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="27">
         <v>2</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="27">
         <v>2</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="27">
         <v>2</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="27">
         <v>2</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="27">
         <v>2</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27">
         <v>2</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="27">
         <v>2</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="29">
         <v>2</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="29">
         <v>2</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="29">
         <v>2</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="30">
         <v>2</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="30">
         <v>2</v>
       </c>
@@ -10037,7 +10037,7 @@
       <c r="N104" s="11"/>
       <c r="O104" s="11"/>
     </row>
-    <row r="105" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="30">
         <v>2</v>
       </c>
@@ -10080,7 +10080,7 @@
       <c r="N105" s="11"/>
       <c r="O105" s="11"/>
     </row>
-    <row r="106" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="30">
         <v>2</v>
       </c>
@@ -10123,7 +10123,7 @@
       <c r="N106" s="11"/>
       <c r="O106" s="11"/>
     </row>
-    <row r="107" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="30">
         <v>2</v>
       </c>
@@ -10166,7 +10166,7 @@
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
     </row>
-    <row r="108" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30">
         <v>2</v>
       </c>
@@ -10209,7 +10209,7 @@
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
     </row>
-    <row r="109" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="31">
         <v>2</v>
       </c>
@@ -10252,7 +10252,7 @@
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
     </row>
-    <row r="110" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30">
         <v>2</v>
       </c>
@@ -10295,7 +10295,7 @@
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
     </row>
-    <row r="111" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="31">
         <v>2</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30">
         <v>2</v>
       </c>
@@ -10385,7 +10385,7 @@
       <c r="N112" s="11"/>
       <c r="O112" s="11"/>
     </row>
-    <row r="113" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="30">
         <v>2</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="30">
         <v>2</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="31">
         <v>2</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="31">
         <v>2</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="30">
         <v>2</v>
       </c>
@@ -10616,7 +10616,7 @@
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
     </row>
-    <row r="118" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="30">
         <v>2</v>
       </c>
@@ -10659,7 +10659,7 @@
       <c r="N118" s="11"/>
       <c r="O118" s="11"/>
     </row>
-    <row r="119" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="30">
         <v>2</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="30">
         <v>2</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30">
         <v>2</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="29">
         <v>2</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="29">
         <v>2</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="29">
         <v>2</v>
       </c>
@@ -10937,7 +10937,7 @@
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
     </row>
-    <row r="125" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="29">
         <v>2</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="29">
         <v>2</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="29">
         <v>2</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="29">
         <v>2</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="29">
         <v>2</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="29">
         <v>2</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="29">
         <v>2</v>
       </c>
@@ -11262,7 +11262,7 @@
       <c r="N131" s="11"/>
       <c r="O131" s="11"/>
     </row>
-    <row r="132" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="29">
         <v>2</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="29">
         <v>2</v>
       </c>
@@ -11352,7 +11352,7 @@
       <c r="N133" s="11"/>
       <c r="O133" s="11"/>
     </row>
-    <row r="134" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="29">
         <v>2</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="29">
         <v>2</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="29">
         <v>2</v>
       </c>
@@ -11489,7 +11489,7 @@
       <c r="N136" s="12"/>
       <c r="O136" s="12"/>
     </row>
-    <row r="137" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="29">
         <v>2</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="27">
         <v>5</v>
       </c>
@@ -11578,7 +11578,7 @@
       <c r="N138" s="12"/>
       <c r="O138" s="12"/>
     </row>
-    <row r="139" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="27">
         <v>5</v>
       </c>
@@ -11621,7 +11621,7 @@
       <c r="N139" s="11"/>
       <c r="O139" s="11"/>
     </row>
-    <row r="140" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="27">
         <v>5</v>
       </c>
@@ -11664,7 +11664,7 @@
       <c r="N140" s="11"/>
       <c r="O140" s="11"/>
     </row>
-    <row r="141" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="27">
         <v>5</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="27">
         <v>5</v>
       </c>
@@ -11754,7 +11754,7 @@
       <c r="N142" s="11"/>
       <c r="O142" s="11"/>
     </row>
-    <row r="143" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="27">
         <v>5</v>
       </c>
@@ -11797,7 +11797,7 @@
       <c r="N143" s="11"/>
       <c r="O143" s="11"/>
     </row>
-    <row r="144" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="29">
         <v>2</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="29">
         <v>2</v>
       </c>
@@ -11887,7 +11887,7 @@
       <c r="N145" s="11"/>
       <c r="O145" s="11"/>
     </row>
-    <row r="146" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="29">
         <v>2</v>
       </c>
@@ -11934,7 +11934,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="29">
         <v>2</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="29">
         <v>2</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="29">
         <v>2</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="29">
         <v>2</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="29">
         <v>2</v>
       </c>
@@ -12165,7 +12165,7 @@
       <c r="N151" s="11"/>
       <c r="O151" s="11"/>
     </row>
-    <row r="152" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="29">
         <v>2</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="29">
         <v>2</v>
       </c>
@@ -12255,7 +12255,7 @@
       <c r="N153" s="11"/>
       <c r="O153" s="11"/>
     </row>
-    <row r="154" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="29">
         <v>2</v>
       </c>
@@ -12298,7 +12298,7 @@
       <c r="N154" s="11"/>
       <c r="O154" s="11"/>
     </row>
-    <row r="155" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="29">
         <v>2</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="29">
         <v>2</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="33">
         <v>2</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="33">
         <v>2</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="33">
         <v>2</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="29">
         <v>2</v>
       </c>
@@ -12570,7 +12570,7 @@
       <c r="N160" s="11"/>
       <c r="O160" s="11"/>
     </row>
-    <row r="161" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="33">
         <v>2</v>
       </c>
@@ -12613,7 +12613,7 @@
       <c r="N161" s="11"/>
       <c r="O161" s="11"/>
     </row>
-    <row r="162" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="33">
         <v>2</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="33">
         <v>2</v>
       </c>
@@ -12703,7 +12703,7 @@
       <c r="N163" s="11"/>
       <c r="O163" s="11"/>
     </row>
-    <row r="164" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="28">
         <v>5</v>
       </c>
@@ -12746,7 +12746,7 @@
       <c r="N164" s="11"/>
       <c r="O164" s="11"/>
     </row>
-    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="28">
         <v>5</v>
       </c>
@@ -12789,7 +12789,7 @@
       <c r="N165" s="11"/>
       <c r="O165" s="11"/>
     </row>
-    <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="28">
         <v>5</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="28">
         <v>5</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="28">
         <v>5</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="28">
         <v>5</v>
       </c>
@@ -12973,7 +12973,7 @@
       <c r="N169" s="11"/>
       <c r="O169" s="11"/>
     </row>
-    <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="27">
         <v>5</v>
       </c>
@@ -13016,7 +13016,7 @@
       <c r="N170" s="11"/>
       <c r="O170" s="11"/>
     </row>
-    <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="28">
         <v>5</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="28">
         <v>5</v>
       </c>
@@ -13104,7 +13104,7 @@
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
     </row>
-    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="28">
         <v>5</v>
       </c>
@@ -13147,7 +13147,7 @@
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
     </row>
-    <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="28">
         <v>5</v>
       </c>
@@ -13190,7 +13190,7 @@
       <c r="N174" s="11"/>
       <c r="O174" s="11"/>
     </row>
-    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="28">
         <v>5</v>
       </c>
@@ -13233,7 +13233,7 @@
       <c r="N175" s="11"/>
       <c r="O175" s="11"/>
     </row>
-    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="28">
         <v>5</v>
       </c>
@@ -13276,7 +13276,7 @@
       <c r="N176" s="11"/>
       <c r="O176" s="11"/>
     </row>
-    <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="28">
         <v>5</v>
       </c>
@@ -13319,7 +13319,7 @@
       <c r="N177" s="11"/>
       <c r="O177" s="11"/>
     </row>
-    <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="28">
         <v>5</v>
       </c>
@@ -13362,7 +13362,7 @@
       <c r="N178" s="11"/>
       <c r="O178" s="11"/>
     </row>
-    <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="28">
         <v>5</v>
       </c>
@@ -13405,7 +13405,7 @@
       <c r="N179" s="11"/>
       <c r="O179" s="11"/>
     </row>
-    <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="28">
         <v>5</v>
       </c>
@@ -13448,7 +13448,7 @@
       <c r="N180" s="11"/>
       <c r="O180" s="11"/>
     </row>
-    <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="28">
         <v>5</v>
       </c>
@@ -13491,7 +13491,7 @@
       <c r="N181" s="11"/>
       <c r="O181" s="11"/>
     </row>
-    <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="28">
         <v>5</v>
       </c>
@@ -13534,7 +13534,7 @@
       <c r="N182" s="11"/>
       <c r="O182" s="11"/>
     </row>
-    <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="28">
         <v>5</v>
       </c>
@@ -13577,7 +13577,7 @@
       <c r="N183" s="11"/>
       <c r="O183" s="11"/>
     </row>
-    <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="28">
         <v>5</v>
       </c>
@@ -13620,7 +13620,7 @@
       <c r="N184" s="11"/>
       <c r="O184" s="11"/>
     </row>
-    <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="28">
         <v>5</v>
       </c>
@@ -13663,7 +13663,7 @@
       <c r="N185" s="11"/>
       <c r="O185" s="11"/>
     </row>
-    <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="28">
         <v>5</v>
       </c>
@@ -13706,7 +13706,7 @@
       <c r="N186" s="11"/>
       <c r="O186" s="11"/>
     </row>
-    <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="28">
         <v>5</v>
       </c>
@@ -13749,7 +13749,7 @@
       <c r="N187" s="11"/>
       <c r="O187" s="11"/>
     </row>
-    <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="28">
         <v>5</v>
       </c>
@@ -13792,7 +13792,7 @@
       <c r="N188" s="11"/>
       <c r="O188" s="11"/>
     </row>
-    <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="28">
         <v>5</v>
       </c>
@@ -13835,7 +13835,7 @@
       <c r="N189" s="11"/>
       <c r="O189" s="11"/>
     </row>
-    <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="28">
         <v>5</v>
       </c>
@@ -13878,7 +13878,7 @@
       <c r="N190" s="11"/>
       <c r="O190" s="11"/>
     </row>
-    <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="28">
         <v>5</v>
       </c>
@@ -13921,7 +13921,7 @@
       <c r="N191" s="11"/>
       <c r="O191" s="11"/>
     </row>
-    <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="28">
         <v>5</v>
       </c>
@@ -13964,7 +13964,7 @@
       <c r="N192" s="11"/>
       <c r="O192" s="11"/>
     </row>
-    <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="28">
         <v>5</v>
       </c>
@@ -14007,7 +14007,7 @@
       <c r="N193" s="11"/>
       <c r="O193" s="11"/>
     </row>
-    <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="28">
         <v>5</v>
       </c>
@@ -14050,7 +14050,7 @@
       <c r="N194" s="11"/>
       <c r="O194" s="11"/>
     </row>
-    <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="28">
         <v>5</v>
       </c>
@@ -14093,7 +14093,7 @@
       <c r="N195" s="11"/>
       <c r="O195" s="11"/>
     </row>
-    <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="28">
         <v>5</v>
       </c>
@@ -14136,7 +14136,7 @@
       <c r="N196" s="11"/>
       <c r="O196" s="11"/>
     </row>
-    <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="28">
         <v>5</v>
       </c>
@@ -14179,7 +14179,7 @@
       <c r="N197" s="11"/>
       <c r="O197" s="11"/>
     </row>
-    <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="28">
         <v>5</v>
       </c>
@@ -14222,7 +14222,7 @@
       <c r="N198" s="11"/>
       <c r="O198" s="11"/>
     </row>
-    <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="28">
         <v>5</v>
       </c>
@@ -14265,7 +14265,7 @@
       <c r="N199" s="11"/>
       <c r="O199" s="11"/>
     </row>
-    <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="28">
         <v>5</v>
       </c>
@@ -14308,7 +14308,7 @@
       <c r="N200" s="11"/>
       <c r="O200" s="11"/>
     </row>
-    <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="28">
         <v>5</v>
       </c>
@@ -14351,7 +14351,7 @@
       <c r="N201" s="11"/>
       <c r="O201" s="11"/>
     </row>
-    <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="28">
         <v>5</v>
       </c>
@@ -14394,7 +14394,7 @@
       <c r="N202" s="11"/>
       <c r="O202" s="11"/>
     </row>
-    <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="28">
         <v>5</v>
       </c>
@@ -14437,7 +14437,7 @@
       <c r="N203" s="11"/>
       <c r="O203" s="11"/>
     </row>
-    <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="28">
         <v>5</v>
       </c>
@@ -14480,7 +14480,7 @@
       <c r="N204" s="11"/>
       <c r="O204" s="11"/>
     </row>
-    <row r="205" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="28">
         <v>5</v>
       </c>
@@ -14523,7 +14523,7 @@
       <c r="N205" s="11"/>
       <c r="O205" s="11"/>
     </row>
-    <row r="206" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="28">
         <v>5</v>
       </c>
@@ -14566,7 +14566,7 @@
       <c r="N206" s="11"/>
       <c r="O206" s="11"/>
     </row>
-    <row r="207" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="28">
         <v>5</v>
       </c>
@@ -14609,7 +14609,7 @@
       <c r="N207" s="11"/>
       <c r="O207" s="11"/>
     </row>
-    <row r="208" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="28">
         <v>5</v>
       </c>
@@ -14652,7 +14652,7 @@
       <c r="N208" s="11"/>
       <c r="O208" s="11"/>
     </row>
-    <row r="209" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="28">
         <v>5</v>
       </c>
@@ -14695,7 +14695,7 @@
       <c r="N209" s="11"/>
       <c r="O209" s="11"/>
     </row>
-    <row r="210" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="28">
         <v>5</v>
       </c>
@@ -14738,7 +14738,7 @@
       <c r="N210" s="11"/>
       <c r="O210" s="11"/>
     </row>
-    <row r="211" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="28">
         <v>5</v>
       </c>
@@ -14781,7 +14781,7 @@
       <c r="N211" s="11"/>
       <c r="O211" s="11"/>
     </row>
-    <row r="212" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="28">
         <v>5</v>
       </c>
@@ -14824,7 +14824,7 @@
       <c r="N212" s="11"/>
       <c r="O212" s="11"/>
     </row>
-    <row r="213" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="28">
         <v>5</v>
       </c>
@@ -14867,7 +14867,7 @@
       <c r="N213" s="11"/>
       <c r="O213" s="11"/>
     </row>
-    <row r="214" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="28">
         <v>5</v>
       </c>
@@ -14910,7 +14910,7 @@
       <c r="N214" s="11"/>
       <c r="O214" s="11"/>
     </row>
-    <row r="215" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="28">
         <v>5</v>
       </c>
@@ -14953,7 +14953,7 @@
       <c r="N215" s="11"/>
       <c r="O215" s="11"/>
     </row>
-    <row r="216" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="28">
         <v>5</v>
       </c>
@@ -14996,7 +14996,7 @@
       <c r="N216" s="11"/>
       <c r="O216" s="11"/>
     </row>
-    <row r="217" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="28">
         <v>5</v>
       </c>
@@ -15039,7 +15039,7 @@
       <c r="N217" s="11"/>
       <c r="O217" s="11"/>
     </row>
-    <row r="218" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="28">
         <v>5</v>
       </c>
@@ -15082,7 +15082,7 @@
       <c r="N218" s="11"/>
       <c r="O218" s="11"/>
     </row>
-    <row r="219" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="28">
         <v>5</v>
       </c>
@@ -15125,7 +15125,7 @@
       <c r="N219" s="11"/>
       <c r="O219" s="11"/>
     </row>
-    <row r="220" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="28">
         <v>1</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="28">
         <v>5</v>
       </c>
@@ -15215,7 +15215,7 @@
       <c r="N221" s="11"/>
       <c r="O221" s="11"/>
     </row>
-    <row r="222" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="30">
         <v>8</v>
       </c>
@@ -15258,7 +15258,7 @@
       <c r="N222" s="11"/>
       <c r="O222" s="11"/>
     </row>
-    <row r="223" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="30">
         <v>8</v>
       </c>
@@ -15301,7 +15301,7 @@
       <c r="N223" s="11"/>
       <c r="O223" s="11"/>
     </row>
-    <row r="224" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="30">
         <v>8</v>
       </c>
@@ -15344,7 +15344,7 @@
       <c r="N224" s="11"/>
       <c r="O224" s="11"/>
     </row>
-    <row r="225" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="30">
         <v>8</v>
       </c>
@@ -15387,7 +15387,7 @@
       <c r="N225" s="11"/>
       <c r="O225" s="11"/>
     </row>
-    <row r="226" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="30">
         <v>8</v>
       </c>
@@ -15430,7 +15430,7 @@
       <c r="N226" s="11"/>
       <c r="O226" s="11"/>
     </row>
-    <row r="227" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="30">
         <v>8</v>
       </c>
@@ -15473,7 +15473,7 @@
       <c r="N227" s="11"/>
       <c r="O227" s="11"/>
     </row>
-    <row r="228" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="30">
         <v>8</v>
       </c>
@@ -15516,7 +15516,7 @@
       <c r="N228" s="11"/>
       <c r="O228" s="11"/>
     </row>
-    <row r="229" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="30">
         <v>8</v>
       </c>
@@ -15559,7 +15559,7 @@
       <c r="N229" s="11"/>
       <c r="O229" s="11"/>
     </row>
-    <row r="230" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="30">
         <v>8</v>
       </c>
@@ -15602,7 +15602,7 @@
       <c r="N230" s="11"/>
       <c r="O230" s="11"/>
     </row>
-    <row r="231" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="30">
         <v>8</v>
       </c>
@@ -15645,7 +15645,7 @@
       <c r="N231" s="11"/>
       <c r="O231" s="11"/>
     </row>
-    <row r="232" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="30">
         <v>8</v>
       </c>
@@ -15688,7 +15688,7 @@
       <c r="N232" s="11"/>
       <c r="O232" s="11"/>
     </row>
-    <row r="233" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="30">
         <v>8</v>
       </c>
@@ -15731,7 +15731,7 @@
       <c r="N233" s="11"/>
       <c r="O233" s="11"/>
     </row>
-    <row r="234" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="30">
         <v>8</v>
       </c>
@@ -15774,7 +15774,7 @@
       <c r="N234" s="11"/>
       <c r="O234" s="11"/>
     </row>
-    <row r="235" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="30">
         <v>8</v>
       </c>
@@ -15817,7 +15817,7 @@
       <c r="N235" s="11"/>
       <c r="O235" s="11"/>
     </row>
-    <row r="236" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="30">
         <v>8</v>
       </c>
@@ -15860,7 +15860,7 @@
       <c r="N236" s="11"/>
       <c r="O236" s="11"/>
     </row>
-    <row r="237" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="30">
         <v>8</v>
       </c>
@@ -15903,7 +15903,7 @@
       <c r="N237" s="11"/>
       <c r="O237" s="11"/>
     </row>
-    <row r="238" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="30">
         <v>8</v>
       </c>
@@ -15946,7 +15946,7 @@
       <c r="N238" s="11"/>
       <c r="O238" s="11"/>
     </row>
-    <row r="239" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="30">
         <v>8</v>
       </c>
@@ -15989,7 +15989,7 @@
       <c r="N239" s="11"/>
       <c r="O239" s="11"/>
     </row>
-    <row r="240" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="30">
         <v>8</v>
       </c>
@@ -16032,7 +16032,7 @@
       <c r="N240" s="11"/>
       <c r="O240" s="11"/>
     </row>
-    <row r="241" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="30">
         <v>8</v>
       </c>
@@ -16075,7 +16075,7 @@
       <c r="N241" s="11"/>
       <c r="O241" s="11"/>
     </row>
-    <row r="242" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="30">
         <v>8</v>
       </c>
@@ -16118,7 +16118,7 @@
       <c r="N242" s="11"/>
       <c r="O242" s="11"/>
     </row>
-    <row r="243" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="30">
         <v>8</v>
       </c>
@@ -16161,7 +16161,7 @@
       <c r="N243" s="11"/>
       <c r="O243" s="11"/>
     </row>
-    <row r="244" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="30">
         <v>8</v>
       </c>
@@ -16204,7 +16204,7 @@
       <c r="N244" s="11"/>
       <c r="O244" s="11"/>
     </row>
-    <row r="245" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="30">
         <v>8</v>
       </c>
@@ -16247,7 +16247,7 @@
       <c r="N245" s="11"/>
       <c r="O245" s="11"/>
     </row>
-    <row r="246" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="30">
         <v>8</v>
       </c>
@@ -16290,7 +16290,7 @@
       <c r="N246" s="11"/>
       <c r="O246" s="11"/>
     </row>
-    <row r="247" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="30">
         <v>8</v>
       </c>
@@ -16333,7 +16333,7 @@
       <c r="N247" s="11"/>
       <c r="O247" s="11"/>
     </row>
-    <row r="248" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="30">
         <v>8</v>
       </c>
@@ -16376,7 +16376,7 @@
       <c r="N248" s="11"/>
       <c r="O248" s="11"/>
     </row>
-    <row r="249" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="30">
         <v>8</v>
       </c>
@@ -16419,7 +16419,7 @@
       <c r="N249" s="11"/>
       <c r="O249" s="11"/>
     </row>
-    <row r="250" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="30">
         <v>8</v>
       </c>
@@ -16462,7 +16462,7 @@
       <c r="N250" s="11"/>
       <c r="O250" s="11"/>
     </row>
-    <row r="251" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="30">
         <v>8</v>
       </c>
@@ -16505,7 +16505,7 @@
       <c r="N251" s="11"/>
       <c r="O251" s="11"/>
     </row>
-    <row r="252" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="30">
         <v>8</v>
       </c>
@@ -16548,7 +16548,7 @@
       <c r="N252" s="11"/>
       <c r="O252" s="11"/>
     </row>
-    <row r="253" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="30">
         <v>8</v>
       </c>
@@ -16591,7 +16591,7 @@
       <c r="N253" s="11"/>
       <c r="O253" s="11"/>
     </row>
-    <row r="254" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="29">
         <v>8</v>
       </c>
@@ -16634,7 +16634,7 @@
       <c r="N254" s="11"/>
       <c r="O254" s="11"/>
     </row>
-    <row r="255" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="30">
         <v>8</v>
       </c>
@@ -16677,7 +16677,7 @@
       <c r="N255" s="11"/>
       <c r="O255" s="11"/>
     </row>
-    <row r="256" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="30">
         <v>8</v>
       </c>
@@ -16720,7 +16720,7 @@
       <c r="N256" s="11"/>
       <c r="O256" s="11"/>
     </row>
-    <row r="257" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="30">
         <v>8</v>
       </c>
@@ -16763,7 +16763,7 @@
       <c r="N257" s="11"/>
       <c r="O257" s="11"/>
     </row>
-    <row r="258" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="30">
         <v>8</v>
       </c>
@@ -16806,7 +16806,7 @@
       <c r="N258" s="11"/>
       <c r="O258" s="11"/>
     </row>
-    <row r="259" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="30">
         <v>8</v>
       </c>
@@ -16849,7 +16849,7 @@
       <c r="N259" s="11"/>
       <c r="O259" s="11"/>
     </row>
-    <row r="260" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="30">
         <v>8</v>
       </c>
@@ -16892,7 +16892,7 @@
       <c r="N260" s="11"/>
       <c r="O260" s="11"/>
     </row>
-    <row r="261" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="30">
         <v>8</v>
       </c>
@@ -16935,7 +16935,7 @@
       <c r="N261" s="11"/>
       <c r="O261" s="11"/>
     </row>
-    <row r="262" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="30">
         <v>8</v>
       </c>
@@ -16978,7 +16978,7 @@
       <c r="N262" s="11"/>
       <c r="O262" s="11"/>
     </row>
-    <row r="263" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="30">
         <v>8</v>
       </c>
@@ -17021,7 +17021,7 @@
       <c r="N263" s="11"/>
       <c r="O263" s="11"/>
     </row>
-    <row r="264" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="29">
         <v>8</v>
       </c>
@@ -17064,7 +17064,7 @@
       <c r="N264" s="11"/>
       <c r="O264" s="11"/>
     </row>
-    <row r="265" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="30">
         <v>8</v>
       </c>
@@ -17107,7 +17107,7 @@
       <c r="N265" s="11"/>
       <c r="O265" s="11"/>
     </row>
-    <row r="266" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="30">
         <v>8</v>
       </c>
@@ -17150,7 +17150,7 @@
       <c r="N266" s="11"/>
       <c r="O266" s="11"/>
     </row>
-    <row r="267" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="30">
         <v>8</v>
       </c>
@@ -17193,7 +17193,7 @@
       <c r="N267" s="11"/>
       <c r="O267" s="11"/>
     </row>
-    <row r="268" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="30">
         <v>8</v>
       </c>
@@ -17236,7 +17236,7 @@
       <c r="N268" s="11"/>
       <c r="O268" s="11"/>
     </row>
-    <row r="269" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="30">
         <v>8</v>
       </c>
@@ -17279,7 +17279,7 @@
       <c r="N269" s="11"/>
       <c r="O269" s="11"/>
     </row>
-    <row r="270" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="30">
         <v>8</v>
       </c>
@@ -17322,7 +17322,7 @@
       <c r="N270" s="11"/>
       <c r="O270" s="11"/>
     </row>
-    <row r="271" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="30">
         <v>8</v>
       </c>
@@ -17365,7 +17365,7 @@
       <c r="N271" s="11"/>
       <c r="O271" s="11"/>
     </row>
-    <row r="272" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="30">
         <v>8</v>
       </c>
@@ -17408,7 +17408,7 @@
       <c r="N272" s="11"/>
       <c r="O272" s="11"/>
     </row>
-    <row r="273" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="30">
         <v>8</v>
       </c>
@@ -17451,7 +17451,7 @@
       <c r="N273" s="11"/>
       <c r="O273" s="11"/>
     </row>
-    <row r="274" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="30">
         <v>8</v>
       </c>
@@ -17494,7 +17494,7 @@
       <c r="N274" s="11"/>
       <c r="O274" s="11"/>
     </row>
-    <row r="275" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="30">
         <v>8</v>
       </c>
@@ -17537,7 +17537,7 @@
       <c r="N275" s="11"/>
       <c r="O275" s="11"/>
     </row>
-    <row r="276" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="30">
         <v>8</v>
       </c>
@@ -17580,7 +17580,7 @@
       <c r="N276" s="11"/>
       <c r="O276" s="11"/>
     </row>
-    <row r="277" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="30">
         <v>8</v>
       </c>
@@ -17623,7 +17623,7 @@
       <c r="N277" s="11"/>
       <c r="O277" s="11"/>
     </row>
-    <row r="278" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="30">
         <v>8</v>
       </c>
@@ -17666,7 +17666,7 @@
       <c r="N278" s="11"/>
       <c r="O278" s="11"/>
     </row>
-    <row r="279" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="30">
         <v>8</v>
       </c>
@@ -17709,7 +17709,7 @@
       <c r="N279" s="11"/>
       <c r="O279" s="11"/>
     </row>
-    <row r="280" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="30">
         <v>8</v>
       </c>
@@ -17752,7 +17752,7 @@
       <c r="N280" s="11"/>
       <c r="O280" s="11"/>
     </row>
-    <row r="281" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="30">
         <v>8</v>
       </c>
@@ -17795,7 +17795,7 @@
       <c r="N281" s="11"/>
       <c r="O281" s="11"/>
     </row>
-    <row r="282" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="30">
         <v>8</v>
       </c>
@@ -17838,7 +17838,7 @@
       <c r="N282" s="11"/>
       <c r="O282" s="11"/>
     </row>
-    <row r="283" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="30">
         <v>8</v>
       </c>
@@ -17881,7 +17881,7 @@
       <c r="N283" s="11"/>
       <c r="O283" s="11"/>
     </row>
-    <row r="284" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="30">
         <v>8</v>
       </c>
@@ -17924,7 +17924,7 @@
       <c r="N284" s="11"/>
       <c r="O284" s="11"/>
     </row>
-    <row r="285" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="30">
         <v>8</v>
       </c>
@@ -17967,7 +17967,7 @@
       <c r="N285" s="11"/>
       <c r="O285" s="11"/>
     </row>
-    <row r="286" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="30">
         <v>8</v>
       </c>
@@ -18010,7 +18010,7 @@
       <c r="N286" s="11"/>
       <c r="O286" s="11"/>
     </row>
-    <row r="287" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="30">
         <v>8</v>
       </c>
@@ -18053,7 +18053,7 @@
       <c r="N287" s="11"/>
       <c r="O287" s="11"/>
     </row>
-    <row r="288" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="30">
         <v>8</v>
       </c>
@@ -18096,7 +18096,7 @@
       <c r="N288" s="11"/>
       <c r="O288" s="11"/>
     </row>
-    <row r="289" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="30">
         <v>8</v>
       </c>
@@ -18139,7 +18139,7 @@
       <c r="N289" s="11"/>
       <c r="O289" s="11"/>
     </row>
-    <row r="290" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="30">
         <v>8</v>
       </c>
@@ -18182,7 +18182,7 @@
       <c r="N290" s="11"/>
       <c r="O290" s="11"/>
     </row>
-    <row r="291" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="30">
         <v>8</v>
       </c>
@@ -18225,7 +18225,7 @@
       <c r="N291" s="11"/>
       <c r="O291" s="11"/>
     </row>
-    <row r="292" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="30">
         <v>8</v>
       </c>
@@ -18268,7 +18268,7 @@
       <c r="N292" s="11"/>
       <c r="O292" s="11"/>
     </row>
-    <row r="293" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="30">
         <v>8</v>
       </c>
@@ -18311,7 +18311,7 @@
       <c r="N293" s="11"/>
       <c r="O293" s="11"/>
     </row>
-    <row r="294" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="30">
         <v>8</v>
       </c>
@@ -18354,7 +18354,7 @@
       <c r="N294" s="11"/>
       <c r="O294" s="11"/>
     </row>
-    <row r="295" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="30">
         <v>8</v>
       </c>
@@ -18397,7 +18397,7 @@
       <c r="N295" s="11"/>
       <c r="O295" s="11"/>
     </row>
-    <row r="296" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="28">
         <v>8</v>
       </c>
@@ -18440,7 +18440,7 @@
       <c r="N296" s="11"/>
       <c r="O296" s="11"/>
     </row>
-    <row r="297" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="30">
         <v>8</v>
       </c>
@@ -18483,7 +18483,7 @@
       <c r="N297" s="11"/>
       <c r="O297" s="11"/>
     </row>
-    <row r="298" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="30">
         <v>8</v>
       </c>
@@ -18526,7 +18526,7 @@
       <c r="N298" s="11"/>
       <c r="O298" s="11"/>
     </row>
-    <row r="299" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="30">
         <v>8</v>
       </c>
@@ -18569,7 +18569,7 @@
       <c r="N299" s="11"/>
       <c r="O299" s="11"/>
     </row>
-    <row r="300" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="30">
         <v>8</v>
       </c>
@@ -18612,7 +18612,7 @@
       <c r="N300" s="11"/>
       <c r="O300" s="11"/>
     </row>
-    <row r="301" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="30">
         <v>8</v>
       </c>
@@ -18655,7 +18655,7 @@
       <c r="N301" s="11"/>
       <c r="O301" s="11"/>
     </row>
-    <row r="302" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="30">
         <v>8</v>
       </c>
@@ -18698,7 +18698,7 @@
       <c r="N302" s="11"/>
       <c r="O302" s="11"/>
     </row>
-    <row r="303" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="30">
         <v>8</v>
       </c>
@@ -18741,7 +18741,7 @@
       <c r="N303" s="11"/>
       <c r="O303" s="11"/>
     </row>
-    <row r="304" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="30">
         <v>8</v>
       </c>
@@ -18784,7 +18784,7 @@
       <c r="N304" s="11"/>
       <c r="O304" s="11"/>
     </row>
-    <row r="305" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="30">
         <v>8</v>
       </c>
@@ -18827,7 +18827,7 @@
       <c r="N305" s="11"/>
       <c r="O305" s="11"/>
     </row>
-    <row r="306" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="30">
         <v>8</v>
       </c>
@@ -18870,7 +18870,7 @@
       <c r="N306" s="11"/>
       <c r="O306" s="11"/>
     </row>
-    <row r="307" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="30">
         <v>8</v>
       </c>
@@ -18913,7 +18913,7 @@
       <c r="N307" s="11"/>
       <c r="O307" s="11"/>
     </row>
-    <row r="308" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="30">
         <v>8</v>
       </c>
@@ -18956,7 +18956,7 @@
       <c r="N308" s="11"/>
       <c r="O308" s="11"/>
     </row>
-    <row r="309" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="30">
         <v>8</v>
       </c>
@@ -18999,7 +18999,7 @@
       <c r="N309" s="11"/>
       <c r="O309" s="11"/>
     </row>
-    <row r="310" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="30">
         <v>8</v>
       </c>
@@ -19042,7 +19042,7 @@
       <c r="N310" s="11"/>
       <c r="O310" s="11"/>
     </row>
-    <row r="311" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="30">
         <v>8</v>
       </c>
@@ -19085,7 +19085,7 @@
       <c r="N311" s="11"/>
       <c r="O311" s="11"/>
     </row>
-    <row r="312" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="30">
         <v>8</v>
       </c>
@@ -19128,7 +19128,7 @@
       <c r="N312" s="11"/>
       <c r="O312" s="11"/>
     </row>
-    <row r="313" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="30">
         <v>8</v>
       </c>
@@ -19171,7 +19171,7 @@
       <c r="N313" s="11"/>
       <c r="O313" s="11"/>
     </row>
-    <row r="314" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="30">
         <v>8</v>
       </c>
@@ -19214,7 +19214,7 @@
       <c r="N314" s="11"/>
       <c r="O314" s="11"/>
     </row>
-    <row r="315" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="30">
         <v>8</v>
       </c>
@@ -19257,7 +19257,7 @@
       <c r="N315" s="11"/>
       <c r="O315" s="11"/>
     </row>
-    <row r="316" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="30">
         <v>8</v>
       </c>
@@ -19300,7 +19300,7 @@
       <c r="N316" s="11"/>
       <c r="O316" s="11"/>
     </row>
-    <row r="317" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="30">
         <v>8</v>
       </c>
@@ -19343,7 +19343,7 @@
       <c r="N317" s="11"/>
       <c r="O317" s="11"/>
     </row>
-    <row r="318" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="28">
         <v>8</v>
       </c>
@@ -19386,7 +19386,7 @@
       <c r="N318" s="11"/>
       <c r="O318" s="11"/>
     </row>
-    <row r="319" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="28">
         <v>8</v>
       </c>
@@ -19429,7 +19429,7 @@
       <c r="N319" s="11"/>
       <c r="O319" s="11"/>
     </row>
-    <row r="320" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="28">
         <v>8</v>
       </c>
@@ -19472,7 +19472,7 @@
       <c r="N320" s="11"/>
       <c r="O320" s="11"/>
     </row>
-    <row r="321" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="28">
         <v>8</v>
       </c>
@@ -19515,7 +19515,7 @@
       <c r="N321" s="11"/>
       <c r="O321" s="11"/>
     </row>
-    <row r="322" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="28">
         <v>8</v>
       </c>
@@ -19558,7 +19558,7 @@
       <c r="N322" s="11"/>
       <c r="O322" s="11"/>
     </row>
-    <row r="323" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="28">
         <v>8</v>
       </c>
@@ -19601,7 +19601,7 @@
       <c r="N323" s="11"/>
       <c r="O323" s="11"/>
     </row>
-    <row r="324" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="28">
         <v>8</v>
       </c>
@@ -19644,7 +19644,7 @@
       <c r="N324" s="11"/>
       <c r="O324" s="11"/>
     </row>
-    <row r="325" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="28">
         <v>8</v>
       </c>
@@ -19687,7 +19687,7 @@
       <c r="N325" s="11"/>
       <c r="O325" s="11"/>
     </row>
-    <row r="326" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="28">
         <v>8</v>
       </c>
@@ -19730,7 +19730,7 @@
       <c r="N326" s="11"/>
       <c r="O326" s="11"/>
     </row>
-    <row r="327" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="28">
         <v>8</v>
       </c>
@@ -19773,7 +19773,7 @@
       <c r="N327" s="11"/>
       <c r="O327" s="11"/>
     </row>
-    <row r="328" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="28">
         <v>8</v>
       </c>
@@ -19816,7 +19816,7 @@
       <c r="N328" s="11"/>
       <c r="O328" s="11"/>
     </row>
-    <row r="329" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="28">
         <v>8</v>
       </c>
@@ -19859,7 +19859,7 @@
       <c r="N329" s="11"/>
       <c r="O329" s="11"/>
     </row>
-    <row r="330" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="28">
         <v>8</v>
       </c>
@@ -19902,7 +19902,7 @@
       <c r="N330" s="11"/>
       <c r="O330" s="11"/>
     </row>
-    <row r="331" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="28">
         <v>8</v>
       </c>
@@ -19945,7 +19945,7 @@
       <c r="N331" s="11"/>
       <c r="O331" s="11"/>
     </row>
-    <row r="332" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="28">
         <v>8</v>
       </c>
@@ -19988,7 +19988,7 @@
       <c r="N332" s="11"/>
       <c r="O332" s="11"/>
     </row>
-    <row r="333" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="28">
         <v>8</v>
       </c>
@@ -20031,7 +20031,7 @@
       <c r="N333" s="11"/>
       <c r="O333" s="11"/>
     </row>
-    <row r="334" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="28">
         <v>8</v>
       </c>
@@ -20074,7 +20074,7 @@
       <c r="N334" s="11"/>
       <c r="O334" s="11"/>
     </row>
-    <row r="335" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="28">
         <v>8</v>
       </c>
@@ -20117,7 +20117,7 @@
       <c r="N335" s="11"/>
       <c r="O335" s="11"/>
     </row>
-    <row r="336" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="28">
         <v>8</v>
       </c>
@@ -20160,7 +20160,7 @@
       <c r="N336" s="11"/>
       <c r="O336" s="11"/>
     </row>
-    <row r="337" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="38">
         <v>2</v>
       </c>
@@ -20203,7 +20203,7 @@
       <c r="N337" s="11"/>
       <c r="O337" s="11"/>
     </row>
-    <row r="338" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="38">
         <v>2</v>
       </c>
@@ -20246,7 +20246,7 @@
       <c r="N338" s="11"/>
       <c r="O338" s="11"/>
     </row>
-    <row r="339" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="38">
         <v>2</v>
       </c>
@@ -20289,7 +20289,7 @@
       <c r="N339" s="11"/>
       <c r="O339" s="11"/>
     </row>
-    <row r="340" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="38">
         <v>2</v>
       </c>
@@ -20332,7 +20332,7 @@
       <c r="N340" s="11"/>
       <c r="O340" s="11"/>
     </row>
-    <row r="341" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="38">
         <v>2</v>
       </c>
@@ -20375,7 +20375,7 @@
       <c r="N341" s="11"/>
       <c r="O341" s="11"/>
     </row>
-    <row r="342" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="38">
         <v>2</v>
       </c>
@@ -20418,7 +20418,7 @@
       <c r="N342" s="11"/>
       <c r="O342" s="11"/>
     </row>
-    <row r="343" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="38">
         <v>2</v>
       </c>
@@ -20461,7 +20461,7 @@
       <c r="N343" s="11"/>
       <c r="O343" s="11"/>
     </row>
-    <row r="344" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="21">
         <v>2</v>
       </c>
@@ -20504,7 +20504,7 @@
       <c r="N344" s="11"/>
       <c r="O344" s="11"/>
     </row>
-    <row r="345" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="38">
         <v>2</v>
       </c>
@@ -20547,7 +20547,7 @@
       <c r="N345" s="11"/>
       <c r="O345" s="11"/>
     </row>
-    <row r="346" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="38">
         <v>2</v>
       </c>
@@ -20590,7 +20590,7 @@
       <c r="N346" s="11"/>
       <c r="O346" s="11"/>
     </row>
-    <row r="347" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="38">
         <v>2</v>
       </c>
@@ -20633,7 +20633,7 @@
       <c r="N347" s="11"/>
       <c r="O347" s="11"/>
     </row>
-    <row r="348" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="38">
         <v>2</v>
       </c>
@@ -20676,7 +20676,7 @@
       <c r="N348" s="11"/>
       <c r="O348" s="11"/>
     </row>
-    <row r="349" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="38">
         <v>2</v>
       </c>
@@ -20719,7 +20719,7 @@
       <c r="N349" s="11"/>
       <c r="O349" s="11"/>
     </row>
-    <row r="350" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="38">
         <v>2</v>
       </c>
@@ -20762,7 +20762,7 @@
       <c r="N350" s="11"/>
       <c r="O350" s="11"/>
     </row>
-    <row r="351" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="38">
         <v>2</v>
       </c>
@@ -20805,7 +20805,7 @@
       <c r="N351" s="11"/>
       <c r="O351" s="11"/>
     </row>
-    <row r="352" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="38">
         <v>2</v>
       </c>
@@ -20848,7 +20848,7 @@
       <c r="N352" s="11"/>
       <c r="O352" s="11"/>
     </row>
-    <row r="353" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="38">
         <v>2</v>
       </c>
@@ -20891,7 +20891,7 @@
       <c r="N353" s="11"/>
       <c r="O353" s="11"/>
     </row>
-    <row r="354" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="38">
         <v>2</v>
       </c>
@@ -20934,7 +20934,7 @@
       <c r="N354" s="11"/>
       <c r="O354" s="11"/>
     </row>
-    <row r="355" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="38">
         <v>2</v>
       </c>
@@ -20977,7 +20977,7 @@
       <c r="N355" s="11"/>
       <c r="O355" s="11"/>
     </row>
-    <row r="356" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="38">
         <v>2</v>
       </c>
@@ -21020,7 +21020,7 @@
       <c r="N356" s="11"/>
       <c r="O356" s="11"/>
     </row>
-    <row r="357" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="38">
         <v>2</v>
       </c>
@@ -21063,7 +21063,7 @@
       <c r="N357" s="11"/>
       <c r="O357" s="11"/>
     </row>
-    <row r="358" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="38">
         <v>2</v>
       </c>
@@ -21106,7 +21106,7 @@
       <c r="N358" s="11"/>
       <c r="O358" s="11"/>
     </row>
-    <row r="359" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="38">
         <v>2</v>
       </c>
@@ -21149,7 +21149,7 @@
       <c r="N359" s="11"/>
       <c r="O359" s="11"/>
     </row>
-    <row r="360" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="38">
         <v>2</v>
       </c>
@@ -21192,7 +21192,7 @@
       <c r="N360" s="11"/>
       <c r="O360" s="11"/>
     </row>
-    <row r="361" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="38">
         <v>2</v>
       </c>
@@ -21235,7 +21235,7 @@
       <c r="N361" s="11"/>
       <c r="O361" s="11"/>
     </row>
-    <row r="362" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="38">
         <v>2</v>
       </c>
@@ -21278,7 +21278,7 @@
       <c r="N362" s="11"/>
       <c r="O362" s="11"/>
     </row>
-    <row r="363" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="38">
         <v>2</v>
       </c>
@@ -21321,7 +21321,7 @@
       <c r="N363" s="11"/>
       <c r="O363" s="11"/>
     </row>
-    <row r="364" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="38">
         <v>2</v>
       </c>
@@ -21364,7 +21364,7 @@
       <c r="N364" s="11"/>
       <c r="O364" s="11"/>
     </row>
-    <row r="365" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="38">
         <v>2</v>
       </c>
@@ -21407,7 +21407,7 @@
       <c r="N365" s="11"/>
       <c r="O365" s="11"/>
     </row>
-    <row r="366" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="38">
         <v>2</v>
       </c>
@@ -21450,7 +21450,7 @@
       <c r="N366" s="11"/>
       <c r="O366" s="11"/>
     </row>
-    <row r="367" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="38">
         <v>2</v>
       </c>
@@ -21493,7 +21493,7 @@
       <c r="N367" s="11"/>
       <c r="O367" s="11"/>
     </row>
-    <row r="368" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="38">
         <v>2</v>
       </c>
@@ -21536,7 +21536,7 @@
       <c r="N368" s="11"/>
       <c r="O368" s="11"/>
     </row>
-    <row r="369" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="38">
         <v>2</v>
       </c>
@@ -21579,7 +21579,7 @@
       <c r="N369" s="11"/>
       <c r="O369" s="11"/>
     </row>
-    <row r="370" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="38">
         <v>2</v>
       </c>
@@ -21622,7 +21622,7 @@
       <c r="N370" s="11"/>
       <c r="O370" s="11"/>
     </row>
-    <row r="371" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="38">
         <v>2</v>
       </c>
@@ -21665,7 +21665,7 @@
       <c r="N371" s="11"/>
       <c r="O371" s="11"/>
     </row>
-    <row r="372" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="38">
         <v>2</v>
       </c>
@@ -21708,7 +21708,7 @@
       <c r="N372" s="11"/>
       <c r="O372" s="11"/>
     </row>
-    <row r="373" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="38">
         <v>2</v>
       </c>
@@ -21751,7 +21751,7 @@
       <c r="N373" s="11"/>
       <c r="O373" s="11"/>
     </row>
-    <row r="374" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="21">
         <v>2</v>
       </c>
@@ -21794,7 +21794,7 @@
       <c r="N374" s="11"/>
       <c r="O374" s="11"/>
     </row>
-    <row r="375" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="21">
         <v>2</v>
       </c>
@@ -21837,7 +21837,7 @@
       <c r="N375" s="11"/>
       <c r="O375" s="11"/>
     </row>
-    <row r="376" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="21">
         <v>2</v>
       </c>
@@ -21880,7 +21880,7 @@
       <c r="N376" s="11"/>
       <c r="O376" s="11"/>
     </row>
-    <row r="377" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="21">
         <v>2</v>
       </c>
@@ -21923,7 +21923,7 @@
       <c r="N377" s="11"/>
       <c r="O377" s="11"/>
     </row>
-    <row r="378" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="21">
         <v>2</v>
       </c>
@@ -21966,7 +21966,7 @@
       <c r="N378" s="11"/>
       <c r="O378" s="11"/>
     </row>
-    <row r="379" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="21">
         <v>2</v>
       </c>
@@ -22009,7 +22009,7 @@
       <c r="N379" s="11"/>
       <c r="O379" s="11"/>
     </row>
-    <row r="380" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="21">
         <v>2</v>
       </c>
@@ -22052,7 +22052,7 @@
       <c r="N380" s="11"/>
       <c r="O380" s="11"/>
     </row>
-    <row r="381" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="21">
         <v>2</v>
       </c>
@@ -22095,7 +22095,7 @@
       <c r="N381" s="11"/>
       <c r="O381" s="11"/>
     </row>
-    <row r="382" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="21">
         <v>2</v>
       </c>
@@ -22138,7 +22138,7 @@
       <c r="N382" s="11"/>
       <c r="O382" s="11"/>
     </row>
-    <row r="383" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="21">
         <v>2</v>
       </c>
@@ -22181,7 +22181,7 @@
       <c r="N383" s="11"/>
       <c r="O383" s="11"/>
     </row>
-    <row r="384" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="21">
         <v>2</v>
       </c>
@@ -22224,7 +22224,7 @@
       <c r="N384" s="11"/>
       <c r="O384" s="11"/>
     </row>
-    <row r="385" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="21">
         <v>2</v>
       </c>
@@ -22267,7 +22267,7 @@
       <c r="N385" s="11"/>
       <c r="O385" s="11"/>
     </row>
-    <row r="386" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="21">
         <v>2</v>
       </c>
@@ -22310,7 +22310,7 @@
       <c r="N386" s="11"/>
       <c r="O386" s="11"/>
     </row>
-    <row r="387" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="21">
         <v>2</v>
       </c>
@@ -22353,7 +22353,7 @@
       <c r="N387" s="11"/>
       <c r="O387" s="11"/>
     </row>
-    <row r="388" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="21">
         <v>2</v>
       </c>
@@ -22396,7 +22396,7 @@
       <c r="N388" s="11"/>
       <c r="O388" s="11"/>
     </row>
-    <row r="389" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="21">
         <v>2</v>
       </c>
@@ -22439,7 +22439,7 @@
       <c r="N389" s="11"/>
       <c r="O389" s="11"/>
     </row>
-    <row r="390" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="21">
         <v>2</v>
       </c>
@@ -22482,7 +22482,7 @@
       <c r="N390" s="11"/>
       <c r="O390" s="11"/>
     </row>
-    <row r="391" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="21">
         <v>2</v>
       </c>
@@ -22525,7 +22525,7 @@
       <c r="N391" s="11"/>
       <c r="O391" s="11"/>
     </row>
-    <row r="392" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="21">
         <v>2</v>
       </c>
@@ -22568,7 +22568,7 @@
       <c r="N392" s="11"/>
       <c r="O392" s="11"/>
     </row>
-    <row r="393" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="21">
         <v>2</v>
       </c>
@@ -22611,7 +22611,7 @@
       <c r="N393" s="11"/>
       <c r="O393" s="11"/>
     </row>
-    <row r="394" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="21">
         <v>2</v>
       </c>
@@ -22654,7 +22654,7 @@
       <c r="N394" s="11"/>
       <c r="O394" s="11"/>
     </row>
-    <row r="395" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="21">
         <v>2</v>
       </c>
@@ -22697,7 +22697,7 @@
       <c r="N395" s="11"/>
       <c r="O395" s="11"/>
     </row>
-    <row r="396" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="21">
         <v>2</v>
       </c>
@@ -22740,7 +22740,7 @@
       <c r="N396" s="11"/>
       <c r="O396" s="11"/>
     </row>
-    <row r="397" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="21">
         <v>2</v>
       </c>
@@ -22783,7 +22783,7 @@
       <c r="N397" s="11"/>
       <c r="O397" s="11"/>
     </row>
-    <row r="398" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="21">
         <v>2</v>
       </c>
@@ -22826,7 +22826,7 @@
       <c r="N398" s="11"/>
       <c r="O398" s="11"/>
     </row>
-    <row r="399" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="21">
         <v>2</v>
       </c>
@@ -22869,7 +22869,7 @@
       <c r="N399" s="11"/>
       <c r="O399" s="11"/>
     </row>
-    <row r="400" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="21">
         <v>2</v>
       </c>
@@ -22912,7 +22912,7 @@
       <c r="N400" s="11"/>
       <c r="O400" s="11"/>
     </row>
-    <row r="401" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="21">
         <v>2</v>
       </c>
@@ -22955,7 +22955,7 @@
       <c r="N401" s="11"/>
       <c r="O401" s="11"/>
     </row>
-    <row r="402" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="21">
         <v>2</v>
       </c>
@@ -22998,7 +22998,7 @@
       <c r="N402" s="11"/>
       <c r="O402" s="11"/>
     </row>
-    <row r="403" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="21">
         <v>2</v>
       </c>
@@ -23041,7 +23041,7 @@
       <c r="N403" s="11"/>
       <c r="O403" s="11"/>
     </row>
-    <row r="404" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="21">
         <v>2</v>
       </c>
@@ -23084,7 +23084,7 @@
       <c r="N404" s="11"/>
       <c r="O404" s="11"/>
     </row>
-    <row r="405" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="21">
         <v>2</v>
       </c>
@@ -23127,7 +23127,7 @@
       <c r="N405" s="11"/>
       <c r="O405" s="11"/>
     </row>
-    <row r="406" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="21">
         <v>2</v>
       </c>
@@ -23170,7 +23170,7 @@
       <c r="N406" s="11"/>
       <c r="O406" s="11"/>
     </row>
-    <row r="407" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="21">
         <v>2</v>
       </c>
@@ -23213,7 +23213,7 @@
       <c r="N407" s="11"/>
       <c r="O407" s="11"/>
     </row>
-    <row r="408" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="21">
         <v>2</v>
       </c>
@@ -23256,7 +23256,7 @@
       <c r="N408" s="11"/>
       <c r="O408" s="11"/>
     </row>
-    <row r="409" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="21">
         <v>2</v>
       </c>
@@ -23299,7 +23299,7 @@
       <c r="N409" s="11"/>
       <c r="O409" s="11"/>
     </row>
-    <row r="410" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="21">
         <v>2</v>
       </c>
@@ -23342,7 +23342,7 @@
       <c r="N410" s="11"/>
       <c r="O410" s="11"/>
     </row>
-    <row r="411" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="21">
         <v>2</v>
       </c>
@@ -23385,7 +23385,7 @@
       <c r="N411" s="11"/>
       <c r="O411" s="11"/>
     </row>
-    <row r="412" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="21">
         <v>2</v>
       </c>
@@ -23428,7 +23428,7 @@
       <c r="N412" s="11"/>
       <c r="O412" s="11"/>
     </row>
-    <row r="413" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="21">
         <v>2</v>
       </c>
@@ -23471,7 +23471,7 @@
       <c r="N413" s="11"/>
       <c r="O413" s="11"/>
     </row>
-    <row r="414" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="21">
         <v>2</v>
       </c>
@@ -23514,7 +23514,7 @@
       <c r="N414" s="11"/>
       <c r="O414" s="11"/>
     </row>
-    <row r="415" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="21">
         <v>2</v>
       </c>
@@ -23557,7 +23557,7 @@
       <c r="N415" s="11"/>
       <c r="O415" s="11"/>
     </row>
-    <row r="416" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="21">
         <v>2</v>
       </c>
@@ -23600,7 +23600,7 @@
       <c r="N416" s="11"/>
       <c r="O416" s="11"/>
     </row>
-    <row r="417" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="21">
         <v>4</v>
       </c>
@@ -23643,7 +23643,7 @@
       <c r="N417" s="11"/>
       <c r="O417" s="11"/>
     </row>
-    <row r="418" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="21">
         <v>4</v>
       </c>
@@ -23686,7 +23686,7 @@
       <c r="N418" s="11"/>
       <c r="O418" s="11"/>
     </row>
-    <row r="419" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="21">
         <v>4</v>
       </c>
@@ -23729,7 +23729,7 @@
       <c r="N419" s="11"/>
       <c r="O419" s="11"/>
     </row>
-    <row r="420" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="21">
         <v>4</v>
       </c>
@@ -23772,7 +23772,7 @@
       <c r="N420" s="11"/>
       <c r="O420" s="11"/>
     </row>
-    <row r="421" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="21">
         <v>4</v>
       </c>
@@ -23815,7 +23815,7 @@
       <c r="N421" s="11"/>
       <c r="O421" s="11"/>
     </row>
-    <row r="422" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="21">
         <v>4</v>
       </c>
@@ -23858,7 +23858,7 @@
       <c r="N422" s="11"/>
       <c r="O422" s="11"/>
     </row>
-    <row r="423" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="21">
         <v>4</v>
       </c>
@@ -23901,7 +23901,7 @@
       <c r="N423" s="11"/>
       <c r="O423" s="11"/>
     </row>
-    <row r="424" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="21">
         <v>4</v>
       </c>
@@ -23944,7 +23944,7 @@
       <c r="N424" s="11"/>
       <c r="O424" s="11"/>
     </row>
-    <row r="425" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="21">
         <v>4</v>
       </c>
@@ -23987,7 +23987,7 @@
       <c r="N425" s="11"/>
       <c r="O425" s="11"/>
     </row>
-    <row r="426" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="21">
         <v>4</v>
       </c>
@@ -24030,7 +24030,7 @@
       <c r="N426" s="11"/>
       <c r="O426" s="11"/>
     </row>
-    <row r="427" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="21">
         <v>4</v>
       </c>
@@ -24073,7 +24073,7 @@
       <c r="N427" s="11"/>
       <c r="O427" s="11"/>
     </row>
-    <row r="428" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="21">
         <v>4</v>
       </c>
@@ -24116,7 +24116,7 @@
       <c r="N428" s="11"/>
       <c r="O428" s="11"/>
     </row>
-    <row r="429" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="21">
         <v>4</v>
       </c>
@@ -24159,7 +24159,7 @@
       <c r="N429" s="11"/>
       <c r="O429" s="11"/>
     </row>
-    <row r="430" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="21">
         <v>4</v>
       </c>
@@ -24202,7 +24202,7 @@
       <c r="N430" s="11"/>
       <c r="O430" s="11"/>
     </row>
-    <row r="431" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="21">
         <v>4</v>
       </c>
@@ -24245,7 +24245,7 @@
       <c r="N431" s="11"/>
       <c r="O431" s="11"/>
     </row>
-    <row r="432" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="21">
         <v>2</v>
       </c>
@@ -24288,7 +24288,7 @@
       <c r="N432" s="11"/>
       <c r="O432" s="11"/>
     </row>
-    <row r="433" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="21">
         <v>4</v>
       </c>
@@ -24331,7 +24331,7 @@
       <c r="N433" s="11"/>
       <c r="O433" s="11"/>
     </row>
-    <row r="434" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="21">
         <v>4</v>
       </c>
@@ -24374,7 +24374,7 @@
       <c r="N434" s="11"/>
       <c r="O434" s="11"/>
     </row>
-    <row r="435" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="21">
         <v>4</v>
       </c>
@@ -24417,7 +24417,7 @@
       <c r="N435" s="11"/>
       <c r="O435" s="11"/>
     </row>
-    <row r="436" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="21">
         <v>4</v>
       </c>
@@ -24460,7 +24460,7 @@
       <c r="N436" s="11"/>
       <c r="O436" s="11"/>
     </row>
-    <row r="437" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="21">
         <v>4</v>
       </c>
@@ -24503,7 +24503,7 @@
       <c r="N437" s="11"/>
       <c r="O437" s="11"/>
     </row>
-    <row r="438" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="21">
         <v>4</v>
       </c>
@@ -24546,7 +24546,7 @@
       <c r="N438" s="11"/>
       <c r="O438" s="11"/>
     </row>
-    <row r="439" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="21">
         <v>4</v>
       </c>
@@ -24589,7 +24589,7 @@
       <c r="N439" s="11"/>
       <c r="O439" s="11"/>
     </row>
-    <row r="440" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="21">
         <v>4</v>
       </c>
@@ -24632,7 +24632,7 @@
       <c r="N440" s="11"/>
       <c r="O440" s="11"/>
     </row>
-    <row r="441" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="21">
         <v>4</v>
       </c>
@@ -24675,7 +24675,7 @@
       <c r="N441" s="11"/>
       <c r="O441" s="11"/>
     </row>
-    <row r="442" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="21">
         <v>4</v>
       </c>
@@ -24718,7 +24718,7 @@
       <c r="N442" s="11"/>
       <c r="O442" s="11"/>
     </row>
-    <row r="443" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="21">
         <v>4</v>
       </c>
@@ -24761,7 +24761,7 @@
       <c r="N443" s="11"/>
       <c r="O443" s="11"/>
     </row>
-    <row r="444" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="21">
         <v>4</v>
       </c>
@@ -24804,7 +24804,7 @@
       <c r="N444" s="11"/>
       <c r="O444" s="11"/>
     </row>
-    <row r="445" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="21">
         <v>4</v>
       </c>
@@ -24847,7 +24847,7 @@
       <c r="N445" s="11"/>
       <c r="O445" s="11"/>
     </row>
-    <row r="446" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="21">
         <v>4</v>
       </c>
@@ -24890,7 +24890,7 @@
       <c r="N446" s="11"/>
       <c r="O446" s="11"/>
     </row>
-    <row r="447" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="21">
         <v>4</v>
       </c>
@@ -24933,7 +24933,7 @@
       <c r="N447" s="11"/>
       <c r="O447" s="11"/>
     </row>
-    <row r="448" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="21">
         <v>4</v>
       </c>
@@ -24976,7 +24976,7 @@
       <c r="N448" s="11"/>
       <c r="O448" s="11"/>
     </row>
-    <row r="449" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="21">
         <v>4</v>
       </c>
@@ -25019,7 +25019,7 @@
       <c r="N449" s="11"/>
       <c r="O449" s="11"/>
     </row>
-    <row r="450" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="21">
         <v>4</v>
       </c>
@@ -25062,7 +25062,7 @@
       <c r="N450" s="11"/>
       <c r="O450" s="11"/>
     </row>
-    <row r="451" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="21">
         <v>4</v>
       </c>
@@ -25105,7 +25105,7 @@
       <c r="N451" s="11"/>
       <c r="O451" s="11"/>
     </row>
-    <row r="452" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="21">
         <v>4</v>
       </c>
@@ -25148,7 +25148,7 @@
       <c r="N452" s="11"/>
       <c r="O452" s="11"/>
     </row>
-    <row r="453" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="21">
         <v>4</v>
       </c>
@@ -25191,7 +25191,7 @@
       <c r="N453" s="11"/>
       <c r="O453" s="11"/>
     </row>
-    <row r="454" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="21">
         <v>4</v>
       </c>
@@ -25234,7 +25234,7 @@
       <c r="N454" s="11"/>
       <c r="O454" s="11"/>
     </row>
-    <row r="455" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="21">
         <v>4</v>
       </c>
@@ -25277,7 +25277,7 @@
       <c r="N455" s="11"/>
       <c r="O455" s="11"/>
     </row>
-    <row r="456" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="21">
         <v>4</v>
       </c>
@@ -25320,7 +25320,7 @@
       <c r="N456" s="11"/>
       <c r="O456" s="11"/>
     </row>
-    <row r="457" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="21">
         <v>4</v>
       </c>
@@ -25363,7 +25363,7 @@
       <c r="N457" s="11"/>
       <c r="O457" s="11"/>
     </row>
-    <row r="458" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="21">
         <v>4</v>
       </c>
@@ -25406,7 +25406,7 @@
       <c r="N458" s="11"/>
       <c r="O458" s="11"/>
     </row>
-    <row r="459" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="21">
         <v>4</v>
       </c>
@@ -25449,7 +25449,7 @@
       <c r="N459" s="11"/>
       <c r="O459" s="11"/>
     </row>
-    <row r="460" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="21">
         <v>4</v>
       </c>
@@ -25492,7 +25492,7 @@
       <c r="N460" s="11"/>
       <c r="O460" s="11"/>
     </row>
-    <row r="461" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="21">
         <v>4</v>
       </c>
@@ -25535,7 +25535,7 @@
       <c r="N461" s="11"/>
       <c r="O461" s="11"/>
     </row>
-    <row r="462" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="21">
         <v>4</v>
       </c>
@@ -25578,7 +25578,7 @@
       <c r="N462" s="11"/>
       <c r="O462" s="11"/>
     </row>
-    <row r="463" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="27">
         <v>2</v>
       </c>
@@ -25621,7 +25621,7 @@
       <c r="N463" s="11"/>
       <c r="O463" s="11"/>
     </row>
-    <row r="464" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="29">
         <v>2</v>
       </c>
@@ -25664,7 +25664,7 @@
       <c r="N464" s="11"/>
       <c r="O464" s="11"/>
     </row>
-    <row r="465" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="39">
         <v>2</v>
       </c>
@@ -25707,7 +25707,7 @@
       <c r="N465" s="11"/>
       <c r="O465" s="11"/>
     </row>
-    <row r="466" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="29">
         <v>2</v>
       </c>
@@ -25750,7 +25750,7 @@
       <c r="N466" s="11"/>
       <c r="O466" s="11"/>
     </row>
-    <row r="467" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="29">
         <v>2</v>
       </c>
@@ -25793,7 +25793,7 @@
       <c r="N467" s="11"/>
       <c r="O467" s="11"/>
     </row>
-    <row r="468" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="29">
         <v>2</v>
       </c>
@@ -25836,7 +25836,7 @@
       <c r="N468" s="11"/>
       <c r="O468" s="11"/>
     </row>
-    <row r="469" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="39">
         <v>2</v>
       </c>
@@ -25879,7 +25879,7 @@
       <c r="N469" s="11"/>
       <c r="O469" s="11"/>
     </row>
-    <row r="470" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="29">
         <v>2</v>
       </c>
@@ -25922,7 +25922,7 @@
       <c r="N470" s="11"/>
       <c r="O470" s="11"/>
     </row>
-    <row r="471" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="29">
         <v>2</v>
       </c>
@@ -25965,7 +25965,7 @@
       <c r="N471" s="11"/>
       <c r="O471" s="11"/>
     </row>
-    <row r="472" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="29">
         <v>2</v>
       </c>
@@ -26008,7 +26008,7 @@
       <c r="N472" s="11"/>
       <c r="O472" s="11"/>
     </row>
-    <row r="473" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="29">
         <v>2</v>
       </c>
@@ -26051,7 +26051,7 @@
       <c r="N473" s="11"/>
       <c r="O473" s="11"/>
     </row>
-    <row r="474" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="29" t="s">
         <v>454</v>
       </c>
@@ -26094,7 +26094,7 @@
       <c r="N474" s="11"/>
       <c r="O474" s="11"/>
     </row>
-    <row r="475" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="29">
         <v>2</v>
       </c>
@@ -26137,7 +26137,7 @@
       <c r="N475" s="11"/>
       <c r="O475" s="11"/>
     </row>
-    <row r="476" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="29">
         <v>2</v>
       </c>
@@ -26180,7 +26180,7 @@
       <c r="N476" s="11"/>
       <c r="O476" s="11"/>
     </row>
-    <row r="477" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="29">
         <v>2</v>
       </c>
@@ -26223,7 +26223,7 @@
       <c r="N477" s="11"/>
       <c r="O477" s="11"/>
     </row>
-    <row r="478" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="39">
         <v>2</v>
       </c>
@@ -26266,7 +26266,7 @@
       <c r="N478" s="11"/>
       <c r="O478" s="11"/>
     </row>
-    <row r="479" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="29" t="s">
         <v>454</v>
       </c>
@@ -26309,7 +26309,7 @@
       <c r="N479" s="11"/>
       <c r="O479" s="11"/>
     </row>
-    <row r="480" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="29">
         <v>2</v>
       </c>
@@ -26352,7 +26352,7 @@
       <c r="N480" s="11"/>
       <c r="O480" s="11"/>
     </row>
-    <row r="481" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="29">
         <v>2</v>
       </c>
@@ -26395,7 +26395,7 @@
       <c r="N481" s="11"/>
       <c r="O481" s="11"/>
     </row>
-    <row r="482" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="39">
         <v>2</v>
       </c>
@@ -26438,7 +26438,7 @@
       <c r="N482" s="11"/>
       <c r="O482" s="11"/>
     </row>
-    <row r="483" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="29" t="s">
         <v>454</v>
       </c>
@@ -26481,7 +26481,7 @@
       <c r="N483" s="11"/>
       <c r="O483" s="11"/>
     </row>
-    <row r="484" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="29">
         <v>2</v>
       </c>
@@ -26524,7 +26524,7 @@
       <c r="N484" s="11"/>
       <c r="O484" s="11"/>
     </row>
-    <row r="485" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="29">
         <v>2</v>
       </c>
@@ -26567,7 +26567,7 @@
       <c r="N485" s="11"/>
       <c r="O485" s="11"/>
     </row>
-    <row r="486" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="39">
         <v>2</v>
       </c>
@@ -26610,7 +26610,7 @@
       <c r="N486" s="11"/>
       <c r="O486" s="11"/>
     </row>
-    <row r="487" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="29">
         <v>2</v>
       </c>
@@ -26653,7 +26653,7 @@
       <c r="N487" s="11"/>
       <c r="O487" s="11"/>
     </row>
-    <row r="488" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="29">
         <v>2</v>
       </c>
@@ -26696,7 +26696,7 @@
       <c r="N488" s="11"/>
       <c r="O488" s="11"/>
     </row>
-    <row r="489" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="29" t="s">
         <v>454</v>
       </c>
@@ -26739,7 +26739,7 @@
       <c r="N489" s="11"/>
       <c r="O489" s="11"/>
     </row>
-    <row r="490" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="29">
         <v>2</v>
       </c>
@@ -26782,7 +26782,7 @@
       <c r="N490" s="11"/>
       <c r="O490" s="11"/>
     </row>
-    <row r="491" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="29">
         <v>2</v>
       </c>
@@ -26825,7 +26825,7 @@
       <c r="N491" s="11"/>
       <c r="O491" s="11"/>
     </row>
-    <row r="492" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="29" t="s">
         <v>454</v>
       </c>
@@ -26868,7 +26868,7 @@
       <c r="N492" s="11"/>
       <c r="O492" s="11"/>
     </row>
-    <row r="493" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="29">
         <v>2</v>
       </c>
@@ -26911,7 +26911,7 @@
       <c r="N493" s="11"/>
       <c r="O493" s="11"/>
     </row>
-    <row r="494" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="29">
         <v>2</v>
       </c>
@@ -26954,7 +26954,7 @@
       <c r="N494" s="11"/>
       <c r="O494" s="11"/>
     </row>
-    <row r="495" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="29" t="s">
         <v>454</v>
       </c>
@@ -26997,7 +26997,7 @@
       <c r="N495" s="11"/>
       <c r="O495" s="11"/>
     </row>
-    <row r="496" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="29">
         <v>2</v>
       </c>
@@ -27040,7 +27040,7 @@
       <c r="N496" s="11"/>
       <c r="O496" s="11"/>
     </row>
-    <row r="497" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="29" t="s">
         <v>454</v>
       </c>
@@ -27083,7 +27083,7 @@
       <c r="N497" s="11"/>
       <c r="O497" s="11"/>
     </row>
-    <row r="498" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="29">
         <v>2</v>
       </c>
@@ -27126,7 +27126,7 @@
       <c r="N498" s="11"/>
       <c r="O498" s="11"/>
     </row>
-    <row r="499" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="29" t="s">
         <v>454</v>
       </c>
@@ -27169,7 +27169,7 @@
       <c r="N499" s="11"/>
       <c r="O499" s="11"/>
     </row>
-    <row r="500" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="29">
         <v>2</v>
       </c>
@@ -27212,7 +27212,7 @@
       <c r="N500" s="11"/>
       <c r="O500" s="11"/>
     </row>
-    <row r="501" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="29">
         <v>4</v>
       </c>
@@ -27255,7 +27255,7 @@
       <c r="N501" s="11"/>
       <c r="O501" s="11"/>
     </row>
-    <row r="502" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="29">
         <v>4</v>
       </c>
@@ -27298,7 +27298,7 @@
       <c r="N502" s="11"/>
       <c r="O502" s="11"/>
     </row>
-    <row r="503" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="29" t="s">
         <v>454</v>
       </c>
@@ -27341,7 +27341,7 @@
       <c r="N503" s="11"/>
       <c r="O503" s="11"/>
     </row>
-    <row r="504" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="39">
         <v>2</v>
       </c>
@@ -27384,7 +27384,7 @@
       <c r="N504" s="11"/>
       <c r="O504" s="11"/>
     </row>
-    <row r="505" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="29" t="s">
         <v>454</v>
       </c>
@@ -27427,7 +27427,7 @@
       <c r="N505" s="11"/>
       <c r="O505" s="11"/>
     </row>
-    <row r="506" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="29" t="s">
         <v>454</v>
       </c>
@@ -27470,7 +27470,7 @@
       <c r="N506" s="11"/>
       <c r="O506" s="11"/>
     </row>
-    <row r="507" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="29" t="s">
         <v>454</v>
       </c>
@@ -27513,7 +27513,7 @@
       <c r="N507" s="11"/>
       <c r="O507" s="11"/>
     </row>
-    <row r="508" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="39">
         <v>2</v>
       </c>
@@ -27542,7 +27542,7 @@
       <c r="N508" s="11"/>
       <c r="O508" s="11"/>
     </row>
-    <row r="509" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="39">
         <v>2</v>
       </c>
@@ -27571,7 +27571,7 @@
       <c r="N509" s="11"/>
       <c r="O509" s="11"/>
     </row>
-    <row r="510" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="39">
         <v>2</v>
       </c>
@@ -27600,7 +27600,7 @@
       <c r="N510" s="11"/>
       <c r="O510" s="11"/>
     </row>
-    <row r="511" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="39">
         <v>2</v>
       </c>
@@ -27629,7 +27629,7 @@
       <c r="N511" s="11"/>
       <c r="O511" s="11"/>
     </row>
-    <row r="512" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="29" t="s">
         <v>454</v>
       </c>
@@ -27672,7 +27672,7 @@
       <c r="N512" s="11"/>
       <c r="O512" s="11"/>
     </row>
-    <row r="513" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="29">
         <v>8</v>
       </c>
@@ -27715,7 +27715,7 @@
       <c r="N513" s="11"/>
       <c r="O513" s="11"/>
     </row>
-    <row r="514" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="29">
         <v>8</v>
       </c>
@@ -27758,7 +27758,7 @@
       <c r="N514" s="11"/>
       <c r="O514" s="11"/>
     </row>
-    <row r="515" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="29">
         <v>8</v>
       </c>
@@ -27801,7 +27801,7 @@
       <c r="N515" s="11"/>
       <c r="O515" s="11"/>
     </row>
-    <row r="516" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="29">
         <v>8</v>
       </c>
@@ -27844,7 +27844,7 @@
       <c r="N516" s="11"/>
       <c r="O516" s="11"/>
     </row>
-    <row r="517" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="29">
         <v>8</v>
       </c>
@@ -27887,7 +27887,7 @@
       <c r="N517" s="11"/>
       <c r="O517" s="11"/>
     </row>
-    <row r="518" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="29">
         <v>8</v>
       </c>
@@ -27930,7 +27930,7 @@
       <c r="N518" s="11"/>
       <c r="O518" s="11"/>
     </row>
-    <row r="519" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="29">
         <v>8</v>
       </c>
@@ -27973,7 +27973,7 @@
       <c r="N519" s="11"/>
       <c r="O519" s="11"/>
     </row>
-    <row r="520" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="29">
         <v>8</v>
       </c>
@@ -28016,7 +28016,7 @@
       <c r="N520" s="11"/>
       <c r="O520" s="11"/>
     </row>
-    <row r="521" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="29">
         <v>8</v>
       </c>
@@ -28059,7 +28059,7 @@
       <c r="N521" s="11"/>
       <c r="O521" s="11"/>
     </row>
-    <row r="522" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="29">
         <v>8</v>
       </c>
@@ -28102,7 +28102,7 @@
       <c r="N522" s="11"/>
       <c r="O522" s="11"/>
     </row>
-    <row r="523" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="29">
         <v>8</v>
       </c>
@@ -28145,7 +28145,7 @@
       <c r="N523" s="11"/>
       <c r="O523" s="11"/>
     </row>
-    <row r="524" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="29">
         <v>8</v>
       </c>
@@ -28188,7 +28188,7 @@
       <c r="N524" s="11"/>
       <c r="O524" s="11"/>
     </row>
-    <row r="525" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="29">
         <v>8</v>
       </c>
@@ -28231,7 +28231,7 @@
       <c r="N525" s="11"/>
       <c r="O525" s="11"/>
     </row>
-    <row r="526" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="29">
         <v>8</v>
       </c>
@@ -28274,7 +28274,7 @@
       <c r="N526" s="11"/>
       <c r="O526" s="11"/>
     </row>
-    <row r="527" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="29">
         <v>8</v>
       </c>
@@ -28317,7 +28317,7 @@
       <c r="N527" s="11"/>
       <c r="O527" s="11"/>
     </row>
-    <row r="528" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="29">
         <v>8</v>
       </c>
@@ -28360,7 +28360,7 @@
       <c r="N528" s="11"/>
       <c r="O528" s="11"/>
     </row>
-    <row r="529" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="29">
         <v>8</v>
       </c>
@@ -28403,7 +28403,7 @@
       <c r="N529" s="11"/>
       <c r="O529" s="11"/>
     </row>
-    <row r="530" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="29">
         <v>8</v>
       </c>
@@ -28446,7 +28446,7 @@
       <c r="N530" s="11"/>
       <c r="O530" s="11"/>
     </row>
-    <row r="531" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="27">
         <v>1</v>
       </c>
@@ -28489,7 +28489,7 @@
       <c r="N531" s="11"/>
       <c r="O531" s="11"/>
     </row>
-    <row r="532" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="29">
         <v>8</v>
       </c>
@@ -28532,7 +28532,7 @@
       <c r="N532" s="11"/>
       <c r="O532" s="11"/>
     </row>
-    <row r="533" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="29">
         <v>8</v>
       </c>
@@ -28575,7 +28575,7 @@
       <c r="N533" s="11"/>
       <c r="O533" s="11"/>
     </row>
-    <row r="534" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="29">
         <v>8</v>
       </c>
@@ -28618,7 +28618,7 @@
       <c r="N534" s="11"/>
       <c r="O534" s="11"/>
     </row>
-    <row r="535" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="29">
         <v>8</v>
       </c>
@@ -28661,7 +28661,7 @@
       <c r="N535" s="11"/>
       <c r="O535" s="11"/>
     </row>
-    <row r="536" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="29">
         <v>8</v>
       </c>
@@ -28704,7 +28704,7 @@
       <c r="N536" s="11"/>
       <c r="O536" s="11"/>
     </row>
-    <row r="537" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="29">
         <v>8</v>
       </c>
@@ -28747,7 +28747,7 @@
       <c r="N537" s="11"/>
       <c r="O537" s="11"/>
     </row>
-    <row r="538" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="29">
         <v>8</v>
       </c>
@@ -28790,7 +28790,7 @@
       <c r="N538" s="11"/>
       <c r="O538" s="11"/>
     </row>
-    <row r="539" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="29">
         <v>8</v>
       </c>
@@ -28833,7 +28833,7 @@
       <c r="N539" s="11"/>
       <c r="O539" s="11"/>
     </row>
-    <row r="540" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="29">
         <v>8</v>
       </c>
@@ -28876,7 +28876,7 @@
       <c r="N540" s="11"/>
       <c r="O540" s="11"/>
     </row>
-    <row r="541" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="27">
         <v>1</v>
       </c>
@@ -28919,7 +28919,7 @@
       <c r="N541" s="11"/>
       <c r="O541" s="11"/>
     </row>
-    <row r="542" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="29">
         <v>8</v>
       </c>
@@ -28962,7 +28962,7 @@
       <c r="N542" s="11"/>
       <c r="O542" s="11"/>
     </row>
-    <row r="543" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="29">
         <v>8</v>
       </c>
@@ -29005,7 +29005,7 @@
       <c r="N543" s="11"/>
       <c r="O543" s="11"/>
     </row>
-    <row r="544" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="29">
         <v>8</v>
       </c>
@@ -29048,7 +29048,7 @@
       <c r="N544" s="11"/>
       <c r="O544" s="11"/>
     </row>
-    <row r="545" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="29">
         <v>8</v>
       </c>
@@ -29091,7 +29091,7 @@
       <c r="N545" s="11"/>
       <c r="O545" s="11"/>
     </row>
-    <row r="546" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="29">
         <v>8</v>
       </c>
@@ -29134,7 +29134,7 @@
       <c r="N546" s="11"/>
       <c r="O546" s="11"/>
     </row>
-    <row r="547" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="29">
         <v>8</v>
       </c>
@@ -29177,7 +29177,7 @@
       <c r="N547" s="11"/>
       <c r="O547" s="11"/>
     </row>
-    <row r="548" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="29">
         <v>8</v>
       </c>
@@ -29220,7 +29220,7 @@
       <c r="N548" s="11"/>
       <c r="O548" s="11"/>
     </row>
-    <row r="549" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="29">
         <v>8</v>
       </c>
@@ -29263,7 +29263,7 @@
       <c r="N549" s="11"/>
       <c r="O549" s="11"/>
     </row>
-    <row r="550" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="29">
         <v>8</v>
       </c>
@@ -29306,7 +29306,7 @@
       <c r="N550" s="11"/>
       <c r="O550" s="11"/>
     </row>
-    <row r="551" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="29">
         <v>8</v>
       </c>
@@ -29347,7 +29347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="29">
         <v>8</v>
       </c>
@@ -29388,7 +29388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="553" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="29">
         <v>8</v>
       </c>
@@ -29429,7 +29429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="554" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="29">
         <v>3</v>
       </c>
@@ -29470,7 +29470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="555" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="29">
         <v>3</v>
       </c>
@@ -29511,7 +29511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="556" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="27">
         <v>8</v>
       </c>
@@ -29552,7 +29552,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="557" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="27">
         <v>8</v>
       </c>
@@ -29593,7 +29593,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="558" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="27">
         <v>8</v>
       </c>
@@ -29634,7 +29634,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="559" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="27">
         <v>8</v>
       </c>
@@ -29675,7 +29675,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="560" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="27">
         <v>8</v>
       </c>
@@ -29716,7 +29716,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="561" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="27">
         <v>8</v>
       </c>
@@ -29757,7 +29757,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="562" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="27">
         <v>8</v>
       </c>
@@ -29798,7 +29798,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="563" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="27">
         <v>8</v>
       </c>
@@ -29839,7 +29839,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="564" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="27">
         <v>8</v>
       </c>
@@ -29880,7 +29880,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="565" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="27">
         <v>8</v>
       </c>
@@ -29921,7 +29921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="566" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="27">
         <v>8</v>
       </c>
@@ -29962,7 +29962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="567" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="27">
         <v>8</v>
       </c>
@@ -30003,7 +30003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="568" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="27">
         <v>8</v>
       </c>
@@ -30044,7 +30044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="569" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="27">
         <v>8</v>
       </c>
@@ -30085,7 +30085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="570" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="27">
         <v>8</v>
       </c>
@@ -30126,7 +30126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="571" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="27">
         <v>8</v>
       </c>
@@ -30167,7 +30167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="572" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="27">
         <v>8</v>
       </c>
@@ -30208,7 +30208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="573" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="27">
         <v>8</v>
       </c>
@@ -30249,7 +30249,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="574" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="27">
         <v>8</v>
       </c>
@@ -30290,7 +30290,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="575" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="27">
         <v>8</v>
       </c>
@@ -30331,7 +30331,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="576" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="27">
         <v>8</v>
       </c>
@@ -30372,7 +30372,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="577" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="27">
         <v>8</v>
       </c>
@@ -30413,7 +30413,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="578" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="27">
         <v>8</v>
       </c>
@@ -30454,7 +30454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="579" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="27">
         <v>8</v>
       </c>
@@ -30495,7 +30495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="580" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="27">
         <v>8</v>
       </c>
@@ -30536,7 +30536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="581" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="27">
         <v>8</v>
       </c>
@@ -30577,7 +30577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="582" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="27">
         <v>8</v>
       </c>
@@ -30618,7 +30618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="583" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="27">
         <v>8</v>
       </c>
@@ -30659,7 +30659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="584" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="27">
         <v>8</v>
       </c>
@@ -30700,7 +30700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="585" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="27">
         <v>8</v>
       </c>
@@ -30742,19 +30742,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M585" xr:uid="{7078E505-F72A-4D49-923C-8B55BDF4638D}">
+  <autoFilter ref="A1:P585" xr:uid="{EA8CBA96-8FAB-400D-8BF5-9F6C7AB226BA}">
     <filterColumn colId="0">
       <filters>
         <filter val="5"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Ja"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M550">
-      <sortCondition ref="B1:B550"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A159:P159">
+      <sortCondition ref="N1:N585"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -31016,7 +31011,7 @@
       <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -31031,17 +31026,17 @@
       <selection activeCell="A22" sqref="A22:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="117.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="9.109375" style="1"/>
+    <col min="1" max="1" width="26.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="117.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="25" width="9.140625" style="1"/>
     <col min="26" max="45" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="46" max="16384" width="9.109375" style="1"/>
+    <col min="46" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
         <v>65</v>
       </c>
@@ -31050,7 +31045,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>453</v>
       </c>
@@ -31058,7 +31053,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -31066,7 +31061,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -31074,7 +31069,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -31082,7 +31077,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -31090,7 +31085,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -31098,7 +31093,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -31106,7 +31101,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -31114,7 +31109,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -31122,7 +31117,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>454</v>
       </c>
@@ -31130,8 +31125,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -31139,7 +31134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>457</v>
       </c>
@@ -31147,8 +31142,8 @@
         <v>585</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>70</v>
       </c>
@@ -31156,7 +31151,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>507</v>
       </c>
@@ -31164,7 +31159,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>466</v>
       </c>
@@ -31172,7 +31167,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>159</v>
       </c>
@@ -31180,7 +31175,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1020</v>
       </c>
@@ -31188,10 +31183,10 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>66</v>
       </c>
@@ -31199,7 +31194,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -31207,7 +31202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>160</v>
       </c>
@@ -31215,10 +31210,10 @@
         <v>456</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>1041</v>
       </c>
@@ -31226,7 +31221,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -31234,7 +31229,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -31242,10 +31237,10 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>59</v>
       </c>
@@ -31253,7 +31248,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>1022</v>
       </c>
@@ -31261,7 +31256,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1023</v>
       </c>
@@ -31269,7 +31264,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1024</v>
       </c>
@@ -31277,7 +31272,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1025</v>
       </c>
@@ -31285,7 +31280,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>1026</v>
       </c>
@@ -31293,7 +31288,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1028</v>
       </c>
@@ -31301,7 +31296,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1027</v>
       </c>
@@ -31309,20 +31304,20 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
     </row>
   </sheetData>
@@ -31565,18 +31560,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31599,14 +31594,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -31621,4 +31608,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>